--- a/data/cleanedData/lifeExpectancy.xlsx
+++ b/data/cleanedData/lifeExpectancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AZ_DATEN\GitHub\Swinburne-COS30045-Data-Vis-Project\data\cleanedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C8F9EC-2C02-4183-A5F9-2ED90CE50B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5DFA27-D5D9-4492-8423-AA6CE615DE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,1936 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>xlsx-populate</author>
+  </authors>
+  <commentList>
+    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{9ECD7DE0-B3C9-4BC5-8CF0-881A93650EE8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM2" authorId="0" shapeId="0" xr:uid="{E67D53BB-8D3D-4B46-9452-F66981E9E4D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9DA31E9A-4AC7-4B18-85CF-BE302FB3E4C9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{935F7222-648C-48CC-8FCA-E214FEDBA349}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{CF13CBA7-B827-4AC4-B4C1-2CD55F4E3291}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{A20ED4FC-DA2F-404D-A7D3-3922091D07C0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5431C613-4DFD-4B18-BABA-14479D30E34D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{11FA5280-EF07-4F41-AAB1-823FC8307C94}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{D332B871-2E29-4000-8C3B-9DCA2146B639}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{66317412-BD3E-4447-9F7A-16EB8769620B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{1987BC70-E331-4BFF-95F1-32A20395F345}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{EEF9BBD6-86FA-4671-9C20-4689CB08DC58}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{96096523-FDAB-47DF-979B-071159F58917}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{B75CEAF7-DF13-4F31-86CA-ADED3C65C45D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{B238BA62-A9AB-42BF-887E-5139BF95CE08}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{39F6AB0F-31D1-48FA-9B91-2CF767C55FD5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ4" authorId="0" shapeId="0" xr:uid="{0219EC1B-45DA-42CD-B799-FA9AF3FA76F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR4" authorId="0" shapeId="0" xr:uid="{16F99613-8090-4119-9A85-35823E1CB4FF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL4" authorId="0" shapeId="0" xr:uid="{FD08F8FC-1C3E-41A6-BE2B-19152FE64CDC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM4" authorId="0" shapeId="0" xr:uid="{4C79C2BF-C143-4EC9-977E-2A954FF69AC7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0" shapeId="0" xr:uid="{4F03146F-5733-4B3D-B3D2-352BEEA4A3E2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR7" authorId="0" shapeId="0" xr:uid="{0F9A9889-A5C2-40AA-B5F5-8AA61CA72493}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM7" authorId="0" shapeId="0" xr:uid="{57AB4B73-9F6A-40B3-8C0A-F55602510B11}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR8" authorId="0" shapeId="0" xr:uid="{6717E56D-9DDA-427D-99BB-0202EA5220F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM8" authorId="0" shapeId="0" xr:uid="{D76066C4-02C1-489D-B090-0E0DE9B61FA7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI9" authorId="0" shapeId="0" xr:uid="{7ECA2BB4-63B5-4C6F-B3C5-9433E4D865D6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR9" authorId="0" shapeId="0" xr:uid="{9EBF17EE-075D-4FDA-81CA-F57264C0F091}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD9" authorId="0" shapeId="0" xr:uid="{D3930A4F-B925-4EA8-B60D-0FC40BBC3A70}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM9" authorId="0" shapeId="0" xr:uid="{704039B9-8A26-4CAE-AE86-81AFED9C9748}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{0A8E319F-D99A-4C4E-9650-26D800076EDE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR10" authorId="0" shapeId="0" xr:uid="{C63A57CF-3344-4752-BE08-407B7B27A760}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM10" authorId="0" shapeId="0" xr:uid="{3813602A-A41D-44F5-8274-ECE17D444883}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR11" authorId="0" shapeId="0" xr:uid="{0AF8A4D6-CF91-4B63-8E96-15BCD661BBDA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM11" authorId="0" shapeId="0" xr:uid="{6CF357D4-C3D2-4A0B-AC86-A7D90CA48788}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH12" authorId="0" shapeId="0" xr:uid="{FAA885AF-25CF-4F5E-86E0-F6BA7E01EC20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR12" authorId="0" shapeId="0" xr:uid="{62209102-B8AD-430F-91B2-6F9FFFD82CA0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC12" authorId="0" shapeId="0" xr:uid="{CBA3A262-6A11-494D-A3F6-66B00F7E687B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM12" authorId="0" shapeId="0" xr:uid="{3DCAE71A-531A-4CF4-BD29-B44866541480}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR13" authorId="0" shapeId="0" xr:uid="{9309E78B-0BA4-43DE-91D5-EB36A0F8FDE5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM13" authorId="0" shapeId="0" xr:uid="{BB585EC7-4292-4DB3-BD9B-C27C1510FB83}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR14" authorId="0" shapeId="0" xr:uid="{EBFA2520-BF2A-414C-85C3-9E8783D53736}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM14" authorId="0" shapeId="0" xr:uid="{E96067B2-608D-4E53-8876-FCE20C8609A9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR16" authorId="0" shapeId="0" xr:uid="{AA9DBB4D-7E54-46F0-ACEE-99D4597D633A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM16" authorId="0" shapeId="0" xr:uid="{D9EC44C7-0468-48E9-A381-DC6FE4992017}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR17" authorId="0" shapeId="0" xr:uid="{5DD825A9-0D1F-4FD5-8F2F-9646F8DBAA58}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM17" authorId="0" shapeId="0" xr:uid="{5CDC5E6E-47A5-4A00-93E4-496DEF252D57}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH18" authorId="0" shapeId="0" xr:uid="{D9B8112D-FE7F-4505-AD9A-8F85BD4A3C91}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR18" authorId="0" shapeId="0" xr:uid="{4FAFF25B-B89C-49E9-B746-D8BD22FAD2AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC18" authorId="0" shapeId="0" xr:uid="{4A3C1B83-E6DD-4574-B50E-1A69E4683B2B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM18" authorId="0" shapeId="0" xr:uid="{C881F45F-2B37-4DF8-86F1-0E5133C3E709}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR20" authorId="0" shapeId="0" xr:uid="{7BD038FA-7EFB-4BAD-85B5-3824FDCB809B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM20" authorId="0" shapeId="0" xr:uid="{3AC4FD8D-A2AD-423F-BEF5-9FC06BF2C590}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V21" authorId="0" shapeId="0" xr:uid="{41FA855B-B02F-4049-B3EF-7FF101408B83}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE21" authorId="0" shapeId="0" xr:uid="{FA790D38-B80A-4C5E-A87A-1097C6CEE687}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR21" authorId="0" shapeId="0" xr:uid="{1EC1AEAA-39F1-4DD0-8B5A-1B3C68549610}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ21" authorId="0" shapeId="0" xr:uid="{9F8D41F9-B7E0-421A-B349-5A069CCE52F3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM21" authorId="0" shapeId="0" xr:uid="{C0C9DAC2-A57A-4694-B459-1CD575A26F40}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR22" authorId="0" shapeId="0" xr:uid="{BF1A6093-B84B-4B04-8D8F-BDE2CB1AF754}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM22" authorId="0" shapeId="0" xr:uid="{7A0A5AFB-83BD-4BB0-87D3-BBFFCEBC0514}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR23" authorId="0" shapeId="0" xr:uid="{2456514F-4816-4076-A698-EA217963FC3E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM23" authorId="0" shapeId="0" xr:uid="{67B7E51E-5AD7-48E7-AD07-513E8D47B63B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD24" authorId="0" shapeId="0" xr:uid="{FFAD25D5-8C04-4306-A053-F7BF8D8B3740}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR24" authorId="0" shapeId="0" xr:uid="{6B06F304-1500-4676-A04F-34E0D43C3763}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY24" authorId="0" shapeId="0" xr:uid="{5A53EA05-0997-4CBF-ABD1-4996FF94F1C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM24" authorId="0" shapeId="0" xr:uid="{74C2BD60-6B92-47E2-B712-CA049260EE20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR25" authorId="0" shapeId="0" xr:uid="{F96ACFEB-C920-463E-A4CD-4D30674216B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM25" authorId="0" shapeId="0" xr:uid="{DC029143-0F6F-497E-A7BB-19C53B8C9BA9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG26" authorId="0" shapeId="0" xr:uid="{7C4DD283-1B7B-495C-AAE9-1FEE5E673867}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR26" authorId="0" shapeId="0" xr:uid="{3D76422F-8686-4AB2-AA56-5A48CFB95709}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB26" authorId="0" shapeId="0" xr:uid="{BF9A5355-A522-4AF3-A9D0-5E0AE5201C09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM26" authorId="0" shapeId="0" xr:uid="{26B89264-621B-4BB3-A405-ED0110628B51}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{F6DA268A-6050-4A9C-85F8-F28D9A364022}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{01CA1B69-EDDB-4EEA-9D89-7298A1B85C68}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{D1FDED21-3B63-4ED7-9E37-D51EF6DDDB7A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{958D61D7-2D74-4096-BA5E-689D2B151324}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{BD18B386-8570-46B7-B4FE-04901F86310A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{8D4AEA94-027F-4817-8119-80847A4C1FAC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{1106AA3A-5B35-456B-9043-378B676D9F8C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{2429D2D5-AB2B-470C-92F4-CCE4A8863F73}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{9EA34CA7-342A-4252-9798-99721501510E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="0" shapeId="0" xr:uid="{7705AEFF-C66F-4500-907D-B49FD4F40041}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{2508FC61-89EE-4236-B88B-984DEE333397}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M27" authorId="0" shapeId="0" xr:uid="{1EAE8546-7F46-4239-832A-189A0E75B853}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{0185F4B8-68B3-44AB-BFC9-31E4A96DBDCB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{DC25EE95-20B7-48DD-81BF-FFC0B33D1EDB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="0" shapeId="0" xr:uid="{DC5F201E-5BB7-4BF4-8863-3BC158CDA7B9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q27" authorId="0" shapeId="0" xr:uid="{549BF6DC-F70F-412B-925E-0191BE71B934}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0" shapeId="0" xr:uid="{12376DA7-B380-459A-BB30-2205911D66F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S27" authorId="0" shapeId="0" xr:uid="{831C6DD2-1BDA-4B8B-AC72-7D735CB88E84}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T27" authorId="0" shapeId="0" xr:uid="{3708CB85-95AF-400C-A24F-1E73D5915A23}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U27" authorId="0" shapeId="0" xr:uid="{A67FC6A4-F924-4F4D-95C0-70D4E9E2DF0B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V27" authorId="0" shapeId="0" xr:uid="{23B27987-763B-4DFA-8C09-B849F1D2E5A9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W27" authorId="0" shapeId="0" xr:uid="{C1512E0C-CBAE-432A-883A-3E01D100AA8E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X27" authorId="0" shapeId="0" xr:uid="{8575754B-5503-4DE3-B8FB-441BB14F5AEA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y27" authorId="0" shapeId="0" xr:uid="{94880CAB-6FA1-4377-8D3E-15A60E4675A2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z27" authorId="0" shapeId="0" xr:uid="{5329D128-6CA8-47ED-A47E-654B6075609B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA27" authorId="0" shapeId="0" xr:uid="{8F347E1F-E93F-46AA-BD85-8E585A0409E0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB27" authorId="0" shapeId="0" xr:uid="{110E812C-EAAA-49B7-B6B6-BA2CC446A528}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC27" authorId="0" shapeId="0" xr:uid="{D484CA95-D827-418F-B0B4-C8F8D60BC62C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD27" authorId="0" shapeId="0" xr:uid="{A9736C8E-EB89-446E-9253-BCC81CFFDD31}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE27" authorId="0" shapeId="0" xr:uid="{4EABDB0B-D86D-43B0-B4D4-2AAB66C300B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF27" authorId="0" shapeId="0" xr:uid="{C8B07AEB-C242-49B2-B745-855A71FCBD78}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG27" authorId="0" shapeId="0" xr:uid="{371F4134-5F06-455B-B09F-85AACF140896}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH27" authorId="0" shapeId="0" xr:uid="{C25EEC24-5F11-4E9B-8268-91DAAA6A33B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI27" authorId="0" shapeId="0" xr:uid="{3EE5015C-7D80-436A-A518-BD511FAA19AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ27" authorId="0" shapeId="0" xr:uid="{97337B05-5866-402A-A37E-B4CAD18DF607}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK27" authorId="0" shapeId="0" xr:uid="{F3F82D1E-6CA2-4D2E-8FFD-AD1777A42C0E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL27" authorId="0" shapeId="0" xr:uid="{C763A713-5614-47C2-83C5-125C8F17B9DF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM27" authorId="0" shapeId="0" xr:uid="{8B489D9B-ECD9-4E80-BE72-82BC1BA0644A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN27" authorId="0" shapeId="0" xr:uid="{8204FEA4-83FA-4179-B6B4-92D293131CF7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO27" authorId="0" shapeId="0" xr:uid="{C0B8B6E9-6466-4508-AFD3-91C21CA22F11}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP27" authorId="0" shapeId="0" xr:uid="{C5E615F4-1029-49E9-9E4C-75BBC633E2A1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS27" authorId="0" shapeId="0" xr:uid="{94727576-DC7E-45D1-B4CE-50D5FA8CC1C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT27" authorId="0" shapeId="0" xr:uid="{2FE625F3-3DC9-4936-BE40-A049731DC38A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU27" authorId="0" shapeId="0" xr:uid="{07B6614F-1526-4FE5-B995-9FF8A767E836}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV27" authorId="0" shapeId="0" xr:uid="{58E74046-7A34-4963-8B47-31953DDBEE5D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW27" authorId="0" shapeId="0" xr:uid="{CEF55914-4D4B-4C91-9E77-560827AE70A0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX27" authorId="0" shapeId="0" xr:uid="{DAA6364E-A11A-4DF8-818D-E9CCC86457AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY27" authorId="0" shapeId="0" xr:uid="{9ADBB60E-0636-4C71-B4E0-F716420429A5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ27" authorId="0" shapeId="0" xr:uid="{B66EB914-7756-491A-9969-1F2499FCCF56}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA27" authorId="0" shapeId="0" xr:uid="{8EA80D29-F0DB-4626-AF60-B367027C24E5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB27" authorId="0" shapeId="0" xr:uid="{134E922F-0801-4C0D-9128-7CFD75B3CE77}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC27" authorId="0" shapeId="0" xr:uid="{05EA1081-8290-4102-A09F-2B7CEF86A5EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD27" authorId="0" shapeId="0" xr:uid="{BB67E0CA-5C15-4BDF-980A-A782D859BF77}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE27" authorId="0" shapeId="0" xr:uid="{1FB7D1EA-9202-47A0-BBFF-94595A48A12E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF27" authorId="0" shapeId="0" xr:uid="{DAA0BD02-6FFA-457F-84DE-9F1943EF1E41}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG27" authorId="0" shapeId="0" xr:uid="{693B2BE1-30C6-4E14-9CAD-98B09261AD64}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH27" authorId="0" shapeId="0" xr:uid="{9927BA8E-208B-4D7B-91D8-E195C1ED4949}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI27" authorId="0" shapeId="0" xr:uid="{326AC3DB-4895-444B-9C68-5F8C4006AAB2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ27" authorId="0" shapeId="0" xr:uid="{7D5137CC-28E3-4F6F-A72E-F22FEA456DC9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK27" authorId="0" shapeId="0" xr:uid="{54E5B3BC-40CB-4F6C-8563-8A3858E08990}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Estimated value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR31" authorId="0" shapeId="0" xr:uid="{FEA93AC7-7A57-4D39-BB2C-4E6D62B528FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM31" authorId="0" shapeId="0" xr:uid="{BBDAE673-3BD5-4D0F-9FD5-32CF6B7D8B69}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR33" authorId="0" shapeId="0" xr:uid="{CBDEED84-C37A-465F-9382-4DDF5727F322}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM33" authorId="0" shapeId="0" xr:uid="{A3DF0AE8-1A58-4DC0-8632-8DD646A02302}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Provisional value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ37" authorId="0" shapeId="0" xr:uid="{C847B948-C0AB-485B-A6C8-029832DD53B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE37" authorId="0" shapeId="0" xr:uid="{4F081FBE-F013-46E1-B7A0-08A666BF1542}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Observation status: Time series break</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Country</t>
   </si>
@@ -245,17 +2173,45 @@
   <si>
     <t>·  South Africa</t>
   </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Non-OECD economies</t>
+  </si>
+  <si>
+    <t>·  Croatia</t>
+  </si>
+  <si>
+    <t>·  Romania</t>
+  </si>
+  <si>
+    <t>·  Russia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="\B\ \ \ #,##0.0;\B\ \ \ \-#,##0.0"/>
     <numFmt numFmtId="166" formatCode="\E\ \ \ #,##0.0;\E\ \ \ \-#,##0.0"/>
     <numFmt numFmtId="167" formatCode="\E\ \ \ #,##0;\E\ \ \ \-#,##0"/>
     <numFmt numFmtId="168" formatCode="\P\ \ \ #,##0;\P\ \ \ \-#,##0"/>
+    <numFmt numFmtId="169" formatCode="\P\ \ \ #,##0.0;\P\ \ \ \-#,##0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -280,7 +2236,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +2251,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0549AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -325,7 +2286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -351,11 +2312,55 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -652,16 +2657,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:BM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,8 +2796,47 @@
       <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC1" s="3">
+        <v>64.7</v>
+      </c>
+      <c r="BD1" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="BE1" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="BF1" s="3">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="BG1" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="BI1" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>65.5</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -922,8 +2966,74 @@
       <c r="AQ2" s="3">
         <v>81.3</v>
       </c>
+      <c r="AR2" s="10">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="BJ2" s="4">
+        <v>82</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="BM2" s="10">
+        <v>81.099999999999994</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1053,8 +3163,74 @@
       <c r="AQ3" s="3">
         <v>81.599999999999994</v>
       </c>
+      <c r="AR3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>82</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="BM3" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1184,8 +3360,74 @@
       <c r="AQ4" s="8">
         <v>81</v>
       </c>
+      <c r="AR4" s="10">
+        <v>81.2</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>78.5</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>79</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>80</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="BL4" s="8">
+        <v>81</v>
+      </c>
+      <c r="BM4" s="10">
+        <v>81.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:65" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1315,8 +3557,74 @@
       <c r="AQ5" s="3">
         <v>76.8</v>
       </c>
+      <c r="AR5" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>73</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>74</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>75</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>76.900000000000006</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1446,8 +3754,74 @@
       <c r="AQ6" s="3">
         <v>80.8</v>
       </c>
+      <c r="AR6" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>78.5</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>79</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="BG6" s="4">
+        <v>80</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="BM6" s="3">
+        <v>80.900000000000006</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1577,8 +3951,74 @@
       <c r="AQ7" s="3">
         <v>77.2</v>
       </c>
+      <c r="AR7" s="10">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>77</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>77.7</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>78</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="BM7" s="10">
+        <v>79.099999999999994</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1708,8 +4148,74 @@
       <c r="AQ8" s="3">
         <v>81.5</v>
       </c>
+      <c r="AR8" s="10">
+        <v>81.3</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>79</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BI8" s="4">
+        <v>81</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="BM8" s="10">
+        <v>81.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1839,8 +4345,74 @@
       <c r="AQ9" s="3">
         <v>82.4</v>
       </c>
+      <c r="AR9" s="10">
+        <v>82.3</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>81</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="BD9" s="5">
+        <v>82.4</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="BJ9" s="4">
+        <v>83</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="BL9" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BM9" s="10">
+        <v>82.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1970,8 +4542,74 @@
       <c r="AQ10" s="3">
         <v>80.8</v>
       </c>
+      <c r="AR10" s="10">
+        <v>80.7</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AY10" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="AZ10" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="BC10" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="BD10" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="BE10" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="BF10" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>81</v>
+      </c>
+      <c r="BH10" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BI10" s="4">
+        <v>81</v>
+      </c>
+      <c r="BJ10" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="BK10" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BL10" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="BM10" s="10">
+        <v>80.7</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -2101,8 +4739,74 @@
       <c r="AQ11" s="3">
         <v>80.2</v>
       </c>
+      <c r="AR11" s="10">
+        <v>80.7</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="BE11" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="BF11" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BG11" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="BH11" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="BI11" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BJ11" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="BK11" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="BL11" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="BM11" s="10">
+        <v>80.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2232,8 +4936,74 @@
       <c r="AQ12" s="3">
         <v>74.3</v>
       </c>
+      <c r="AR12" s="10">
+        <v>76.2</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>73</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>73</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="AZ12" s="3">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="BC12" s="5">
+        <v>75.3</v>
+      </c>
+      <c r="BD12" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>76</v>
+      </c>
+      <c r="BF12" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="BG12" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="BH12" s="4">
+        <v>76</v>
+      </c>
+      <c r="BI12" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="BJ12" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="BK12" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="BL12" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="BM12" s="10">
+        <v>76.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2363,8 +5133,74 @@
       <c r="AQ13" s="3">
         <v>83.2</v>
       </c>
+      <c r="AR13" s="10">
+        <v>82.1</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>81</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>83</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="BG13" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="BI13" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="BJ13" s="3">
+        <v>83.2</v>
+      </c>
+      <c r="BK13" s="3">
+        <v>83.1</v>
+      </c>
+      <c r="BL13" s="3">
+        <v>83.2</v>
+      </c>
+      <c r="BM13" s="10">
+        <v>82.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -2494,8 +5330,74 @@
       <c r="AQ14" s="3">
         <v>82.7</v>
       </c>
+      <c r="AR14" s="8">
+        <v>83</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>83.2</v>
+      </c>
+      <c r="BF14" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BG14" s="3">
+        <v>83.4</v>
+      </c>
+      <c r="BH14" s="3">
+        <v>83.1</v>
+      </c>
+      <c r="BI14" s="3">
+        <v>83.4</v>
+      </c>
+      <c r="BJ14" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="BK14" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="BL14" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BM14" s="8">
+        <v>83</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,2119 +5527,4631 @@
       <c r="AQ15" s="3">
         <v>83.6</v>
       </c>
+      <c r="AR15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>80</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="BG15" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BH15" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BI15" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BJ15" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="BK15" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="BL15" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="BM15" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3">
-        <v>70.5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>70.5</v>
-      </c>
-      <c r="D16" s="3">
+        <v>75</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
+        <v>0</v>
+      </c>
+      <c r="V16" s="11">
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="Z16" s="3">
         <v>70.900000000000006</v>
       </c>
-      <c r="E16" s="3">
+      <c r="AA16" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AC16" s="3">
         <v>70.8</v>
       </c>
-      <c r="F16" s="3">
-        <v>70.3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="H16" s="3">
-        <v>72.3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>72.2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>72</v>
-      </c>
-      <c r="K16" s="3">
-        <v>71.7</v>
-      </c>
-      <c r="L16" s="3">
-        <v>71.5</v>
-      </c>
-      <c r="M16" s="3">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="N16" s="3">
-        <v>70.5</v>
-      </c>
-      <c r="O16" s="4">
-        <v>69</v>
-      </c>
-      <c r="P16" s="3">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="R16" s="3">
-        <v>70.3</v>
-      </c>
-      <c r="S16" s="3">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="T16" s="3">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="U16" s="3">
-        <v>71.8</v>
-      </c>
-      <c r="V16" s="3">
+      <c r="AD16" s="3">
         <v>72.099999999999994</v>
       </c>
-      <c r="W16" s="3">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="X16" s="3">
-        <v>71.8</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>72</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>72</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>71.2</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>71</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>70.7</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>71.7</v>
-      </c>
       <c r="AE16" s="3">
-        <v>72.900000000000006</v>
+        <v>72.8</v>
       </c>
       <c r="AF16" s="3">
-        <v>73.3</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="AG16" s="3">
-        <v>73.7</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="AH16" s="3">
         <v>74.099999999999994</v>
       </c>
       <c r="AI16" s="3">
-        <v>74.099999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="AJ16" s="3">
-        <v>74.7</v>
+        <v>74.5</v>
       </c>
       <c r="AK16" s="3">
-        <v>74.599999999999994</v>
+        <v>74.8</v>
       </c>
       <c r="AL16" s="3">
         <v>74.900000000000006</v>
       </c>
       <c r="AM16" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>74.8</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>72.8</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="BF16" s="3">
+        <v>74.8</v>
+      </c>
+      <c r="BG16" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BH16" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BI16" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="BJ16" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="BK16" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="BL16" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="BM16" s="10">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E17" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="H17" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>72</v>
+      </c>
+      <c r="K17" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="L17" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="N17" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="O17" s="4">
+        <v>69</v>
+      </c>
+      <c r="P17" s="3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="R17" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="S17" s="3">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="T17" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="U17" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="V17" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="W17" s="3">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="X17" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>72</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>71</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AM17" s="3">
         <v>75.8</v>
       </c>
-      <c r="AN16" s="4">
+      <c r="AN17" s="4">
         <v>76</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AO17" s="3">
         <v>76.5</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AP17" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ17" s="3">
         <v>74.2</v>
       </c>
+      <c r="AR17" s="8">
+        <v>76</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>72</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>72</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>71</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BH17" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="BI17" s="4">
+        <v>76</v>
+      </c>
+      <c r="BJ17" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="BK17" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="BL17" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="BM17" s="8">
+        <v>76</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>72.8</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>72.599999999999994</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>72.7</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>73.5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>73.3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>73.8</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>74.7</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <v>74.3</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <v>75</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K18" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L18" s="3">
         <v>75.7</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M18" s="3">
         <v>75.7</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="3">
         <v>75.3</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="4">
         <v>76</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P18" s="3">
         <v>76.7</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q18" s="3">
         <v>76.8</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R18" s="3">
         <v>76.8</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S18" s="3">
         <v>77.099999999999994</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T18" s="3">
         <v>77.3</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U18" s="4">
         <v>78</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V18" s="4">
         <v>78</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W18" s="4">
         <v>78</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X18" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y18" s="3">
         <v>77.900000000000006</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z18" s="3">
         <v>79.2</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA18" s="3">
         <v>79.599999999999994</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB18" s="3">
         <v>79.400000000000006</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC18" s="3">
         <v>79.5</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD18" s="3">
         <v>80.7</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE18" s="3">
         <v>80.8</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF18" s="3">
         <v>80.8</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AG18" s="3">
         <v>81.099999999999994</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AH18" s="5">
         <v>81.5</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI18" s="3">
         <v>81.900000000000006</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AJ18" s="3">
         <v>82.3</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AK18" s="3">
         <v>82.4</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AL18" s="3">
         <v>82.7</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AM18" s="3">
         <v>82.1</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AN18" s="3">
         <v>82.3</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AO18" s="3">
         <v>82.7</v>
       </c>
-      <c r="AP17" s="3">
+      <c r="AP18" s="3">
         <v>82.2</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AQ18" s="3">
         <v>82.7</v>
       </c>
+      <c r="AR18" s="8">
+        <v>83</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AX18" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="AY18" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BC18" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BE18" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="BF18" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BG18" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BH18" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="BI18" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="BJ18" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BK18" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="BL18" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BM18" s="8">
+        <v>83</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>66.2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>66.900000000000006</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>67.7</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>68.3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>68.8</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="4">
         <v>69</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <v>69.8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <v>70.099999999999994</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="3">
         <v>70.2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K19" s="3">
         <v>70.5</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L19" s="3">
         <v>70.900000000000006</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M19" s="3">
         <v>71.599999999999994</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N19" s="3">
         <v>71.900000000000006</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O19" s="4">
         <v>72</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P19" s="3">
         <v>72.3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q19" s="3">
         <v>72.2</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R19" s="3">
         <v>72.7</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S19" s="3">
         <v>73.099999999999994</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T19" s="3">
         <v>73.5</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U19" s="4">
         <v>74</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V19" s="3">
         <v>74.7</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W19" s="4">
         <v>75</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X19" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y19" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z19" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA19" s="3">
         <v>75.2</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB19" s="3">
         <v>75.5</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC19" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD19" s="3">
         <v>75.2</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE19" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF19" s="3">
         <v>74.8</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG19" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AH19" s="4">
         <v>75</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AI19" s="4">
         <v>75</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AJ19" s="4">
         <v>75</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AK19" s="3">
         <v>74.7</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AL19" s="3">
         <v>74.8</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AM19" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AN18" s="4">
+      <c r="AN19" s="4">
         <v>75</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AO19" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AP19" s="3">
         <v>75.2</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AQ19" s="3">
         <v>75.400000000000006</v>
       </c>
+      <c r="AR19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AV19" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="AX19" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AY19" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BA19" s="3">
+        <v>74.8</v>
+      </c>
+      <c r="BB19" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BC19" s="4">
+        <v>75</v>
+      </c>
+      <c r="BD19" s="4">
+        <v>75</v>
+      </c>
+      <c r="BE19" s="4">
+        <v>75</v>
+      </c>
+      <c r="BF19" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="BG19" s="3">
+        <v>74.8</v>
+      </c>
+      <c r="BH19" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BI19" s="4">
+        <v>75</v>
+      </c>
+      <c r="BJ19" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="BK19" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="BL19" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="BM19" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>75.8</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>76</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>76.2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>76.3</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>76</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <v>76.2</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <v>76.3</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <v>77.099999999999994</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <v>77.3</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="3">
         <v>77.2</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="3">
         <v>77.900000000000006</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q20" s="3">
         <v>77.900000000000006</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R20" s="3">
         <v>78.3</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S20" s="3">
         <v>78.3</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T20" s="3">
         <v>78.5</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U20" s="3">
         <v>78.400000000000006</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V20" s="3">
         <v>78.8</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W20" s="4">
         <v>79</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X20" s="4">
         <v>79</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y20" s="3">
         <v>79.599999999999994</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z20" s="3">
         <v>80.099999999999994</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA20" s="3">
         <v>80.3</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB20" s="3">
         <v>80.599999999999994</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC20" s="3">
         <v>80.599999999999994</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD20" s="3">
         <v>80.8</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AE20" s="4">
         <v>81</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF20" s="3">
         <v>81.2</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AG20" s="3">
         <v>81.400000000000006</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="AH20" s="3">
         <v>81.5</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI20" s="3">
         <v>81.8</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AJ20" s="3">
         <v>82.2</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AK20" s="3">
         <v>82.4</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL20" s="3">
         <v>82.5</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AM20" s="3">
         <v>82.7</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AN20" s="3">
         <v>82.8</v>
       </c>
-      <c r="AO19" s="4">
+      <c r="AO20" s="4">
         <v>83</v>
       </c>
-      <c r="AP19" s="3">
+      <c r="AP20" s="3">
         <v>83.3</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AQ20" s="3">
         <v>83.2</v>
       </c>
+      <c r="AR20" s="10">
+        <v>82.6</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>79</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AX20" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AY20" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="AZ20" s="4">
+        <v>81</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="BB20" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="BC20" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="BD20" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="BE20" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="BF20" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BG20" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="BH20" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BI20" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="BJ20" s="4">
+        <v>83</v>
+      </c>
+      <c r="BK20" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="BL20" s="3">
+        <v>83.2</v>
+      </c>
+      <c r="BM20" s="10">
+        <v>82.6</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>70.2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>71.2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>71.2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>70.900000000000006</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>71</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <v>71.5</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <v>71.5</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K21" s="3">
         <v>71.2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L21" s="3">
         <v>70.7</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M21" s="3">
         <v>70.400000000000006</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N21" s="4">
         <v>71</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O21" s="3">
         <v>71.5</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P21" s="3">
         <v>71.8</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q21" s="4">
         <v>72</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R21" s="3">
         <v>72.3</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S21" s="3">
         <v>72.7</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T21" s="3">
         <v>73.099999999999994</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U21" s="3">
         <v>73.099999999999994</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V21" s="5">
         <v>73.8</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W21" s="3">
         <v>74.2</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X21" s="3">
         <v>74.5</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y21" s="3">
         <v>74.7</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z21" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA21" s="4">
         <v>75</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB21" s="3">
         <v>75.3</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC21" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD21" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AE21" s="5">
         <v>75.900000000000006</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF21" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AG21" s="3">
         <v>76.8</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AH21" s="3">
         <v>76.900000000000006</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI21" s="3">
         <v>77.099999999999994</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AJ21" s="3">
         <v>77.8</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AK21" s="3">
         <v>77.5</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AL21" s="4">
         <v>78</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AM21" s="3">
         <v>77.8</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AN21" s="3">
         <v>77.7</v>
       </c>
-      <c r="AO20" s="4">
+      <c r="AO21" s="4">
         <v>78</v>
       </c>
-      <c r="AP20" s="3">
+      <c r="AP21" s="3">
         <v>76.5</v>
       </c>
-      <c r="AQ20" s="3">
+      <c r="AQ21" s="3">
         <v>75.5</v>
       </c>
+      <c r="AR21" s="10">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AV21" s="4">
+        <v>75</v>
+      </c>
+      <c r="AW21" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="AX21" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AY21" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="BA21" s="3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="BB21" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="BC21" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="BD21" s="3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="BE21" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="BF21" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="BG21" s="4">
+        <v>78</v>
+      </c>
+      <c r="BH21" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="BI21" s="3">
+        <v>77.7</v>
+      </c>
+      <c r="BJ21" s="4">
+        <v>78</v>
+      </c>
+      <c r="BK21" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="BL21" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="BM21" s="10">
+        <v>77.400000000000006</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>71.5</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>71.8</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>72.5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>72.400000000000006</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>72.7</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>73</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>73.400000000000006</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <v>73.8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J22" s="3">
         <v>73.8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K22" s="3">
         <v>74.400000000000006</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L22" s="3">
         <v>74.099999999999994</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M22" s="3">
         <v>74.099999999999994</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="3">
         <v>74.7</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O22" s="3">
         <v>74.599999999999994</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P22" s="3">
         <v>75.5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q22" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R22" s="3">
         <v>75.3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S22" s="3">
         <v>75.8</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T22" s="4">
         <v>76</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U22" s="3">
         <v>76.2</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V22" s="3">
         <v>76.8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W22" s="3">
         <v>77.2</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X22" s="3">
         <v>77.400000000000006</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y22" s="3">
         <v>77.5</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z22" s="3">
         <v>78.400000000000006</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA22" s="3">
         <v>78.2</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AB22" s="4">
         <v>79</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC22" s="3">
         <v>79.3</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD22" s="3">
         <v>79.5</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE22" s="3">
         <v>79.7</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF22" s="3">
         <v>80.099999999999994</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG22" s="3">
         <v>80.7</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AH22" s="3">
         <v>80.599999999999994</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI22" s="3">
         <v>80.900000000000006</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AJ22" s="3">
         <v>81.3</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AK22" s="3">
         <v>81.3</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AL22" s="3">
         <v>81.3</v>
       </c>
-      <c r="AM21" s="3">
+      <c r="AM22" s="3">
         <v>81.599999999999994</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AN22" s="3">
         <v>81.5</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AO22" s="3">
         <v>81.900000000000006</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AP22" s="3">
         <v>81.099999999999994</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AQ22" s="3">
         <v>81.5</v>
       </c>
+      <c r="AR22" s="10">
+        <v>81.7</v>
+      </c>
+      <c r="AS22" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="AW22" s="4">
+        <v>79</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="AY22" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="BB22" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="BC22" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="BD22" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="BE22" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="BF22" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="BG22" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="BH22" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="BI22" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="BJ22" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BK22" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BL22" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="BM22" s="10">
+        <v>81.7</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>70.400000000000006</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>70.7</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>70.900000000000006</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>70.599999999999994</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>70.8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>70.900000000000006</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>71.3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J23" s="3">
         <v>71.400000000000006</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K23" s="3">
         <v>71.2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M23" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="3">
         <v>71.5</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="4">
         <v>72</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P23" s="3">
         <v>72.5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q23" s="3">
         <v>72.400000000000006</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R23" s="3">
         <v>72.900000000000006</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S23" s="3">
         <v>72.900000000000006</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T23" s="3">
         <v>72.8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U23" s="3">
         <v>73.2</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V23" s="3">
         <v>73.3</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W23" s="3">
         <v>73.599999999999994</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X23" s="3">
         <v>73.8</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y23" s="3">
         <v>73.8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z23" s="3">
         <v>74.2</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA23" s="3">
         <v>74.099999999999994</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB23" s="3">
         <v>74.5</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC23" s="3">
         <v>74.599999999999994</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD23" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE23" s="3">
         <v>75.3</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF23" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG23" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AH23" s="3">
         <v>76.3</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI23" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AJ23" s="4">
         <v>77</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AK23" s="3">
         <v>76.7</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AL23" s="3">
         <v>77.3</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AM23" s="3">
         <v>77.3</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AN23" s="3">
         <v>77.400000000000006</v>
       </c>
-      <c r="AO22" s="3">
+      <c r="AO23" s="3">
         <v>77.8</v>
       </c>
-      <c r="AP22" s="4">
+      <c r="AP23" s="4">
         <v>77</v>
       </c>
-      <c r="AQ22" s="3">
+      <c r="AQ23" s="3">
         <v>74.599999999999994</v>
       </c>
+      <c r="AR23" s="10">
+        <v>77.2</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="AT23" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="AU23" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="AV23" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AW23" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="AX23" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AY23" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AZ23" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="BA23" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="BB23" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="BC23" s="3">
+        <v>76.3</v>
+      </c>
+      <c r="BD23" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>77</v>
+      </c>
+      <c r="BF23" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="BG23" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="BH23" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="BI23" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="BJ23" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>77</v>
+      </c>
+      <c r="BL23" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="BM23" s="10">
+        <v>77.2</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>71</v>
+      </c>
+      <c r="F24" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G24" s="3">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="H24" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="J24" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="K24" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="M24" s="3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="N24" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="O24" s="3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="P24" s="4">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="R24" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="S24" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="T24" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="U24" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="V24" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="W24" s="3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="X24" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="AR24" s="10">
+        <v>81.3</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="AV24" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AY24" s="5">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="BB24" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="BC24" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="BD24" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="BE24" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="BF24" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="BG24" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="BH24" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="BI24" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="BJ24" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="BK24" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="BL24" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="BM24" s="10">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B25" s="3">
         <v>75.5</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C25" s="3">
         <v>75.7</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>76.3</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E25" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F25" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G25" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H25" s="3">
         <v>76.7</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I25" s="3">
         <v>76.900000000000006</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J25" s="3">
         <v>76.900000000000006</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K25" s="4">
         <v>77</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L25" s="3">
         <v>76.900000000000006</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M25" s="3">
         <v>77.099999999999994</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N25" s="3">
         <v>77.599999999999994</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O25" s="3">
         <v>77.7</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P25" s="4">
         <v>78</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q25" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R25" s="3">
         <v>78.3</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S25" s="3">
         <v>78.8</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T25" s="3">
         <v>78.8</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U25" s="3">
         <v>78.8</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V25" s="3">
         <v>79.3</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W25" s="3">
         <v>79.8</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X25" s="3">
         <v>79.8</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y25" s="3">
         <v>79.7</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z25" s="3">
         <v>80.400000000000006</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA25" s="3">
         <v>80.3</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AB25" s="3">
         <v>81.099999999999994</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC25" s="3">
         <v>81.099999999999994</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD25" s="3">
         <v>81.5</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE25" s="3">
         <v>81.900000000000006</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF25" s="3">
         <v>82.4</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG25" s="3">
         <v>82.6</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AH25" s="3">
         <v>82.5</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI25" s="3">
         <v>83.2</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AJ25" s="3">
         <v>83.3</v>
       </c>
-      <c r="AK23" s="4">
+      <c r="AK25" s="4">
         <v>83</v>
       </c>
-      <c r="AL23" s="3">
+      <c r="AL25" s="3">
         <v>83.5</v>
       </c>
-      <c r="AM23" s="3">
+      <c r="AM25" s="3">
         <v>83.4</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AN25" s="3">
         <v>83.5</v>
       </c>
-      <c r="AO23" s="4">
+      <c r="AO25" s="4">
         <v>84</v>
       </c>
-      <c r="AP23" s="3">
+      <c r="AP25" s="3">
         <v>82.4</v>
       </c>
-      <c r="AQ23" s="3">
+      <c r="AQ25" s="3">
         <v>83.3</v>
       </c>
+      <c r="AR25" s="10">
+        <v>83.2</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="AT25" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AV25" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="AW25" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AX25" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AY25" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="AZ25" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="BC25" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="BD25" s="3">
+        <v>83.2</v>
+      </c>
+      <c r="BE25" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="BF25" s="4">
+        <v>83</v>
+      </c>
+      <c r="BG25" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="BH25" s="3">
+        <v>83.4</v>
+      </c>
+      <c r="BI25" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="BJ25" s="4">
+        <v>84</v>
+      </c>
+      <c r="BK25" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="BL25" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="BM25" s="10">
+        <v>83.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B26" s="3">
         <v>75.7</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C26" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D26" s="3">
         <v>76.3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E26" s="3">
         <v>76.2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F26" s="3">
         <v>76.900000000000006</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G26" s="4">
         <v>77</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H26" s="3">
         <v>77.2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I26" s="3">
         <v>77.5</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J26" s="3">
         <v>77.5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K26" s="3">
         <v>77.7</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L26" s="3">
         <v>77.5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M26" s="3">
         <v>77.8</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N26" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O26" s="3">
         <v>78.400000000000006</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P26" s="3">
         <v>78.7</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q26" s="3">
         <v>78.7</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R26" s="3">
         <v>79.2</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S26" s="3">
         <v>79.400000000000006</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T26" s="3">
         <v>79.599999999999994</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U26" s="3">
         <v>79.900000000000006</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V26" s="4">
         <v>80</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W26" s="3">
         <v>80.5</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X26" s="3">
         <v>80.599999999999994</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y26" s="3">
         <v>80.7</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z26" s="3">
         <v>81.3</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA26" s="3">
         <v>81.5</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB26" s="3">
         <v>81.8</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AC26" s="4">
         <v>82</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD26" s="3">
         <v>82.3</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE26" s="3">
         <v>82.3</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF26" s="3">
         <v>82.7</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AG26" s="5">
         <v>82.8</v>
       </c>
-      <c r="AH24" s="3">
+      <c r="AH26" s="3">
         <v>82.8</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI26" s="3">
         <v>82.9</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AJ26" s="3">
         <v>83.3</v>
       </c>
-      <c r="AK24" s="4">
+      <c r="AK26" s="4">
         <v>83</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AL26" s="3">
         <v>83.7</v>
       </c>
-      <c r="AM24" s="3">
+      <c r="AM26" s="3">
         <v>83.7</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AN26" s="3">
         <v>83.8</v>
       </c>
-      <c r="AO24" s="4">
+      <c r="AO26" s="4">
         <v>84</v>
       </c>
-      <c r="AP24" s="3">
+      <c r="AP26" s="3">
         <v>83.1</v>
       </c>
-      <c r="AQ24" s="3">
+      <c r="AQ26" s="3">
         <v>83.9</v>
       </c>
+      <c r="AR26" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="AS26" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AT26" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="AU26" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="AV26" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="AW26" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>82</v>
+      </c>
+      <c r="AY26" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="AZ26" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="BA26" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="BB26" s="5">
+        <v>82.8</v>
+      </c>
+      <c r="BC26" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="BD26" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="BE26" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="BF26" s="4">
+        <v>83</v>
+      </c>
+      <c r="BG26" s="3">
+        <v>83.7</v>
+      </c>
+      <c r="BH26" s="3">
+        <v>83.7</v>
+      </c>
+      <c r="BI26" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="BJ26" s="4">
+        <v>84</v>
+      </c>
+      <c r="BK26" s="3">
+        <v>83.1</v>
+      </c>
+      <c r="BL26" s="3">
+        <v>83.9</v>
+      </c>
+      <c r="BM26" s="10">
+        <v>83.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="6">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C27" s="6">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D27" s="7">
+        <v>74</v>
+      </c>
+      <c r="E27" s="6">
+        <v>74.3</v>
+      </c>
+      <c r="F27" s="6">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="G27" s="6">
+        <v>74.5</v>
+      </c>
+      <c r="H27" s="6">
+        <v>74.8</v>
+      </c>
+      <c r="I27" s="6">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J27" s="6">
+        <v>75.2</v>
+      </c>
+      <c r="K27" s="6">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="L27" s="6">
+        <v>75.7</v>
+      </c>
+      <c r="M27" s="6">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="N27" s="6">
+        <v>76.2</v>
+      </c>
+      <c r="O27" s="6">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="P27" s="6">
+        <v>76.7</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="R27" s="6">
+        <v>76.8</v>
+      </c>
+      <c r="S27" s="7">
+        <v>77</v>
+      </c>
+      <c r="T27" s="6">
+        <v>77.2</v>
+      </c>
+      <c r="U27" s="6">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="V27" s="6">
+        <v>77.8</v>
+      </c>
+      <c r="W27" s="7">
+        <v>78</v>
+      </c>
+      <c r="X27" s="6">
+        <v>78.2</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>78.3</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>78.8</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>79</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>79.3</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>79.5</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AG27" s="6">
+        <v>80.7</v>
+      </c>
+      <c r="AH27" s="6">
+        <v>80.8</v>
+      </c>
+      <c r="AI27" s="6">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AJ27" s="6">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AK27" s="6">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AL27" s="7">
+        <v>81</v>
+      </c>
+      <c r="AM27" s="6">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AN27" s="6">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AO27" s="6">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AP27" s="6">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AQ27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="6">
+        <v>78.2</v>
+      </c>
+      <c r="AT27" s="6">
+        <v>78.3</v>
+      </c>
+      <c r="AU27" s="6">
+        <v>78.8</v>
+      </c>
+      <c r="AV27" s="7">
+        <v>79</v>
+      </c>
+      <c r="AW27" s="6">
+        <v>79.3</v>
+      </c>
+      <c r="AX27" s="6">
+        <v>79.5</v>
+      </c>
+      <c r="AY27" s="6">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AZ27" s="6">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="BA27" s="6">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="BB27" s="6">
+        <v>80.7</v>
+      </c>
+      <c r="BC27" s="6">
+        <v>80.8</v>
+      </c>
+      <c r="BD27" s="6">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="BE27" s="6">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BF27" s="6">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="BG27" s="7">
+        <v>81</v>
+      </c>
+      <c r="BH27" s="6">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BI27" s="6">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BJ27" s="6">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="BK27" s="6">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="BL27" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B28" s="3">
         <v>73.7</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C28" s="3">
         <v>74.099999999999994</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D28" s="3">
         <v>74.5</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E28" s="3">
         <v>74.599999999999994</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F28" s="3">
         <v>74.7</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G28" s="3">
         <v>74.7</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H28" s="3">
         <v>74.7</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I28" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J28" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K28" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L28" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M28" s="3">
         <v>75.5</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N28" s="3">
         <v>75.8</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O28" s="3">
         <v>75.5</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P28" s="3">
         <v>75.7</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q28" s="3">
         <v>75.8</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R28" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S28" s="3">
         <v>76.5</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T28" s="3">
         <v>76.7</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U28" s="3">
         <v>76.7</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V28" s="3">
         <v>76.8</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W28" s="4">
         <v>77</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X28" s="4">
         <v>77</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y28" s="3">
         <v>77.2</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z28" s="3">
         <v>77.599999999999994</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA28" s="3">
         <v>77.599999999999994</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AB28" s="3">
         <v>77.8</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AC28" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD28" s="3">
         <v>78.2</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AE28" s="3">
         <v>78.5</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AF28" s="3">
         <v>78.7</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AG28" s="3">
         <v>78.7</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AH28" s="3">
         <v>78.8</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AI28" s="3">
         <v>78.8</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AJ28" s="3">
         <v>78.900000000000006</v>
       </c>
-      <c r="AK25" s="3">
+      <c r="AK28" s="3">
         <v>78.7</v>
       </c>
-      <c r="AL25" s="3">
+      <c r="AL28" s="3">
         <v>78.7</v>
       </c>
-      <c r="AM25" s="3">
+      <c r="AM28" s="3">
         <v>78.599999999999994</v>
       </c>
-      <c r="AN25" s="3">
+      <c r="AN28" s="3">
         <v>78.7</v>
       </c>
-      <c r="AO25" s="3">
+      <c r="AO28" s="3">
         <v>78.8</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AP28" s="4">
         <v>77</v>
       </c>
-      <c r="AQ25" s="3">
+      <c r="AQ28" s="3">
         <v>76.400000000000006</v>
       </c>
+      <c r="AR28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>77</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AV28" s="3">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="AX28" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AY28" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="AZ28" s="3">
+        <v>78.5</v>
+      </c>
+      <c r="BA28" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="BB28" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="BC28" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="BD28" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="BE28" s="3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="BF28" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="BG28" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="BH28" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="BI28" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="BJ28" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="BK28" s="4">
+        <v>77</v>
+      </c>
+      <c r="BL28" s="3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="BM28" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:65" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+      <c r="X29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B30" s="3">
         <v>68.5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C30" s="3">
         <v>68.599999999999994</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D30" s="4">
         <v>69</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E30" s="3">
         <v>68.900000000000006</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F30" s="3">
         <v>69.3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G30" s="3">
         <v>69.2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H30" s="3">
         <v>69.7</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I30" s="3">
         <v>70.099999999999994</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J30" s="3">
         <v>70.599999999999994</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K30" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L30" s="3">
         <v>71.400000000000006</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M30" s="3">
         <v>71.8</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N30" s="3">
         <v>72.3</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O30" s="3">
         <v>72.400000000000006</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P30" s="3">
         <v>72.599999999999994</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q30" s="3">
         <v>73.2</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R30" s="3">
         <v>73.099999999999994</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S30" s="3">
         <v>73.3</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T30" s="3">
         <v>73.099999999999994</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U30" s="3">
         <v>73.5</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V30" s="3">
         <v>73.7</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W30" s="3">
         <v>73.900000000000006</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X30" s="3">
         <v>74.2</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y30" s="3">
         <v>74.400000000000006</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z30" s="3">
         <v>74.099999999999994</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA30" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB30" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC30" s="3">
         <v>75.400000000000006</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD30" s="4">
         <v>75</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AE30" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AF30" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AG30" s="3">
         <v>75.7</v>
       </c>
-      <c r="AH26" s="3">
+      <c r="AH30" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AI30" s="3">
         <v>76.5</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AJ30" s="3">
         <v>76.5</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AK30" s="3">
         <v>76.8</v>
       </c>
-      <c r="AL26" s="3">
+      <c r="AL30" s="3">
         <v>76.8</v>
       </c>
-      <c r="AM26" s="3">
+      <c r="AM30" s="3">
         <v>76.3</v>
       </c>
-      <c r="AN26" s="3">
+      <c r="AN30" s="3">
         <v>76.8</v>
       </c>
-      <c r="AO26" s="4">
+      <c r="AO30" s="4">
         <v>77</v>
       </c>
-      <c r="AP26" s="3">
+      <c r="AP30" s="3">
         <v>77.3</v>
       </c>
-      <c r="AQ26" s="3">
+      <c r="AQ30" s="3">
         <v>75.900000000000006</v>
       </c>
+      <c r="AR30" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AU30" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AV30" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AW30" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AX30" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>75</v>
+      </c>
+      <c r="AZ30" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="BA30" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="BB30" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="BC30" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="BD30" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="BE30" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="BF30" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="BG30" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="BH30" s="3">
+        <v>76.3</v>
+      </c>
+      <c r="BI30" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="BJ30" s="4">
+        <v>77</v>
+      </c>
+      <c r="BK30" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="BL30" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="BM30" s="3">
+        <v>75.400000000000006</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="31" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B31" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C31" s="3">
         <v>71.5</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D31" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E31" s="3">
         <v>71.3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F31" s="3">
         <v>71.400000000000006</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G31" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H31" s="3">
         <v>71.5</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I31" s="3">
         <v>71.3</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J31" s="3">
         <v>71.400000000000006</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K31" s="3">
         <v>71.400000000000006</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L31" s="3">
         <v>71.2</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M31" s="3">
         <v>71.099999999999994</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N31" s="3">
         <v>71.2</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O31" s="3">
         <v>71.2</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P31" s="3">
         <v>70.900000000000006</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q31" s="4">
         <v>71</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R31" s="3">
         <v>70.8</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S31" s="3">
         <v>70.3</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T31" s="3">
         <v>70.900000000000006</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U31" s="3">
         <v>71.599999999999994</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V31" s="3">
         <v>71.599999999999994</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W31" s="3">
         <v>71.900000000000006</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X31" s="3">
         <v>72.099999999999994</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y31" s="3">
         <v>72.3</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z31" s="3">
         <v>72.5</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA31" s="3">
         <v>72.5</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB31" s="3">
         <v>72.7</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AC31" s="4">
         <v>73</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD31" s="3">
         <v>73.3</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE31" s="3">
         <v>73.7</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AF31" s="3">
         <v>73.8</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AG31" s="3">
         <v>74.2</v>
       </c>
-      <c r="AH27" s="3">
+      <c r="AH31" s="3">
         <v>74.400000000000006</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AI31" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AJ31" s="3">
         <v>74.5</v>
       </c>
-      <c r="AK27" s="3">
+      <c r="AK31" s="3">
         <v>74.7</v>
       </c>
-      <c r="AL27" s="3">
+      <c r="AL31" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AM27" s="3">
+      <c r="AM31" s="3">
         <v>74.8</v>
       </c>
-      <c r="AN27" s="4">
+      <c r="AN31" s="4">
         <v>75</v>
       </c>
-      <c r="AO27" s="3">
+      <c r="AO31" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="AP27" s="3">
+      <c r="AP31" s="3">
         <v>73.599999999999994</v>
       </c>
-      <c r="AQ27" s="3">
+      <c r="AQ31" s="3">
         <v>71.400000000000006</v>
       </c>
+      <c r="AR31" s="10">
+        <v>74.3</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="AU31" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="AV31" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="AW31" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>73</v>
+      </c>
+      <c r="AY31" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="AZ31" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="BB31" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="BC31" s="3">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="BD31" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BE31" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="BF31" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="BG31" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BH31" s="3">
+        <v>74.8</v>
+      </c>
+      <c r="BI31" s="4">
+        <v>75</v>
+      </c>
+      <c r="BJ31" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="BK31" s="3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="BL31" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="BM31" s="10">
+        <v>74.3</v>
+      </c>
     </row>
-    <row r="28" spans="1:43" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="32" spans="1:65" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B32" s="3">
         <v>63.9</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C32" s="3">
         <v>64.400000000000006</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D32" s="4">
         <v>65</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E32" s="3">
         <v>65.5</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F32" s="3">
         <v>65.900000000000006</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G32" s="3">
         <v>66.3</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H32" s="3">
         <v>66.599999999999994</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I32" s="4">
         <v>67</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J32" s="3">
         <v>67.3</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K32" s="3">
         <v>67.599999999999994</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L32" s="3">
         <v>67.8</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M32" s="4">
         <v>68</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N32" s="3">
         <v>68.2</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O32" s="3">
         <v>68.7</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P32" s="3">
         <v>69.2</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q32" s="3">
         <v>69.5</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R32" s="4">
         <v>70</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S32" s="3">
         <v>70.3</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T32" s="3">
         <v>70.7</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U32" s="3">
         <v>71.2</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V32" s="3">
         <v>71.400000000000006</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W32" s="3">
         <v>71.900000000000006</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X32" s="3">
         <v>72.599999999999994</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Y32" s="4">
         <v>73</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z32" s="3">
         <v>73.400000000000006</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA32" s="3">
         <v>73.7</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AB32" s="3">
         <v>74.099999999999994</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AC32" s="3">
         <v>74.5</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AD32" s="3">
         <v>74.8</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AE32" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AF32" s="3">
         <v>75.3</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AG32" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="AH28" s="3">
+      <c r="AH32" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AI32" s="3">
         <v>76.2</v>
       </c>
-      <c r="AJ28" s="3">
+      <c r="AJ32" s="3">
         <v>76.5</v>
       </c>
-      <c r="AK28" s="3">
+      <c r="AK32" s="3">
         <v>76.7</v>
       </c>
-      <c r="AL28" s="4">
+      <c r="AL32" s="4">
         <v>77</v>
       </c>
-      <c r="AM28" s="3">
+      <c r="AM32" s="3">
         <v>77.2</v>
       </c>
-      <c r="AN28" s="3">
+      <c r="AN32" s="3">
         <v>77.2</v>
       </c>
-      <c r="AO28" s="3">
+      <c r="AO32" s="3">
         <v>77.7</v>
       </c>
-      <c r="AP28" s="4">
+      <c r="AP32" s="4">
         <v>78</v>
       </c>
-      <c r="AQ28" s="3">
+      <c r="AQ32" s="3">
         <v>78.099999999999994</v>
       </c>
+      <c r="AR32" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>73</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="AV32" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="AW32" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AX32" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="AY32" s="3">
+        <v>74.8</v>
+      </c>
+      <c r="AZ32" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BA32" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="BB32" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="BC32" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="BD32" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="BE32" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="BF32" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="BG32" s="4">
+        <v>77</v>
+      </c>
+      <c r="BH32" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="BI32" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="BJ32" s="3">
+        <v>77.7</v>
+      </c>
+      <c r="BK32" s="4">
+        <v>78</v>
+      </c>
+      <c r="BL32" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="BM32" s="3">
+        <v>78.2</v>
+      </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="33" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0</v>
+      </c>
+      <c r="S33" s="11">
+        <v>0</v>
+      </c>
+      <c r="T33" s="11">
+        <v>0</v>
+      </c>
+      <c r="U33" s="11">
+        <v>0</v>
+      </c>
+      <c r="V33" s="11">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="X33" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>76</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>76.3</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>78</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="AR33" s="10">
+        <v>77.7</v>
+      </c>
+      <c r="AS33" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="AT33" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AU33" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AV33" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="AW33" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AX33" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>76</v>
+      </c>
+      <c r="AZ33" s="3">
+        <v>76.3</v>
+      </c>
+      <c r="BA33" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="BB33" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="BC33" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="BD33" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="BE33" s="3">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="BF33" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="BG33" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="BH33" s="4">
+        <v>78</v>
+      </c>
+      <c r="BI33" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="BJ33" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="BK33" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="BL33" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="BM33" s="10">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B34" s="3">
         <v>53.1</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C34" s="3">
         <v>53.6</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D34" s="3">
         <v>54.2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E34" s="3">
         <v>54.7</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F34" s="3">
         <v>55.3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G34" s="3">
         <v>55.8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H34" s="3">
         <v>56.3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I34" s="3">
         <v>56.8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J34" s="3">
         <v>57.3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K34" s="3">
         <v>57.8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L34" s="3">
         <v>58.2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M34" s="3">
         <v>58.7</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N34" s="3">
         <v>59.1</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O34" s="3">
         <v>59.5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P34" s="3">
         <v>59.8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q34" s="3">
         <v>60.2</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R34" s="3">
         <v>60.6</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S34" s="4">
         <v>61</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T34" s="3">
         <v>61.4</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U34" s="3">
         <v>61.8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V34" s="3">
         <v>62.2</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W34" s="3">
         <v>62.7</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X34" s="3">
         <v>63.1</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y34" s="3">
         <v>63.6</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z34" s="3">
         <v>64.099999999999994</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA34" s="3">
         <v>64.5</v>
       </c>
-      <c r="AB29" s="4">
+      <c r="AB34" s="4">
         <v>65</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC34" s="3">
         <v>65.400000000000006</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AD34" s="3">
         <v>65.8</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AE34" s="3">
         <v>66.099999999999994</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AF34" s="3">
         <v>66.5</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AG34" s="3">
         <v>66.900000000000006</v>
       </c>
-      <c r="AH29" s="3">
+      <c r="AH34" s="3">
         <v>67.400000000000006</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AI34" s="3">
         <v>67.900000000000006</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AJ34" s="3">
         <v>68.5</v>
       </c>
-      <c r="AK29" s="3">
+      <c r="AK34" s="3">
         <v>69.099999999999994</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AL34" s="3">
         <v>69.599999999999994</v>
       </c>
-      <c r="AM29" s="3">
+      <c r="AM34" s="3">
         <v>70.099999999999994</v>
       </c>
-      <c r="AN29" s="3">
+      <c r="AN34" s="3">
         <v>70.5</v>
       </c>
-      <c r="AO29" s="3">
+      <c r="AO34" s="3">
         <v>70.7</v>
       </c>
-      <c r="AP29" s="3">
+      <c r="AP34" s="3">
         <v>70.900000000000006</v>
       </c>
-      <c r="AQ29" s="3">
+      <c r="AQ34" s="3">
         <v>70.2</v>
       </c>
+      <c r="AR34" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="AS34" s="3">
+        <v>63.1</v>
+      </c>
+      <c r="AT34" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="AU34" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="AV34" s="3">
+        <v>64.5</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>65</v>
+      </c>
+      <c r="AX34" s="3">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AY34" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="AZ34" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="BA34" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="BB34" s="3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="BC34" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="BD34" s="3">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="BE34" s="3">
+        <v>68.5</v>
+      </c>
+      <c r="BF34" s="3">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="BG34" s="3">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="BH34" s="3">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="BI34" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="BJ34" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="BK34" s="3">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="BL34" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="BM34" s="3">
+        <v>67.2</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B35" s="3">
         <v>59.3</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C35" s="3">
         <v>59.6</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D35" s="3">
         <v>59.8</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E35" s="4">
         <v>60</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F35" s="3">
         <v>60.2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G35" s="3">
         <v>60.5</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H35" s="3">
         <v>61.3</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I35" s="4">
         <v>62</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J35" s="3">
         <v>62.8</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K35" s="3">
         <v>63.6</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L35" s="3">
         <v>64.400000000000006</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M35" s="3">
         <v>65.099999999999994</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N35" s="3">
         <v>65.400000000000006</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O35" s="3">
         <v>66.099999999999994</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P35" s="3">
         <v>66.7</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q35" s="3">
         <v>67.2</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R35" s="3">
         <v>67.599999999999994</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S35" s="3">
         <v>68.099999999999994</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T35" s="3">
         <v>68.599999999999994</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U35" s="3">
         <v>69.099999999999994</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V35" s="3">
         <v>69.7</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W35" s="3">
         <v>70.400000000000006</v>
       </c>
-      <c r="X30" s="4">
+      <c r="X35" s="4">
         <v>71</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y35" s="3">
         <v>71.7</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z35" s="3">
         <v>72.2</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA35" s="3">
         <v>72.7</v>
       </c>
-      <c r="AB30" s="4">
+      <c r="AB35" s="4">
         <v>73</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AC35" s="3">
         <v>73.2</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AD35" s="3">
         <v>73.2</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AE35" s="3">
         <v>73.400000000000006</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AF35" s="3">
         <v>73.5</v>
       </c>
-      <c r="AG30" s="3">
+      <c r="AG35" s="3">
         <v>73.7</v>
       </c>
-      <c r="AH30" s="3">
+      <c r="AH35" s="3">
         <v>74.099999999999994</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AI35" s="3">
         <v>74.5</v>
       </c>
-      <c r="AJ30" s="4">
+      <c r="AJ35" s="4">
         <v>75</v>
       </c>
-      <c r="AK30" s="3">
+      <c r="AK35" s="3">
         <v>75.3</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AL35" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="AM30" s="3">
+      <c r="AM35" s="3">
         <v>75.8</v>
       </c>
-      <c r="AN30" s="3">
+      <c r="AN35" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="AO30" s="4">
+      <c r="AO35" s="4">
         <v>76</v>
       </c>
-      <c r="AP30" s="3">
+      <c r="AP35" s="3">
         <v>76.2</v>
       </c>
-      <c r="AQ30" s="3">
+      <c r="AQ35" s="3">
         <v>73.7</v>
       </c>
+      <c r="AR35" s="3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>71</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="AU35" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="AV35" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="AW35" s="4">
+        <v>73</v>
+      </c>
+      <c r="AX35" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="AZ35" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="BA35" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="BB35" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="BC35" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="BD35" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="BE35" s="4">
+        <v>75</v>
+      </c>
+      <c r="BF35" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="BG35" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="BH35" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="BI35" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="BJ35" s="4">
+        <v>76</v>
+      </c>
+      <c r="BK35" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="BL35" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="BM35" s="3">
+        <v>72.400000000000006</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="36" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+      <c r="X36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D37" s="4">
+        <v>68</v>
+      </c>
+      <c r="E37" s="3">
+        <v>67.8</v>
+      </c>
+      <c r="F37" s="3">
+        <v>67.3</v>
+      </c>
+      <c r="G37" s="4">
+        <v>68</v>
+      </c>
+      <c r="H37" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="I37" s="3">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="J37" s="3">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K37" s="3">
+        <v>69.3</v>
+      </c>
+      <c r="L37" s="4">
+        <v>69</v>
+      </c>
+      <c r="M37" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="N37" s="3">
+        <v>67.8</v>
+      </c>
+      <c r="O37" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="P37" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="R37" s="4">
+        <v>66</v>
+      </c>
+      <c r="S37" s="3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="T37" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="U37" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="V37" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="W37" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="X37" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>65.2</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>69</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>71.3</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>72.8</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="AP37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="AT37" s="3">
+        <v>65.2</v>
+      </c>
+      <c r="AU37" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AV37" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="AW37" s="3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AX37" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AZ37" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>69</v>
+      </c>
+      <c r="BB37" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="BC37" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="BD37" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="BE37" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="BF37" s="3">
+        <v>71.3</v>
+      </c>
+      <c r="BG37" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="BH37" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="BI37" s="3">
+        <v>72.8</v>
+      </c>
+      <c r="BJ37" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="BK37" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B38" s="3">
         <v>59.4</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C38" s="3">
         <v>59.8</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D38" s="3">
         <v>60.4</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E38" s="3">
         <v>60.9</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F38" s="3">
         <v>61.5</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G38" s="3">
         <v>61.9</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H38" s="3">
         <v>62.4</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I38" s="3">
         <v>62.9</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J38" s="4">
         <v>63</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K38" s="3">
         <v>63.3</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L38" s="3">
         <v>63.3</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M38" s="3">
         <v>63.4</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N38" s="3">
         <v>63.3</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O38" s="3">
         <v>63.3</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P38" s="4">
         <v>63</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q38" s="3">
         <v>62.6</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R38" s="3">
         <v>62.3</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S38" s="3">
         <v>61.5</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T38" s="3">
         <v>60.8</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U38" s="4">
         <v>60</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V38" s="3">
         <v>59.2</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W38" s="3">
         <v>58.5</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X38" s="3">
         <v>57.3</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y38" s="3">
         <v>55.7</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="Z38" s="3">
         <v>54.3</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AA38" s="4">
         <v>54</v>
       </c>
-      <c r="AB31" s="4">
+      <c r="AB38" s="4">
         <v>54</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AC38" s="3">
         <v>54.3</v>
       </c>
-      <c r="AD31" s="4">
+      <c r="AD38" s="4">
         <v>55</v>
       </c>
-      <c r="AE31" s="4">
+      <c r="AE38" s="4">
         <v>56</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AF38" s="3">
         <v>57.4</v>
       </c>
-      <c r="AG31" s="3">
+      <c r="AG38" s="3">
         <v>58.9</v>
       </c>
-      <c r="AH31" s="3">
+      <c r="AH38" s="3">
         <v>60.7</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AI38" s="3">
         <v>61.8</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AJ38" s="3">
         <v>62.5</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AK38" s="3">
         <v>63.4</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AL38" s="4">
         <v>64</v>
       </c>
-      <c r="AM31" s="3">
+      <c r="AM38" s="3">
         <v>64.7</v>
       </c>
-      <c r="AN31" s="3">
+      <c r="AN38" s="3">
         <v>65.400000000000006</v>
       </c>
-      <c r="AO31" s="3">
+      <c r="AO38" s="3">
         <v>65.7</v>
       </c>
-      <c r="AP31" s="3">
+      <c r="AP38" s="3">
         <v>66.2</v>
       </c>
-      <c r="AQ31" s="3">
+      <c r="AQ38" s="3">
         <v>65.3</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>57.3</v>
+      </c>
+      <c r="AT38" s="3">
+        <v>55.7</v>
+      </c>
+      <c r="AU38" s="3">
+        <v>54.3</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>54</v>
+      </c>
+      <c r="AW38" s="4">
+        <v>54</v>
+      </c>
+      <c r="AX38" s="3">
+        <v>54.3</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>55</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>56</v>
+      </c>
+      <c r="BA38" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="BB38" s="3">
+        <v>58.9</v>
+      </c>
+      <c r="BC38" s="3">
+        <v>60.7</v>
+      </c>
+      <c r="BD38" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="BE38" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="BF38" s="3">
+        <v>63.4</v>
+      </c>
+      <c r="BG38" s="4">
+        <v>64</v>
+      </c>
+      <c r="BH38" s="3">
+        <v>64.7</v>
+      </c>
+      <c r="BI38" s="3">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="BJ38" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="BK38" s="3">
+        <v>66.2</v>
+      </c>
+      <c r="BL38" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="BM38" s="3">
+        <v>62.3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AQ31">
+  <conditionalFormatting sqref="B1:AQ1">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(B1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS2:BL38">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(AS2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AQ38">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:AQ1">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A31">
+  <conditionalFormatting sqref="A2:A38">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A1))=0</formula>
+      <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/cleanedData/lifeExpectancy.xlsx
+++ b/data/cleanedData/lifeExpectancy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AZ_DATEN\GitHub\Swinburne-COS30045-Data-Vis-Project\data\cleanedData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\Downloads\DV\Swinburne-COS30045-Data-Vis-Project\data\cleanedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD679E54-6F3B-4546-B4DC-3EB0D69E68B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB0258-5B95-4E88-9E25-0157F818CA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Country</t>
   </si>
@@ -243,9 +243,6 @@
     <t>·  Peru</t>
   </si>
   <si>
-    <t>·  South Africa</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -262,6 +259,147 @@
   </si>
   <si>
     <t>·  Russia</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -298,7 +436,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0549AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -343,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -372,60 +516,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -709,15 +805,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ37"/>
+  <dimension ref="A1:AQ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -979,7 +1075,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1110,7 +1206,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1241,7 +1337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1372,7 +1468,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1503,7 +1599,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1634,7 +1730,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1765,7 +1861,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1896,7 +1992,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2027,7 +2123,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -2158,7 +2254,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2289,7 +2385,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2420,7 +2516,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -2551,7 +2647,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -2682,9 +2778,9 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -2813,7 +2909,7 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -2944,7 +3040,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -3075,7 +3171,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -3206,7 +3302,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -3337,7 +3433,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -3468,7 +3564,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -3599,7 +3695,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -3730,9 +3826,9 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="9">
         <v>0</v>
@@ -3861,7 +3957,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -3992,7 +4088,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -4123,9 +4219,9 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6">
         <v>73.599999999999994</v>
@@ -4254,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -4385,7 +4481,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -4516,7 +4612,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -4647,7 +4743,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:43" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -4778,9 +4874,9 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="9">
         <v>0</v>
@@ -4909,7 +5005,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -5040,7 +5136,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -5171,9 +5267,9 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -5302,9 +5398,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="3">
         <v>67.2</v>
@@ -5433,149 +5529,6165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>39.6</v>
+      </c>
+      <c r="C37">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D37">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E37">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F37">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G37">
+        <v>33.6</v>
+      </c>
+      <c r="H37">
+        <v>39.4</v>
+      </c>
+      <c r="I37">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J37">
+        <v>44</v>
+      </c>
+      <c r="K37">
+        <v>45.2</v>
+      </c>
+      <c r="L37">
+        <v>46</v>
+      </c>
+      <c r="M37">
+        <v>46.7</v>
+      </c>
+      <c r="N37">
+        <v>47.6</v>
+      </c>
+      <c r="O37">
+        <v>51.5</v>
+      </c>
+      <c r="P37">
+        <v>51.5</v>
+      </c>
+      <c r="Q37">
+        <v>52.5</v>
+      </c>
+      <c r="R37">
+        <v>53.2</v>
+      </c>
+      <c r="S37">
+        <v>53.6</v>
+      </c>
+      <c r="T37">
+        <v>52.9</v>
+      </c>
+      <c r="U37">
+        <v>54.8</v>
+      </c>
+      <c r="V37">
+        <v>55.3</v>
+      </c>
+      <c r="W37">
+        <v>55.8</v>
+      </c>
+      <c r="X37">
+        <v>56.5</v>
+      </c>
+      <c r="Y37">
+        <v>57.3</v>
+      </c>
+      <c r="Z37">
+        <v>57.9</v>
+      </c>
+      <c r="AA37">
+        <v>58.4</v>
+      </c>
+      <c r="AB37">
+        <v>58.7</v>
+      </c>
+      <c r="AC37">
+        <v>59.1</v>
+      </c>
+      <c r="AD37">
+        <v>59.9</v>
+      </c>
+      <c r="AE37">
+        <v>60.4</v>
+      </c>
+      <c r="AF37">
+        <v>60.9</v>
+      </c>
+      <c r="AG37">
+        <v>61.4</v>
+      </c>
+      <c r="AH37">
+        <v>61.9</v>
+      </c>
+      <c r="AI37">
+        <v>62.4</v>
+      </c>
+      <c r="AJ37">
+        <v>62.5</v>
+      </c>
+      <c r="AK37">
+        <v>62.7</v>
+      </c>
+      <c r="AL37">
+        <v>63.1</v>
+      </c>
+      <c r="AM37">
+        <v>63</v>
+      </c>
+      <c r="AN37">
+        <v>63.1</v>
+      </c>
+      <c r="AO37">
+        <v>63.6</v>
+      </c>
+      <c r="AP37">
+        <v>62.6</v>
+      </c>
+      <c r="AQ37">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C38">
+        <v>69.2</v>
+      </c>
+      <c r="D38">
+        <v>69.3</v>
+      </c>
+      <c r="E38">
+        <v>69.5</v>
+      </c>
+      <c r="F38">
+        <v>69.7</v>
+      </c>
+      <c r="G38">
+        <v>70</v>
+      </c>
+      <c r="H38">
+        <v>70.2</v>
+      </c>
+      <c r="I38">
+        <v>70.8</v>
+      </c>
+      <c r="J38">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K38">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="L38">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="M38">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="N38">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="O38">
+        <v>70.8</v>
+      </c>
+      <c r="P38">
+        <v>70.8</v>
+      </c>
+      <c r="Q38">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="R38">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="S38">
+        <v>71.3</v>
+      </c>
+      <c r="T38">
+        <v>71.3</v>
+      </c>
+      <c r="U38">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="V38">
+        <v>71</v>
+      </c>
+      <c r="W38">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="X38">
+        <v>71.3</v>
+      </c>
+      <c r="Y38">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="Z38">
         <v>72</v>
       </c>
-      <c r="B37" s="3">
+      <c r="AA38">
+        <v>72.3</v>
+      </c>
+      <c r="AB38">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AC38">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AD38">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AE38">
+        <v>70.5</v>
+      </c>
+      <c r="AF38">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AG38">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AH38">
+        <v>72.3</v>
+      </c>
+      <c r="AI38">
+        <v>72.3</v>
+      </c>
+      <c r="AJ38">
+        <v>72.3</v>
+      </c>
+      <c r="AK38">
+        <v>72.5</v>
+      </c>
+      <c r="AL38">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AM38">
+        <v>72.5</v>
+      </c>
+      <c r="AN38">
+        <v>72.5</v>
+      </c>
+      <c r="AO38">
+        <v>72.3</v>
+      </c>
+      <c r="AP38">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AQ38">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>76.8</v>
+      </c>
+      <c r="C39">
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <v>77.5</v>
+      </c>
+      <c r="E39">
+        <v>77.3</v>
+      </c>
+      <c r="F39">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G39">
+        <v>77.5</v>
+      </c>
+      <c r="H39">
+        <v>77.7</v>
+      </c>
+      <c r="I39">
+        <v>77.8</v>
+      </c>
+      <c r="J39">
+        <v>77.8</v>
+      </c>
+      <c r="K39">
+        <v>77.8</v>
+      </c>
+      <c r="L39">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="M39">
+        <v>78</v>
+      </c>
+      <c r="N39">
+        <v>80.3</v>
+      </c>
+      <c r="O39">
+        <v>78.7</v>
+      </c>
+      <c r="P39">
+        <v>82.6</v>
+      </c>
+      <c r="Q39">
+        <v>79</v>
+      </c>
+      <c r="R39">
+        <v>80.3</v>
+      </c>
+      <c r="S39">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="T39">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="U39">
+        <v>81.3</v>
+      </c>
+      <c r="V39">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="W39">
+        <v>81.7</v>
+      </c>
+      <c r="X39">
+        <v>82.2</v>
+      </c>
+      <c r="Y39">
+        <v>83.9</v>
+      </c>
+      <c r="Z39">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AA39">
+        <v>81.8</v>
+      </c>
+      <c r="AB39">
+        <v>83</v>
+      </c>
+      <c r="AC39">
+        <v>82.7</v>
+      </c>
+      <c r="AD39">
+        <v>82.7</v>
+      </c>
+      <c r="AE39">
+        <v>82.8</v>
+      </c>
+      <c r="AF39">
+        <v>82.8</v>
+      </c>
+      <c r="AG39">
+        <v>82.9</v>
+      </c>
+      <c r="AH39">
+        <v>82.9</v>
+      </c>
+      <c r="AI39">
+        <v>82.9</v>
+      </c>
+      <c r="AJ39">
+        <v>82.9</v>
+      </c>
+      <c r="AK39">
+        <v>83</v>
+      </c>
+      <c r="AL39">
+        <v>83</v>
+      </c>
+      <c r="AM39">
+        <v>83</v>
+      </c>
+      <c r="AN39">
+        <v>83</v>
+      </c>
+      <c r="AO39">
+        <v>83</v>
+      </c>
+      <c r="AP39">
+        <v>79</v>
+      </c>
+      <c r="AQ39">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40">
+        <v>66.2</v>
+      </c>
+      <c r="C40">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D40">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E40">
+        <v>67.2</v>
+      </c>
+      <c r="F40">
+        <v>67.5</v>
+      </c>
+      <c r="G40">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H40">
+        <v>68.2</v>
+      </c>
+      <c r="I40">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="J40">
+        <v>53.9</v>
+      </c>
+      <c r="K40">
+        <v>68.7</v>
+      </c>
+      <c r="L40">
+        <v>68.8</v>
+      </c>
+      <c r="M40">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="N40">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="O40">
+        <v>68.8</v>
+      </c>
+      <c r="P40">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="Q40">
+        <v>69.3</v>
+      </c>
+      <c r="R40">
+        <v>69.8</v>
+      </c>
+      <c r="S40">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="T40">
+        <v>70.5</v>
+      </c>
+      <c r="U40">
+        <v>70.3</v>
+      </c>
+      <c r="V40">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="W40">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="X40">
+        <v>71</v>
+      </c>
+      <c r="Y40">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="Z40">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AA40">
+        <v>71.8</v>
+      </c>
+      <c r="AB40">
+        <v>72</v>
+      </c>
+      <c r="AC40">
+        <v>72.3</v>
+      </c>
+      <c r="AD40">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AE40">
+        <v>72.8</v>
+      </c>
+      <c r="AF40">
+        <v>73.2</v>
+      </c>
+      <c r="AG40">
+        <v>73.3</v>
+      </c>
+      <c r="AH40">
+        <v>73.5</v>
+      </c>
+      <c r="AI40">
+        <v>73.7</v>
+      </c>
+      <c r="AJ40">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AK40">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AL40">
+        <v>74.7</v>
+      </c>
+      <c r="AM40">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AN40">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AO40">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AP40">
+        <v>72.2</v>
+      </c>
+      <c r="AQ40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41">
+        <v>51.8</v>
+      </c>
+      <c r="C41">
+        <v>52.2</v>
+      </c>
+      <c r="D41">
+        <v>52.5</v>
+      </c>
+      <c r="E41">
+        <v>53</v>
+      </c>
+      <c r="F41">
+        <v>53.5</v>
+      </c>
+      <c r="G41">
+        <v>53.9</v>
+      </c>
+      <c r="H41">
+        <v>54.4</v>
+      </c>
+      <c r="I41">
+        <v>54.9</v>
+      </c>
+      <c r="J41">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>55.1</v>
+      </c>
+      <c r="L41">
+        <v>56</v>
+      </c>
+      <c r="M41">
+        <v>54.2</v>
+      </c>
+      <c r="N41">
+        <v>57.6</v>
+      </c>
+      <c r="O41">
+        <v>57.9</v>
+      </c>
+      <c r="P41">
+        <v>58.6</v>
+      </c>
+      <c r="Q41">
+        <v>59.5</v>
+      </c>
+      <c r="R41">
+        <v>59.5</v>
+      </c>
+      <c r="S41">
+        <v>61.4</v>
+      </c>
+      <c r="T41">
+        <v>63.9</v>
+      </c>
+      <c r="U41">
+        <v>66.2</v>
+      </c>
+      <c r="V41">
+        <v>65.8</v>
+      </c>
+      <c r="W41">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="X41">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="Y41">
+        <v>66.8</v>
+      </c>
+      <c r="Z41">
+        <v>67.2</v>
+      </c>
+      <c r="AA41">
+        <v>67.3</v>
+      </c>
+      <c r="AB41">
+        <v>67.2</v>
+      </c>
+      <c r="AC41">
+        <v>66.7</v>
+      </c>
+      <c r="AD41">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AE41">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AF41">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AG41">
+        <v>68.8</v>
+      </c>
+      <c r="AH41">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AI41">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AJ41">
+        <v>70</v>
+      </c>
+      <c r="AK41">
+        <v>70.5</v>
+      </c>
+      <c r="AL41">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AM41">
+        <v>71.8</v>
+      </c>
+      <c r="AN41">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AO41">
+        <v>72.8</v>
+      </c>
+      <c r="AP41">
+        <v>72</v>
+      </c>
+      <c r="AQ41">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>48.2</v>
+      </c>
+      <c r="C42">
+        <v>49</v>
+      </c>
+      <c r="D42">
+        <v>49.9</v>
+      </c>
+      <c r="E42">
+        <v>50.6</v>
+      </c>
+      <c r="F42">
+        <v>51.4</v>
+      </c>
+      <c r="G42">
+        <v>52.1</v>
+      </c>
+      <c r="H42">
+        <v>52.9</v>
+      </c>
+      <c r="I42">
+        <v>53.7</v>
+      </c>
+      <c r="J42">
+        <v>54.5</v>
+      </c>
+      <c r="K42">
+        <v>55.3</v>
+      </c>
+      <c r="L42">
+        <v>56</v>
+      </c>
+      <c r="M42">
+        <v>56.6</v>
+      </c>
+      <c r="N42">
+        <v>57.4</v>
+      </c>
+      <c r="O42">
+        <v>58.1</v>
+      </c>
+      <c r="P42">
+        <v>58.6</v>
+      </c>
+      <c r="Q42">
+        <v>59.5</v>
+      </c>
+      <c r="R42">
+        <v>60.2</v>
+      </c>
+      <c r="S42">
+        <v>60.9</v>
+      </c>
+      <c r="T42">
+        <v>61.5</v>
+      </c>
+      <c r="U42">
+        <v>62.2</v>
+      </c>
+      <c r="V42">
+        <v>62</v>
+      </c>
+      <c r="W42">
+        <v>63.4</v>
+      </c>
+      <c r="X42">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Y42">
+        <v>64.7</v>
+      </c>
+      <c r="Z42">
+        <v>65.3</v>
+      </c>
+      <c r="AA42">
+        <v>65.8</v>
+      </c>
+      <c r="AB42">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AC42">
+        <v>67</v>
+      </c>
+      <c r="AD42">
+        <v>67.5</v>
+      </c>
+      <c r="AE42">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AF42">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AG42">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AH42">
+        <v>69.3</v>
+      </c>
+      <c r="AI42">
+        <v>69.7</v>
+      </c>
+      <c r="AJ42">
+        <v>70</v>
+      </c>
+      <c r="AK42">
+        <v>70.3</v>
+      </c>
+      <c r="AL42">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AM42">
+        <v>70.8</v>
+      </c>
+      <c r="AN42">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AO42">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AP42">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="AQ42">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>51.2</v>
+      </c>
+      <c r="C43">
+        <v>51.6</v>
+      </c>
+      <c r="D43">
+        <v>52.1</v>
+      </c>
+      <c r="E43">
+        <v>52.4</v>
+      </c>
+      <c r="F43">
+        <v>53</v>
+      </c>
+      <c r="G43">
+        <v>53.4</v>
+      </c>
+      <c r="H43">
+        <v>53.9</v>
+      </c>
+      <c r="I43">
+        <v>54.5</v>
+      </c>
+      <c r="J43">
+        <v>55.2</v>
+      </c>
+      <c r="K43">
+        <v>55.8</v>
+      </c>
+      <c r="L43">
+        <v>56.4</v>
+      </c>
+      <c r="M43">
+        <v>57.1</v>
+      </c>
+      <c r="N43">
+        <v>57.6</v>
+      </c>
+      <c r="O43">
+        <v>58.4</v>
+      </c>
+      <c r="P43">
+        <v>59</v>
+      </c>
+      <c r="Q43">
+        <v>59.5</v>
+      </c>
+      <c r="R43">
+        <v>60.1</v>
+      </c>
+      <c r="S43">
+        <v>60.8</v>
+      </c>
+      <c r="T43">
+        <v>61.3</v>
+      </c>
+      <c r="U43">
+        <v>61.9</v>
+      </c>
+      <c r="V43">
+        <v>62.3</v>
+      </c>
+      <c r="W43">
+        <v>62.8</v>
+      </c>
+      <c r="X43">
+        <v>63.3</v>
+      </c>
+      <c r="Y43">
+        <v>63.6</v>
+      </c>
+      <c r="Z43">
+        <v>64</v>
+      </c>
+      <c r="AA43">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AB43">
+        <v>64.8</v>
+      </c>
+      <c r="AC43">
+        <v>65</v>
+      </c>
+      <c r="AD43">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AE43">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AF43">
+        <v>66.2</v>
+      </c>
+      <c r="AG43">
+        <v>66.5</v>
+      </c>
+      <c r="AH43">
+        <v>66.7</v>
+      </c>
+      <c r="AI43">
+        <v>67</v>
+      </c>
+      <c r="AJ43">
+        <v>67.2</v>
+      </c>
+      <c r="AK43">
+        <v>67.3</v>
+      </c>
+      <c r="AL43">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="AM43">
+        <v>67.7</v>
+      </c>
+      <c r="AN43">
+        <v>67.7</v>
+      </c>
+      <c r="AO43">
+        <v>67.8</v>
+      </c>
+      <c r="AP43">
+        <v>64.5</v>
+      </c>
+      <c r="AQ43">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>60.6</v>
+      </c>
+      <c r="C44">
+        <v>61.1</v>
+      </c>
+      <c r="D44">
+        <v>61.6</v>
+      </c>
+      <c r="E44">
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>62.4</v>
+      </c>
+      <c r="G44">
+        <v>62.6</v>
+      </c>
+      <c r="H44">
+        <v>62.7</v>
+      </c>
+      <c r="I44">
+        <v>62.5</v>
+      </c>
+      <c r="J44">
+        <v>61.8</v>
+      </c>
+      <c r="K44">
+        <v>61.4</v>
+      </c>
+      <c r="L44">
+        <v>60.5</v>
+      </c>
+      <c r="M44">
+        <v>59.5</v>
+      </c>
+      <c r="N44">
+        <v>58.3</v>
+      </c>
+      <c r="O44">
+        <v>57.7</v>
+      </c>
+      <c r="P44">
+        <v>56.2</v>
+      </c>
+      <c r="Q44">
+        <v>55.1</v>
+      </c>
+      <c r="R44">
+        <v>54.4</v>
+      </c>
+      <c r="S44">
+        <v>53.4</v>
+      </c>
+      <c r="T44">
+        <v>52.5</v>
+      </c>
+      <c r="U44">
+        <v>51.7</v>
+      </c>
+      <c r="V44">
+        <v>51</v>
+      </c>
+      <c r="W44">
+        <v>50.7</v>
+      </c>
+      <c r="X44">
+        <v>50.6</v>
+      </c>
+      <c r="Y44">
+        <v>50.9</v>
+      </c>
+      <c r="Z44">
+        <v>51.6</v>
+      </c>
+      <c r="AA44">
+        <v>52.6</v>
+      </c>
+      <c r="AB44">
+        <v>53.9</v>
+      </c>
+      <c r="AC44">
+        <v>55.7</v>
+      </c>
+      <c r="AD44">
+        <v>57.1</v>
+      </c>
+      <c r="AE44">
+        <v>58.3</v>
+      </c>
+      <c r="AF44">
+        <v>60</v>
+      </c>
+      <c r="AG44">
+        <v>60.5</v>
+      </c>
+      <c r="AH44">
+        <v>60.8</v>
+      </c>
+      <c r="AI44">
+        <v>62</v>
+      </c>
+      <c r="AJ44">
+        <v>62.6</v>
+      </c>
+      <c r="AK44">
+        <v>63.8</v>
+      </c>
+      <c r="AL44">
+        <v>65.5</v>
+      </c>
+      <c r="AM44">
+        <v>66.8</v>
+      </c>
+      <c r="AN44">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AO44">
+        <v>65.5</v>
+      </c>
+      <c r="AP44">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AQ44">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>61.8</v>
+      </c>
+      <c r="C45">
+        <v>62.3</v>
+      </c>
+      <c r="D45">
+        <v>62.9</v>
+      </c>
+      <c r="E45">
+        <v>63.3</v>
+      </c>
+      <c r="F45">
+        <v>63.8</v>
+      </c>
+      <c r="G45">
+        <v>64.2</v>
+      </c>
+      <c r="H45">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="I45">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J45">
+        <v>65.5</v>
+      </c>
+      <c r="K45">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="L45">
+        <v>66</v>
+      </c>
+      <c r="M45">
+        <v>66.3</v>
+      </c>
+      <c r="N45">
+        <v>66.7</v>
+      </c>
+      <c r="O45">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="P45">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="Q45">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="R45">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="S45">
+        <v>68.8</v>
+      </c>
+      <c r="T45">
+        <v>69.2</v>
+      </c>
+      <c r="U45">
+        <v>69.5</v>
+      </c>
+      <c r="V45">
+        <v>69.7</v>
+      </c>
+      <c r="W45">
+        <v>70.2</v>
+      </c>
+      <c r="X45">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="Y45">
+        <v>70.7</v>
+      </c>
+      <c r="Z45">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AA45">
+        <v>71.8</v>
+      </c>
+      <c r="AB45">
+        <v>72</v>
+      </c>
+      <c r="AC45">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AD45">
+        <v>72.7</v>
+      </c>
+      <c r="AE45">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AF45">
+        <v>73.2</v>
+      </c>
+      <c r="AG45">
+        <v>73.3</v>
+      </c>
+      <c r="AH45">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AI45">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AJ45">
+        <v>74.3</v>
+      </c>
+      <c r="AK45">
+        <v>74.3</v>
+      </c>
+      <c r="AL45">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AM45">
+        <v>74.8</v>
+      </c>
+      <c r="AN45">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AO45">
+        <v>75.3</v>
+      </c>
+      <c r="AP45">
+        <v>74</v>
+      </c>
+      <c r="AQ45">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46">
+        <v>47.6</v>
+      </c>
+      <c r="C46">
+        <v>48.2</v>
+      </c>
+      <c r="D46">
+        <v>48.7</v>
+      </c>
+      <c r="E46">
+        <v>49.5</v>
+      </c>
+      <c r="F46">
+        <v>50.2</v>
+      </c>
+      <c r="G46">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>51.5</v>
+      </c>
+      <c r="I46">
+        <v>53.5</v>
+      </c>
+      <c r="J46">
+        <v>54.3</v>
+      </c>
+      <c r="K46">
+        <v>54.8</v>
+      </c>
+      <c r="L46">
+        <v>55.4</v>
+      </c>
+      <c r="M46">
+        <v>55.8</v>
+      </c>
+      <c r="N46">
+        <v>56</v>
+      </c>
+      <c r="O46">
+        <v>56.1</v>
+      </c>
+      <c r="P46">
+        <v>56</v>
+      </c>
+      <c r="Q46">
+        <v>56.3</v>
+      </c>
+      <c r="R46">
+        <v>56.3</v>
+      </c>
+      <c r="S46">
+        <v>56.7</v>
+      </c>
+      <c r="T46">
+        <v>57</v>
+      </c>
+      <c r="U46">
+        <v>57.7</v>
+      </c>
+      <c r="V46">
+        <v>58.6</v>
+      </c>
+      <c r="W46">
+        <v>60</v>
+      </c>
+      <c r="X46">
+        <v>61.2</v>
+      </c>
+      <c r="Y46">
+        <v>62.5</v>
+      </c>
+      <c r="Z46">
+        <v>63.6</v>
+      </c>
+      <c r="AA46">
+        <v>64.3</v>
+      </c>
+      <c r="AB46">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AC46">
+        <v>65.7</v>
+      </c>
+      <c r="AD46">
+        <v>66.5</v>
+      </c>
+      <c r="AE46">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AF46">
+        <v>67.7</v>
+      </c>
+      <c r="AG46">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AH46">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AI46">
+        <v>69.3</v>
+      </c>
+      <c r="AJ46">
+        <v>69.7</v>
+      </c>
+      <c r="AK46">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AL46">
+        <v>70.2</v>
+      </c>
+      <c r="AM46">
+        <v>70.5</v>
+      </c>
+      <c r="AN46">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AO46">
+        <v>70.7</v>
+      </c>
+      <c r="AP46">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AQ46">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>51.5</v>
+      </c>
+      <c r="D47">
+        <v>52.1</v>
+      </c>
+      <c r="E47">
+        <v>52.8</v>
+      </c>
+      <c r="F47">
+        <v>53.2</v>
+      </c>
+      <c r="G47">
+        <v>53.9</v>
+      </c>
+      <c r="H47">
+        <v>54</v>
+      </c>
+      <c r="I47">
+        <v>54.7</v>
+      </c>
+      <c r="J47">
+        <v>54.9</v>
+      </c>
+      <c r="K47">
+        <v>54.9</v>
+      </c>
+      <c r="L47">
+        <v>54.9</v>
+      </c>
+      <c r="M47">
+        <v>54.7</v>
+      </c>
+      <c r="N47">
+        <v>54.5</v>
+      </c>
+      <c r="O47">
+        <v>54.1</v>
+      </c>
+      <c r="P47">
+        <v>53.5</v>
+      </c>
+      <c r="Q47">
+        <v>53.2</v>
+      </c>
+      <c r="R47">
+        <v>52.8</v>
+      </c>
+      <c r="S47">
+        <v>52.7</v>
+      </c>
+      <c r="T47">
+        <v>52.6</v>
+      </c>
+      <c r="U47">
+        <v>52.7</v>
+      </c>
+      <c r="V47">
+        <v>52.9</v>
+      </c>
+      <c r="W47">
+        <v>53.1</v>
+      </c>
+      <c r="X47">
+        <v>53.4</v>
+      </c>
+      <c r="Y47">
+        <v>53.9</v>
+      </c>
+      <c r="Z47">
+        <v>54.2</v>
+      </c>
+      <c r="AA47">
+        <v>54.4</v>
+      </c>
+      <c r="AB47">
+        <v>54.9</v>
+      </c>
+      <c r="AC47">
+        <v>55.2</v>
+      </c>
+      <c r="AD47">
+        <v>55.7</v>
+      </c>
+      <c r="AE47">
+        <v>56.1</v>
+      </c>
+      <c r="AF47">
+        <v>56.6</v>
+      </c>
+      <c r="AG47">
+        <v>57.1</v>
+      </c>
+      <c r="AH47">
+        <v>57.8</v>
+      </c>
+      <c r="AI47">
+        <v>58.5</v>
+      </c>
+      <c r="AJ47">
+        <v>58.9</v>
+      </c>
+      <c r="AK47">
+        <v>59.7</v>
+      </c>
+      <c r="AL47">
+        <v>60.2</v>
+      </c>
+      <c r="AM47">
+        <v>60.8</v>
+      </c>
+      <c r="AN47">
+        <v>61.2</v>
+      </c>
+      <c r="AO47">
+        <v>61.6</v>
+      </c>
+      <c r="AP47">
+        <v>60.8</v>
+      </c>
+      <c r="AQ47">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48">
+        <v>49.9</v>
+      </c>
+      <c r="C48">
+        <v>50.2</v>
+      </c>
+      <c r="D48">
+        <v>50.3</v>
+      </c>
+      <c r="E48">
+        <v>50.4</v>
+      </c>
+      <c r="F48">
+        <v>50.5</v>
+      </c>
+      <c r="G48">
+        <v>50.5</v>
+      </c>
+      <c r="H48">
+        <v>50.5</v>
+      </c>
+      <c r="I48">
+        <v>50.4</v>
+      </c>
+      <c r="J48">
+        <v>50.2</v>
+      </c>
+      <c r="K48">
+        <v>50</v>
+      </c>
+      <c r="L48">
+        <v>49.6</v>
+      </c>
+      <c r="M48">
+        <v>49.3</v>
+      </c>
+      <c r="N48">
+        <v>48.8</v>
+      </c>
+      <c r="O48">
+        <v>48.4</v>
+      </c>
+      <c r="P48">
+        <v>47.9</v>
+      </c>
+      <c r="Q48">
+        <v>47.4</v>
+      </c>
+      <c r="R48">
+        <v>46.8</v>
+      </c>
+      <c r="S48">
+        <v>46.3</v>
+      </c>
+      <c r="T48">
+        <v>46</v>
+      </c>
+      <c r="U48">
+        <v>45.8</v>
+      </c>
+      <c r="V48">
+        <v>45.4</v>
+      </c>
+      <c r="W48">
+        <v>45.4</v>
+      </c>
+      <c r="X48">
+        <v>45.4</v>
+      </c>
+      <c r="Y48">
+        <v>45.8</v>
+      </c>
+      <c r="Z48">
+        <v>46</v>
+      </c>
+      <c r="AA48">
+        <v>46.4</v>
+      </c>
+      <c r="AB48">
+        <v>46.9</v>
+      </c>
+      <c r="AC48">
+        <v>47.4</v>
+      </c>
+      <c r="AD48">
+        <v>48</v>
+      </c>
+      <c r="AE48">
+        <v>48.6</v>
+      </c>
+      <c r="AF48">
+        <v>49.3</v>
+      </c>
+      <c r="AG48">
+        <v>49.9</v>
+      </c>
+      <c r="AH48">
+        <v>50.7</v>
+      </c>
+      <c r="AI48">
+        <v>50.9</v>
+      </c>
+      <c r="AJ48">
+        <v>50.6</v>
+      </c>
+      <c r="AK48">
+        <v>52.8</v>
+      </c>
+      <c r="AL48">
+        <v>53.5</v>
+      </c>
+      <c r="AM48">
+        <v>53.7</v>
+      </c>
+      <c r="AN48">
+        <v>54.4</v>
+      </c>
+      <c r="AO48">
+        <v>55</v>
+      </c>
+      <c r="AP48">
+        <v>54.6</v>
+      </c>
+      <c r="AQ48">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49">
+        <v>43.1</v>
+      </c>
+      <c r="C49">
+        <v>43.3</v>
+      </c>
+      <c r="D49">
+        <v>43.7</v>
+      </c>
+      <c r="E49">
+        <v>44.2</v>
+      </c>
+      <c r="F49">
+        <v>44.5</v>
+      </c>
+      <c r="G49">
+        <v>45</v>
+      </c>
+      <c r="H49">
+        <v>45.2</v>
+      </c>
+      <c r="I49">
+        <v>42.8</v>
+      </c>
+      <c r="J49">
+        <v>45.8</v>
+      </c>
+      <c r="K49">
+        <v>45.9</v>
+      </c>
+      <c r="L49">
+        <v>44.7</v>
+      </c>
+      <c r="M49">
+        <v>45.9</v>
+      </c>
+      <c r="N49">
+        <v>46.1</v>
+      </c>
+      <c r="O49">
+        <v>46.3</v>
+      </c>
+      <c r="P49">
+        <v>46.4</v>
+      </c>
+      <c r="Q49">
+        <v>46.7</v>
+      </c>
+      <c r="R49">
+        <v>47</v>
+      </c>
+      <c r="S49">
+        <v>47.2</v>
+      </c>
+      <c r="T49">
+        <v>47.2</v>
+      </c>
+      <c r="U49">
+        <v>47.4</v>
+      </c>
+      <c r="V49">
+        <v>47.4</v>
+      </c>
+      <c r="W49">
+        <v>47.8</v>
+      </c>
+      <c r="X49">
+        <v>47.9</v>
+      </c>
+      <c r="Y49">
+        <v>48.2</v>
+      </c>
+      <c r="Z49">
+        <v>48.2</v>
+      </c>
+      <c r="AA49">
+        <v>48.3</v>
+      </c>
+      <c r="AB49">
+        <v>48.3</v>
+      </c>
+      <c r="AC49">
+        <v>48.8</v>
+      </c>
+      <c r="AD49">
+        <v>49</v>
+      </c>
+      <c r="AE49">
+        <v>49.2</v>
+      </c>
+      <c r="AF49">
+        <v>49.6</v>
+      </c>
+      <c r="AG49">
+        <v>50</v>
+      </c>
+      <c r="AH49">
+        <v>50.5</v>
+      </c>
+      <c r="AI49">
+        <v>50.8</v>
+      </c>
+      <c r="AJ49">
+        <v>51.2</v>
+      </c>
+      <c r="AK49">
+        <v>51.6</v>
+      </c>
+      <c r="AL49">
+        <v>52.1</v>
+      </c>
+      <c r="AM49">
+        <v>52.3</v>
+      </c>
+      <c r="AN49">
+        <v>52.8</v>
+      </c>
+      <c r="AO49">
+        <v>53.3</v>
+      </c>
+      <c r="AP49">
+        <v>52.8</v>
+      </c>
+      <c r="AQ49">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50">
+        <v>52.3</v>
+      </c>
+      <c r="C50">
+        <v>52.7</v>
+      </c>
+      <c r="D50">
+        <v>52.9</v>
+      </c>
+      <c r="E50">
+        <v>53.2</v>
+      </c>
+      <c r="F50">
+        <v>53</v>
+      </c>
+      <c r="G50">
+        <v>53.2</v>
+      </c>
+      <c r="H50">
+        <v>53.2</v>
+      </c>
+      <c r="I50">
+        <v>53.2</v>
+      </c>
+      <c r="J50">
+        <v>53</v>
+      </c>
+      <c r="K50">
+        <v>52.9</v>
+      </c>
+      <c r="L50">
+        <v>52.6</v>
+      </c>
+      <c r="M50">
+        <v>52.3</v>
+      </c>
+      <c r="N50">
+        <v>52.1</v>
+      </c>
+      <c r="O50">
+        <v>51.9</v>
+      </c>
+      <c r="P50">
+        <v>51.7</v>
+      </c>
+      <c r="Q50">
+        <v>51.6</v>
+      </c>
+      <c r="R50">
+        <v>51.5</v>
+      </c>
+      <c r="S50">
+        <v>51.4</v>
+      </c>
+      <c r="T50">
+        <v>51.1</v>
+      </c>
+      <c r="U50">
+        <v>51</v>
+      </c>
+      <c r="V50">
+        <v>50.8</v>
+      </c>
+      <c r="W50">
+        <v>50.8</v>
+      </c>
+      <c r="X50">
+        <v>50.9</v>
+      </c>
+      <c r="Y50">
+        <v>51</v>
+      </c>
+      <c r="Z50">
+        <v>51.4</v>
+      </c>
+      <c r="AA50">
+        <v>51.8</v>
+      </c>
+      <c r="AB50">
+        <v>52.4</v>
+      </c>
+      <c r="AC50">
+        <v>53</v>
+      </c>
+      <c r="AD50">
+        <v>53.7</v>
+      </c>
+      <c r="AE50">
+        <v>54.4</v>
+      </c>
+      <c r="AF50">
+        <v>55</v>
+      </c>
+      <c r="AG50">
+        <v>55.5</v>
+      </c>
+      <c r="AH50">
+        <v>56.2</v>
+      </c>
+      <c r="AI50">
+        <v>56.7</v>
+      </c>
+      <c r="AJ50">
+        <v>57.2</v>
+      </c>
+      <c r="AK50">
+        <v>57.8</v>
+      </c>
+      <c r="AL50">
+        <v>58.1</v>
+      </c>
+      <c r="AM50">
+        <v>58.5</v>
+      </c>
+      <c r="AN50">
+        <v>58.8</v>
+      </c>
+      <c r="AO50">
+        <v>59.3</v>
+      </c>
+      <c r="AP50">
+        <v>59</v>
+      </c>
+      <c r="AQ50">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>72.8</v>
+      </c>
+      <c r="C51">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D51">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E51">
+        <v>73.3</v>
+      </c>
+      <c r="F51">
+        <v>73.5</v>
+      </c>
+      <c r="G51">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H51">
+        <v>73.7</v>
+      </c>
+      <c r="I51">
+        <v>73.8</v>
+      </c>
+      <c r="J51">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="K51">
+        <v>74</v>
+      </c>
+      <c r="L51">
+        <v>74</v>
+      </c>
+      <c r="M51">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="N51">
+        <v>74.2</v>
+      </c>
+      <c r="O51">
+        <v>74.3</v>
+      </c>
+      <c r="P51">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="Q51">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="R51">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="S51">
+        <v>75.2</v>
+      </c>
+      <c r="T51">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="U51">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="V51">
+        <v>76.2</v>
+      </c>
+      <c r="W51">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="X51">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Y51">
+        <v>76.8</v>
+      </c>
+      <c r="Z51">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AA51">
+        <v>77</v>
+      </c>
+      <c r="AB51">
+        <v>77.2</v>
+      </c>
+      <c r="AC51">
+        <v>77.3</v>
+      </c>
+      <c r="AD51">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AE51">
+        <v>77.5</v>
+      </c>
+      <c r="AF51">
+        <v>77.7</v>
+      </c>
+      <c r="AG51">
+        <v>77.8</v>
+      </c>
+      <c r="AH51">
+        <v>77.8</v>
+      </c>
+      <c r="AI51">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="AJ51">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="AK51">
+        <v>77.8</v>
+      </c>
+      <c r="AL51">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AM51">
+        <v>77.5</v>
+      </c>
+      <c r="AN51">
+        <v>77.5</v>
+      </c>
+      <c r="AO51">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AP51">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AQ51">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52">
+        <v>45.5</v>
+      </c>
+      <c r="C52">
+        <v>45.7</v>
+      </c>
+      <c r="D52">
+        <v>45.9</v>
+      </c>
+      <c r="E52">
+        <v>46.2</v>
+      </c>
+      <c r="F52">
+        <v>46.4</v>
+      </c>
+      <c r="G52">
+        <v>46.6</v>
+      </c>
+      <c r="H52">
+        <v>46.9</v>
+      </c>
+      <c r="I52">
+        <v>47.3</v>
+      </c>
+      <c r="J52">
+        <v>47.8</v>
+      </c>
+      <c r="K52">
+        <v>48.2</v>
+      </c>
+      <c r="L52">
+        <v>48.6</v>
+      </c>
+      <c r="M52">
+        <v>48.9</v>
+      </c>
+      <c r="N52">
+        <v>49.2</v>
+      </c>
+      <c r="O52">
+        <v>49.6</v>
+      </c>
+      <c r="P52">
+        <v>49.9</v>
+      </c>
+      <c r="Q52">
+        <v>50.4</v>
+      </c>
+      <c r="R52">
+        <v>49.3</v>
+      </c>
+      <c r="S52">
+        <v>50.4</v>
+      </c>
+      <c r="T52">
+        <v>49.7</v>
+      </c>
+      <c r="U52">
+        <v>49.9</v>
+      </c>
+      <c r="V52">
+        <v>51.8</v>
+      </c>
+      <c r="W52">
+        <v>52.1</v>
+      </c>
+      <c r="X52">
+        <v>52.3</v>
+      </c>
+      <c r="Y52">
+        <v>52.8</v>
+      </c>
+      <c r="Z52">
+        <v>53.4</v>
+      </c>
+      <c r="AA52">
+        <v>53.9</v>
+      </c>
+      <c r="AB52">
+        <v>54.5</v>
+      </c>
+      <c r="AC52">
+        <v>54.9</v>
+      </c>
+      <c r="AD52">
+        <v>55.3</v>
+      </c>
+      <c r="AE52">
+        <v>55.8</v>
+      </c>
+      <c r="AF52">
+        <v>56.4</v>
+      </c>
+      <c r="AG52">
+        <v>57.1</v>
+      </c>
+      <c r="AH52">
+        <v>57.2</v>
+      </c>
+      <c r="AI52">
+        <v>57.8</v>
+      </c>
+      <c r="AJ52">
+        <v>58.3</v>
+      </c>
+      <c r="AK52">
+        <v>58.5</v>
+      </c>
+      <c r="AL52">
+        <v>59.1</v>
+      </c>
+      <c r="AM52">
         <v>59.4</v>
       </c>
-      <c r="C37" s="3">
+      <c r="AN52">
+        <v>59.9</v>
+      </c>
+      <c r="AO52">
+        <v>60.3</v>
+      </c>
+      <c r="AP52">
+        <v>59.7</v>
+      </c>
+      <c r="AQ52">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53">
+        <v>63.2</v>
+      </c>
+      <c r="C53">
+        <v>63.7</v>
+      </c>
+      <c r="D53">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="E53">
+        <v>64.5</v>
+      </c>
+      <c r="F53">
+        <v>65.2</v>
+      </c>
+      <c r="G53">
+        <v>65.8</v>
+      </c>
+      <c r="H53">
+        <v>66.5</v>
+      </c>
+      <c r="I53">
+        <v>67.3</v>
+      </c>
+      <c r="J53">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="K53">
+        <v>68.7</v>
+      </c>
+      <c r="L53">
+        <v>69.3</v>
+      </c>
+      <c r="M53">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="N53">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="O53">
+        <v>70.3</v>
+      </c>
+      <c r="P53">
+        <v>70.8</v>
+      </c>
+      <c r="Q53">
+        <v>71</v>
+      </c>
+      <c r="R53">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="S53">
+        <v>71.7</v>
+      </c>
+      <c r="T53">
+        <v>72</v>
+      </c>
+      <c r="U53">
+        <v>72.5</v>
+      </c>
+      <c r="V53">
+        <v>72.8</v>
+      </c>
+      <c r="W53">
+        <v>73.2</v>
+      </c>
+      <c r="X53">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Y53">
+        <v>74</v>
+      </c>
+      <c r="Z53">
+        <v>74.3</v>
+      </c>
+      <c r="AA53">
+        <v>74.5</v>
+      </c>
+      <c r="AB53">
+        <v>74.7</v>
+      </c>
+      <c r="AC53">
+        <v>74.8</v>
+      </c>
+      <c r="AD53">
+        <v>75</v>
+      </c>
+      <c r="AE53">
+        <v>75.2</v>
+      </c>
+      <c r="AF53">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AG53">
+        <v>75.7</v>
+      </c>
+      <c r="AH53">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AI53">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AJ53">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AK53">
+        <v>76.8</v>
+      </c>
+      <c r="AL53">
+        <v>76.8</v>
+      </c>
+      <c r="AM53">
+        <v>77</v>
+      </c>
+      <c r="AN53">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AO53">
+        <v>77.3</v>
+      </c>
+      <c r="AP53">
+        <v>72.2</v>
+      </c>
+      <c r="AQ53">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54">
+        <v>56.6</v>
+      </c>
+      <c r="C54">
+        <v>57.1</v>
+      </c>
+      <c r="D54">
+        <v>57.9</v>
+      </c>
+      <c r="E54">
+        <v>58.9</v>
+      </c>
+      <c r="F54">
+        <v>59.7</v>
+      </c>
+      <c r="G54">
+        <v>60.5</v>
+      </c>
+      <c r="H54">
+        <v>61.3</v>
+      </c>
+      <c r="I54">
+        <v>62.1</v>
+      </c>
+      <c r="J54">
+        <v>63</v>
+      </c>
+      <c r="K54">
+        <v>63.6</v>
+      </c>
+      <c r="L54">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="M54">
+        <v>64.8</v>
+      </c>
+      <c r="N54">
+        <v>65</v>
+      </c>
+      <c r="O54">
+        <v>65.5</v>
+      </c>
+      <c r="P54">
+        <v>65.8</v>
+      </c>
+      <c r="Q54">
+        <v>66.3</v>
+      </c>
+      <c r="R54">
+        <v>66.7</v>
+      </c>
+      <c r="S54">
+        <v>67.2</v>
+      </c>
+      <c r="T54">
+        <v>67.5</v>
+      </c>
+      <c r="U54">
+        <v>67.7</v>
+      </c>
+      <c r="V54">
+        <v>68</v>
+      </c>
+      <c r="W54">
+        <v>68.3</v>
+      </c>
+      <c r="X54">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="Y54">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="Z54">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AA54">
+        <v>68.8</v>
+      </c>
+      <c r="AB54">
+        <v>69</v>
+      </c>
+      <c r="AC54">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AD54">
+        <v>69.3</v>
+      </c>
+      <c r="AE54">
+        <v>69.5</v>
+      </c>
+      <c r="AF54">
+        <v>69.7</v>
+      </c>
+      <c r="AG54">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AH54">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AI54">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AJ54">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AK54">
+        <v>70.5</v>
+      </c>
+      <c r="AL54">
+        <v>70.8</v>
+      </c>
+      <c r="AM54">
+        <v>71.3</v>
+      </c>
+      <c r="AN54">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AO54">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AP54">
+        <v>71</v>
+      </c>
+      <c r="AQ54">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>50.1</v>
+      </c>
+      <c r="E55">
+        <v>58.7</v>
+      </c>
+      <c r="F55">
+        <v>59.6</v>
+      </c>
+      <c r="G55">
+        <v>60.2</v>
+      </c>
+      <c r="H55">
+        <v>60.8</v>
+      </c>
+      <c r="I55">
+        <v>61.4</v>
+      </c>
+      <c r="J55">
+        <v>62</v>
+      </c>
+      <c r="K55">
+        <v>62.4</v>
+      </c>
+      <c r="L55">
+        <v>62.5</v>
+      </c>
+      <c r="M55">
+        <v>62.7</v>
+      </c>
+      <c r="N55">
+        <v>62.9</v>
+      </c>
+      <c r="O55">
+        <v>63.3</v>
+      </c>
+      <c r="P55">
+        <v>63.7</v>
+      </c>
+      <c r="Q55">
+        <v>64.2</v>
+      </c>
+      <c r="R55">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="S55">
+        <v>65.5</v>
+      </c>
+      <c r="T55">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="U55">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="V55">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="W55">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="X55">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="Y55">
+        <v>68.8</v>
+      </c>
+      <c r="Z55">
+        <v>69.2</v>
+      </c>
+      <c r="AA55">
+        <v>69.2</v>
+      </c>
+      <c r="AB55">
+        <v>69.8</v>
+      </c>
+      <c r="AC55">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AD55">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AE55">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AF55">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AG55">
+        <v>71.2</v>
+      </c>
+      <c r="AH55">
+        <v>71.5</v>
+      </c>
+      <c r="AI55">
+        <v>71.7</v>
+      </c>
+      <c r="AJ55">
+        <v>72</v>
+      </c>
+      <c r="AK55">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AL55">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AM55">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AN55">
+        <v>72.7</v>
+      </c>
+      <c r="AO55">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AP55">
+        <v>71.8</v>
+      </c>
+      <c r="AQ55">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56">
+        <v>58.5</v>
+      </c>
+      <c r="C56">
+        <v>56.7</v>
+      </c>
+      <c r="D56">
+        <v>57.7</v>
+      </c>
+      <c r="E56">
+        <v>58.7</v>
+      </c>
+      <c r="F56">
+        <v>61.2</v>
+      </c>
+      <c r="G56">
+        <v>61.9</v>
+      </c>
+      <c r="H56">
+        <v>62.5</v>
+      </c>
+      <c r="I56">
+        <v>62.8</v>
+      </c>
+      <c r="J56">
+        <v>63.4</v>
+      </c>
+      <c r="K56">
+        <v>65.7</v>
+      </c>
+      <c r="L56">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="M56">
+        <v>66.5</v>
+      </c>
+      <c r="N56">
+        <v>66.8</v>
+      </c>
+      <c r="O56">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="P56">
+        <v>67.5</v>
+      </c>
+      <c r="Q56">
+        <v>67.8</v>
+      </c>
+      <c r="R56">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="S56">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="T56">
+        <v>68.7</v>
+      </c>
+      <c r="U56">
+        <v>69.3</v>
+      </c>
+      <c r="V56">
+        <v>69.7</v>
+      </c>
+      <c r="W56">
+        <v>70</v>
+      </c>
+      <c r="X56">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="Y56">
+        <v>69.8</v>
+      </c>
+      <c r="Z56">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AA56">
+        <v>71.8</v>
+      </c>
+      <c r="AB56">
+        <v>72.3</v>
+      </c>
+      <c r="AC56">
+        <v>72.8</v>
+      </c>
+      <c r="AD56">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AE56">
+        <v>72.7</v>
+      </c>
+      <c r="AF56">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AG56">
+        <v>73.7</v>
+      </c>
+      <c r="AH56">
+        <v>74.2</v>
+      </c>
+      <c r="AI56">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AJ56">
+        <v>74.8</v>
+      </c>
+      <c r="AK56">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AL56">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AM56">
+        <v>76</v>
+      </c>
+      <c r="AN56">
+        <v>76.2</v>
+      </c>
+      <c r="AO56">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AP56">
+        <v>74.8</v>
+      </c>
+      <c r="AQ56">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57">
+        <v>61.5</v>
+      </c>
+      <c r="C57">
+        <v>59.3</v>
+      </c>
+      <c r="D57">
+        <v>59.7</v>
+      </c>
+      <c r="E57">
+        <v>60.1</v>
+      </c>
+      <c r="F57">
+        <v>60.2</v>
+      </c>
+      <c r="G57">
+        <v>60.7</v>
+      </c>
+      <c r="H57">
+        <v>60.9</v>
+      </c>
+      <c r="I57">
+        <v>61.2</v>
+      </c>
+      <c r="J57">
+        <v>57.5</v>
+      </c>
+      <c r="K57">
+        <v>58.2</v>
+      </c>
+      <c r="L57">
+        <v>58.4</v>
+      </c>
+      <c r="M57">
+        <v>62.5</v>
+      </c>
+      <c r="N57">
+        <v>66.7</v>
+      </c>
+      <c r="O57">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="P57">
+        <v>66.7</v>
+      </c>
+      <c r="Q57">
+        <v>66.5</v>
+      </c>
+      <c r="R57">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="S57">
+        <v>65.8</v>
+      </c>
+      <c r="T57">
+        <v>65.5</v>
+      </c>
+      <c r="U57">
+        <v>66.2</v>
+      </c>
+      <c r="V57">
+        <v>66.8</v>
+      </c>
+      <c r="W57">
+        <v>67</v>
+      </c>
+      <c r="X57">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="Y57">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="Z57">
+        <v>65</v>
+      </c>
+      <c r="AA57">
+        <v>64.8</v>
+      </c>
+      <c r="AB57">
+        <v>63.6</v>
+      </c>
+      <c r="AC57">
+        <v>63.6</v>
+      </c>
+      <c r="AD57">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AE57">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AF57">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AG57">
+        <v>67.7</v>
+      </c>
+      <c r="AH57">
+        <v>68</v>
+      </c>
+      <c r="AI57">
+        <v>68.3</v>
+      </c>
+      <c r="AJ57">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AK57">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AL57">
+        <v>69</v>
+      </c>
+      <c r="AM57">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AN57">
+        <v>71.5</v>
+      </c>
+      <c r="AO57">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="AP57">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AQ57">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58">
+        <v>73.7</v>
+      </c>
+      <c r="C58">
+        <v>74.2</v>
+      </c>
+      <c r="D58">
+        <v>73.8</v>
+      </c>
+      <c r="E58">
+        <v>74.7</v>
+      </c>
+      <c r="F58">
+        <v>75</v>
+      </c>
+      <c r="G58">
+        <v>75.3</v>
+      </c>
+      <c r="H58">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I58">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J58">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="K58">
+        <v>76.7</v>
+      </c>
+      <c r="L58">
+        <v>77.2</v>
+      </c>
+      <c r="M58">
+        <v>77</v>
+      </c>
+      <c r="N58">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="O58">
+        <v>77.5</v>
+      </c>
+      <c r="P58">
+        <v>77.7</v>
+      </c>
+      <c r="Q58">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="R58">
+        <v>78.3</v>
+      </c>
+      <c r="S58">
+        <v>78.3</v>
+      </c>
+      <c r="T58">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="U58">
+        <v>78.7</v>
+      </c>
+      <c r="V58">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="W58">
+        <v>79.3</v>
+      </c>
+      <c r="X58">
+        <v>79.3</v>
+      </c>
+      <c r="Y58">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="Z58">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AA58">
+        <v>80.2</v>
+      </c>
+      <c r="AB58">
+        <v>80.5</v>
+      </c>
+      <c r="AC58">
+        <v>80.7</v>
+      </c>
+      <c r="AD58">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AE58">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AF58">
+        <v>81.7</v>
+      </c>
+      <c r="AG58">
+        <v>81.7</v>
+      </c>
+      <c r="AH58">
+        <v>81.7</v>
+      </c>
+      <c r="AI58">
+        <v>82.1</v>
+      </c>
+      <c r="AJ58">
+        <v>82.2</v>
+      </c>
+      <c r="AK58">
+        <v>82.1</v>
+      </c>
+      <c r="AL58">
+        <v>82.5</v>
+      </c>
+      <c r="AM58">
+        <v>82.7</v>
+      </c>
+      <c r="AN58">
+        <v>82.8</v>
+      </c>
+      <c r="AO58">
+        <v>82.8</v>
+      </c>
+      <c r="AP58">
+        <v>82.4</v>
+      </c>
+      <c r="AQ58">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C59">
+        <v>76.5</v>
+      </c>
+      <c r="D59">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E59">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F59">
+        <v>77.5</v>
+      </c>
+      <c r="G59">
+        <v>77.8</v>
+      </c>
+      <c r="H59">
+        <v>78.2</v>
+      </c>
+      <c r="I59">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="J59">
+        <v>78.5</v>
+      </c>
+      <c r="K59">
+        <v>79</v>
+      </c>
+      <c r="L59">
+        <v>79</v>
+      </c>
+      <c r="M59">
+        <v>79.3</v>
+      </c>
+      <c r="N59">
+        <v>79.3</v>
+      </c>
+      <c r="O59">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="P59">
+        <v>79.8</v>
+      </c>
+      <c r="Q59">
+        <v>79.7</v>
+      </c>
+      <c r="R59">
+        <v>80.3</v>
+      </c>
+      <c r="S59">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="T59">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="U59">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="V59">
+        <v>81.2</v>
+      </c>
+      <c r="W59">
+        <v>81.5</v>
+      </c>
+      <c r="X59">
+        <v>81.8</v>
+      </c>
+      <c r="Y59">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="Z59">
+        <v>82.1</v>
+      </c>
+      <c r="AA59">
+        <v>82</v>
+      </c>
+      <c r="AB59">
+        <v>82.4</v>
+      </c>
+      <c r="AC59">
+        <v>82.6</v>
+      </c>
+      <c r="AD59">
+        <v>82.6</v>
+      </c>
+      <c r="AE59">
+        <v>83</v>
+      </c>
+      <c r="AF59">
+        <v>82.9</v>
+      </c>
+      <c r="AG59">
+        <v>82.7</v>
+      </c>
+      <c r="AH59">
+        <v>83.2</v>
+      </c>
+      <c r="AI59">
+        <v>83.4</v>
+      </c>
+      <c r="AJ59">
+        <v>83.7</v>
+      </c>
+      <c r="AK59">
+        <v>83.9</v>
+      </c>
+      <c r="AL59">
+        <v>84.1</v>
+      </c>
+      <c r="AM59">
+        <v>84.2</v>
+      </c>
+      <c r="AN59">
+        <v>84.3</v>
+      </c>
+      <c r="AO59">
+        <v>84.4</v>
+      </c>
+      <c r="AP59">
+        <v>84.7</v>
+      </c>
+      <c r="AQ59">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60">
+        <v>58.5</v>
+      </c>
+      <c r="C60">
+        <v>61.2</v>
+      </c>
+      <c r="D60">
+        <v>61</v>
+      </c>
+      <c r="E60">
+        <v>61</v>
+      </c>
+      <c r="F60">
+        <v>60.8</v>
+      </c>
+      <c r="G60">
+        <v>60.6</v>
+      </c>
+      <c r="H60">
+        <v>60.2</v>
+      </c>
+      <c r="I60">
+        <v>60</v>
+      </c>
+      <c r="J60">
+        <v>59.5</v>
+      </c>
+      <c r="K60">
+        <v>59</v>
+      </c>
+      <c r="L60">
+        <v>58.6</v>
+      </c>
+      <c r="M60">
+        <v>58</v>
+      </c>
+      <c r="N60">
+        <v>57.3</v>
+      </c>
+      <c r="O60">
+        <v>56.6</v>
+      </c>
+      <c r="P60">
+        <v>56.3</v>
+      </c>
+      <c r="Q60">
+        <v>55.6</v>
+      </c>
+      <c r="R60">
+        <v>55.2</v>
+      </c>
+      <c r="S60">
+        <v>54.8</v>
+      </c>
+      <c r="T60">
+        <v>54.5</v>
+      </c>
+      <c r="U60">
+        <v>54.5</v>
+      </c>
+      <c r="V60">
+        <v>54.4</v>
+      </c>
+      <c r="W60">
+        <v>54.5</v>
+      </c>
+      <c r="X60">
+        <v>55</v>
+      </c>
+      <c r="Y60">
+        <v>55.6</v>
+      </c>
+      <c r="Z60">
+        <v>56.4</v>
+      </c>
+      <c r="AA60">
+        <v>57.3</v>
+      </c>
+      <c r="AB60">
+        <v>58.2</v>
+      </c>
+      <c r="AC60">
+        <v>58.9</v>
+      </c>
+      <c r="AD60">
+        <v>59.6</v>
+      </c>
+      <c r="AE60">
+        <v>60.4</v>
+      </c>
+      <c r="AF60">
+        <v>60.6</v>
+      </c>
+      <c r="AG60">
+        <v>61</v>
+      </c>
+      <c r="AH60">
+        <v>61.1</v>
+      </c>
+      <c r="AI60">
+        <v>61.4</v>
+      </c>
+      <c r="AJ60">
+        <v>61.8</v>
+      </c>
+      <c r="AK60">
+        <v>61.9</v>
+      </c>
+      <c r="AL60">
+        <v>62.2</v>
+      </c>
+      <c r="AM60">
+        <v>62.5</v>
+      </c>
+      <c r="AN60">
+        <v>62.7</v>
+      </c>
+      <c r="AO60">
+        <v>62.9</v>
+      </c>
+      <c r="AP60">
+        <v>62.7</v>
+      </c>
+      <c r="AQ60">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61">
+        <v>70.3</v>
+      </c>
+      <c r="C61">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D61">
+        <v>71.5</v>
+      </c>
+      <c r="E61">
+        <v>72</v>
+      </c>
+      <c r="F61">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G61">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="H61">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I61">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="J61">
+        <v>74.5</v>
+      </c>
+      <c r="K61">
+        <v>74.8</v>
+      </c>
+      <c r="L61">
+        <v>73.3</v>
+      </c>
+      <c r="M61">
+        <v>74.2</v>
+      </c>
+      <c r="N61">
+        <v>75.7</v>
+      </c>
+      <c r="O61">
+        <v>75.8</v>
+      </c>
+      <c r="P61">
+        <v>75.8</v>
+      </c>
+      <c r="Q61">
+        <v>75.5</v>
+      </c>
+      <c r="R61">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="S61">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="T61">
+        <v>76.2</v>
+      </c>
+      <c r="U61">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="V61">
+        <v>76.7</v>
+      </c>
+      <c r="W61">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="X61">
+        <v>77</v>
+      </c>
+      <c r="Y61">
+        <v>77</v>
+      </c>
+      <c r="Z61">
+        <v>76.8</v>
+      </c>
+      <c r="AA61">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AB61">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AC61">
+        <v>77</v>
+      </c>
+      <c r="AD61">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AE61">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AF61">
+        <v>78</v>
+      </c>
+      <c r="AG61">
+        <v>78.5</v>
+      </c>
+      <c r="AH61">
+        <v>78.8</v>
+      </c>
+      <c r="AI61">
+        <v>79.2</v>
+      </c>
+      <c r="AJ61">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AK61">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AL61">
+        <v>79.7</v>
+      </c>
+      <c r="AM61">
+        <v>79.8</v>
+      </c>
+      <c r="AN61">
+        <v>79.7</v>
+      </c>
+      <c r="AO61">
+        <v>79.7</v>
+      </c>
+      <c r="AP61">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AQ61">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C62">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="D62">
+        <v>65.8</v>
+      </c>
+      <c r="E62">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F62">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G62">
+        <v>67.3</v>
+      </c>
+      <c r="H62">
+        <v>67.8</v>
+      </c>
+      <c r="I62">
+        <v>68.2</v>
+      </c>
+      <c r="J62">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K62">
+        <v>69</v>
+      </c>
+      <c r="L62">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="M62">
+        <v>69.8</v>
+      </c>
+      <c r="N62">
+        <v>70.2</v>
+      </c>
+      <c r="O62">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="P62">
+        <v>70.7</v>
+      </c>
+      <c r="Q62">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="R62">
+        <v>71.3</v>
+      </c>
+      <c r="S62">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="T62">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="U62">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="V62">
+        <v>70.7</v>
+      </c>
+      <c r="W62">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="X62">
+        <v>71</v>
+      </c>
+      <c r="Y62">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="Z62">
+        <v>71.5</v>
+      </c>
+      <c r="AA62">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="AB62">
+        <v>71.7</v>
+      </c>
+      <c r="AC62">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AD62">
+        <v>72.3</v>
+      </c>
+      <c r="AE62">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AF62">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AG62">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AH62">
+        <v>72.2</v>
+      </c>
+      <c r="AI62">
+        <v>72.3</v>
+      </c>
+      <c r="AJ62">
+        <v>71.5</v>
+      </c>
+      <c r="AK62">
+        <v>71.7</v>
+      </c>
+      <c r="AL62">
+        <v>71.8</v>
+      </c>
+      <c r="AM62">
+        <v>72.5</v>
+      </c>
+      <c r="AN62">
+        <v>72.8</v>
+      </c>
+      <c r="AO62">
+        <v>72.5</v>
+      </c>
+      <c r="AP62">
+        <v>72.5</v>
+      </c>
+      <c r="AQ62">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63">
+        <v>68.2</v>
+      </c>
+      <c r="C63">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D63">
+        <v>69.2</v>
+      </c>
+      <c r="E63">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F63">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G63">
+        <v>70.3</v>
+      </c>
+      <c r="H63">
+        <v>70.5</v>
+      </c>
+      <c r="I63">
+        <v>70.7</v>
+      </c>
+      <c r="J63">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K63">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="L63">
+        <v>71.3</v>
+      </c>
+      <c r="M63">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="N63">
+        <v>71.5</v>
+      </c>
+      <c r="O63">
+        <v>71.8</v>
+      </c>
+      <c r="P63">
+        <v>72.2</v>
+      </c>
+      <c r="Q63">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="R63">
+        <v>72.3</v>
+      </c>
+      <c r="S63">
+        <v>72.3</v>
+      </c>
+      <c r="T63">
+        <v>72.2</v>
+      </c>
+      <c r="U63">
+        <v>72.3</v>
+      </c>
+      <c r="V63">
+        <v>72.8</v>
+      </c>
+      <c r="W63">
+        <v>73.3</v>
+      </c>
+      <c r="X63">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Y63">
+        <v>73.8</v>
+      </c>
+      <c r="Z63">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AA63">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AB63">
+        <v>74.2</v>
+      </c>
+      <c r="AC63">
+        <v>74.2</v>
+      </c>
+      <c r="AD63">
+        <v>74.3</v>
+      </c>
+      <c r="AE63">
+        <v>74.2</v>
+      </c>
+      <c r="AF63">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AG63">
+        <v>74.7</v>
+      </c>
+      <c r="AH63">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AI63">
+        <v>75</v>
+      </c>
+      <c r="AJ63">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AK63">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AL63">
+        <v>75.3</v>
+      </c>
+      <c r="AM63">
+        <v>75.5</v>
+      </c>
+      <c r="AN63">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AO63">
+        <v>75.8</v>
+      </c>
+      <c r="AP63">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AQ63">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C64">
+        <v>41.2</v>
+      </c>
+      <c r="D64">
+        <v>41.8</v>
+      </c>
+      <c r="E64">
+        <v>42.1</v>
+      </c>
+      <c r="F64">
+        <v>42.7</v>
+      </c>
+      <c r="G64">
+        <v>43.2</v>
+      </c>
+      <c r="H64">
+        <v>44</v>
+      </c>
+      <c r="I64">
+        <v>44.7</v>
+      </c>
+      <c r="J64">
+        <v>45.4</v>
+      </c>
+      <c r="K64">
+        <v>45.9</v>
+      </c>
+      <c r="L64">
+        <v>46.6</v>
+      </c>
+      <c r="M64">
+        <v>47.2</v>
+      </c>
+      <c r="N64">
+        <v>47.5</v>
+      </c>
+      <c r="O64">
+        <v>47.7</v>
+      </c>
+      <c r="P64">
+        <v>47.7</v>
+      </c>
+      <c r="Q64">
+        <v>47.8</v>
+      </c>
+      <c r="R64">
+        <v>47.8</v>
+      </c>
+      <c r="S64">
+        <v>48.5</v>
+      </c>
+      <c r="T64">
+        <v>49.2</v>
+      </c>
+      <c r="U64">
+        <v>49.8</v>
+      </c>
+      <c r="V64">
+        <v>50.5</v>
+      </c>
+      <c r="W64">
+        <v>51.3</v>
+      </c>
+      <c r="X64">
+        <v>52.2</v>
+      </c>
+      <c r="Y64">
+        <v>52.9</v>
+      </c>
+      <c r="Z64">
+        <v>53.5</v>
+      </c>
+      <c r="AA64">
+        <v>54</v>
+      </c>
+      <c r="AB64">
+        <v>54.6</v>
+      </c>
+      <c r="AC64">
+        <v>54.9</v>
+      </c>
+      <c r="AD64">
+        <v>55.3</v>
+      </c>
+      <c r="AE64">
+        <v>55.9</v>
+      </c>
+      <c r="AF64">
+        <v>56.4</v>
+      </c>
+      <c r="AG64">
+        <v>56.8</v>
+      </c>
+      <c r="AH64">
+        <v>57.1</v>
+      </c>
+      <c r="AI64">
+        <v>57.4</v>
+      </c>
+      <c r="AJ64">
+        <v>57.9</v>
+      </c>
+      <c r="AK64">
+        <v>58.4</v>
+      </c>
+      <c r="AL64">
+        <v>58.7</v>
+      </c>
+      <c r="AM64">
+        <v>59.1</v>
+      </c>
+      <c r="AN64">
+        <v>59.4</v>
+      </c>
+      <c r="AO64">
+        <v>59.7</v>
+      </c>
+      <c r="AP64">
+        <v>58.6</v>
+      </c>
+      <c r="AQ64">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65">
+        <v>47.9</v>
+      </c>
+      <c r="C65">
+        <v>48.4</v>
+      </c>
+      <c r="D65">
+        <v>48.9</v>
+      </c>
+      <c r="E65">
+        <v>49.4</v>
+      </c>
+      <c r="F65">
+        <v>50.2</v>
+      </c>
+      <c r="G65">
+        <v>50.9</v>
+      </c>
+      <c r="H65">
+        <v>51.5</v>
+      </c>
+      <c r="I65">
+        <v>52.5</v>
+      </c>
+      <c r="J65">
+        <v>53.1</v>
+      </c>
+      <c r="K65">
+        <v>54.1</v>
+      </c>
+      <c r="L65">
+        <v>54.8</v>
+      </c>
+      <c r="M65">
+        <v>55.7</v>
+      </c>
+      <c r="N65">
+        <v>56.7</v>
+      </c>
+      <c r="O65">
+        <v>57.6</v>
+      </c>
+      <c r="P65">
+        <v>58.6</v>
+      </c>
+      <c r="Q65">
+        <v>59.3</v>
+      </c>
+      <c r="R65">
+        <v>60</v>
+      </c>
+      <c r="S65">
+        <v>60.8</v>
+      </c>
+      <c r="T65">
+        <v>61.5</v>
+      </c>
+      <c r="U65">
+        <v>62.1</v>
+      </c>
+      <c r="V65">
+        <v>62.6</v>
+      </c>
+      <c r="W65">
+        <v>63.3</v>
+      </c>
+      <c r="X65">
+        <v>63.3</v>
+      </c>
+      <c r="Y65">
+        <v>64.2</v>
+      </c>
+      <c r="Z65">
+        <v>64.8</v>
+      </c>
+      <c r="AA65">
+        <v>65.5</v>
+      </c>
+      <c r="AB65">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AC65">
+        <v>66.3</v>
+      </c>
+      <c r="AD65">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AE65">
+        <v>66.8</v>
+      </c>
+      <c r="AF65">
+        <v>66.8</v>
+      </c>
+      <c r="AG65">
+        <v>67.3</v>
+      </c>
+      <c r="AH65">
+        <v>67.5</v>
+      </c>
+      <c r="AI65">
+        <v>68</v>
+      </c>
+      <c r="AJ65">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AK65">
+        <v>67.5</v>
+      </c>
+      <c r="AL65">
+        <v>68.8</v>
+      </c>
+      <c r="AM65">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AN65">
+        <v>69</v>
+      </c>
+      <c r="AO65">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AP65">
+        <v>69.2</v>
+      </c>
+      <c r="AQ65">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C66">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D66">
+        <v>73.7</v>
+      </c>
+      <c r="E66">
+        <v>73.8</v>
+      </c>
+      <c r="F66">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G66">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H66">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I66">
+        <v>74.2</v>
+      </c>
+      <c r="J66">
+        <v>74.5</v>
+      </c>
+      <c r="K66">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="L66">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M66">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="N66">
+        <v>76.2</v>
+      </c>
+      <c r="O66">
+        <v>76.5</v>
+      </c>
+      <c r="P66">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Q66">
+        <v>76.8</v>
+      </c>
+      <c r="R66">
+        <v>76.8</v>
+      </c>
+      <c r="S66">
+        <v>77.3</v>
+      </c>
+      <c r="T66">
+        <v>78.2</v>
+      </c>
+      <c r="U66">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="V66">
+        <v>78.7</v>
+      </c>
+      <c r="W66">
+        <v>78.7</v>
+      </c>
+      <c r="X66">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Y66">
+        <v>79.2</v>
+      </c>
+      <c r="Z66">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AA66">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AB66">
+        <v>80</v>
+      </c>
+      <c r="AC66">
+        <v>80.2</v>
+      </c>
+      <c r="AD66">
+        <v>80.3</v>
+      </c>
+      <c r="AE66">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AF66">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AG66">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AH66">
+        <v>81.2</v>
+      </c>
+      <c r="AI66">
+        <v>81.7</v>
+      </c>
+      <c r="AJ66">
+        <v>81.8</v>
+      </c>
+      <c r="AK66">
+        <v>82</v>
+      </c>
+      <c r="AL66">
+        <v>82.1</v>
+      </c>
+      <c r="AM66">
+        <v>82.2</v>
+      </c>
+      <c r="AN66">
+        <v>82.4</v>
+      </c>
+      <c r="AO66">
+        <v>82.6</v>
+      </c>
+      <c r="AP66">
+        <v>82.7</v>
+      </c>
+      <c r="AQ66">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67">
+        <v>46.3</v>
+      </c>
+      <c r="C67">
+        <v>46.5</v>
+      </c>
+      <c r="D67">
+        <v>46.5</v>
+      </c>
+      <c r="E67">
+        <v>46.6</v>
+      </c>
+      <c r="F67">
+        <v>46.6</v>
+      </c>
+      <c r="G67">
+        <v>46.3</v>
+      </c>
+      <c r="H67">
+        <v>46</v>
+      </c>
+      <c r="I67">
+        <v>46</v>
+      </c>
+      <c r="J67">
+        <v>46.1</v>
+      </c>
+      <c r="K67">
+        <v>46.2</v>
+      </c>
+      <c r="L67">
+        <v>46</v>
+      </c>
+      <c r="M67">
+        <v>45.7</v>
+      </c>
+      <c r="N67">
+        <v>45.7</v>
+      </c>
+      <c r="O67">
+        <v>45.8</v>
+      </c>
+      <c r="P67">
+        <v>45.5</v>
+      </c>
+      <c r="Q67">
+        <v>45.5</v>
+      </c>
+      <c r="R67">
+        <v>45.6</v>
+      </c>
+      <c r="S67">
+        <v>45.8</v>
+      </c>
+      <c r="T67">
+        <v>46</v>
+      </c>
+      <c r="U67">
+        <v>46.6</v>
+      </c>
+      <c r="V67">
+        <v>47.2</v>
+      </c>
+      <c r="W67">
+        <v>47.6</v>
+      </c>
+      <c r="X67">
+        <v>47.9</v>
+      </c>
+      <c r="Y67">
+        <v>48.4</v>
+      </c>
+      <c r="Z67">
+        <v>48.8</v>
+      </c>
+      <c r="AA67">
+        <v>49.3</v>
+      </c>
+      <c r="AB67">
+        <v>49.7</v>
+      </c>
+      <c r="AC67">
+        <v>50</v>
+      </c>
+      <c r="AD67">
+        <v>50.2</v>
+      </c>
+      <c r="AE67">
+        <v>50.7</v>
+      </c>
+      <c r="AF67">
+        <v>50.9</v>
+      </c>
+      <c r="AG67">
+        <v>51.4</v>
+      </c>
+      <c r="AH67">
+        <v>51.5</v>
+      </c>
+      <c r="AI67">
+        <v>51.7</v>
+      </c>
+      <c r="AJ67">
+        <v>51.8</v>
+      </c>
+      <c r="AK67">
+        <v>51.8</v>
+      </c>
+      <c r="AL67">
+        <v>52</v>
+      </c>
+      <c r="AM67">
+        <v>52.3</v>
+      </c>
+      <c r="AN67">
+        <v>52.6</v>
+      </c>
+      <c r="AO67">
+        <v>52.9</v>
+      </c>
+      <c r="AP67">
+        <v>52.9</v>
+      </c>
+      <c r="AQ67">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68">
+        <v>57.6</v>
+      </c>
+      <c r="C68">
+        <v>58.1</v>
+      </c>
+      <c r="D68">
+        <v>58.4</v>
+      </c>
+      <c r="E68">
+        <v>58.9</v>
+      </c>
+      <c r="F68">
+        <v>59.3</v>
+      </c>
+      <c r="G68">
+        <v>59.4</v>
+      </c>
+      <c r="H68">
+        <v>59.5</v>
+      </c>
+      <c r="I68">
+        <v>59.1</v>
+      </c>
+      <c r="J68">
+        <v>59.4</v>
+      </c>
+      <c r="K68">
+        <v>59.6</v>
+      </c>
+      <c r="L68">
+        <v>60.1</v>
+      </c>
+      <c r="M68">
+        <v>60.3</v>
+      </c>
+      <c r="N68">
+        <v>60.1</v>
+      </c>
+      <c r="O68">
+        <v>59.9</v>
+      </c>
+      <c r="P68">
+        <v>60.1</v>
+      </c>
+      <c r="Q68">
+        <v>59.9</v>
+      </c>
+      <c r="R68">
+        <v>60.4</v>
+      </c>
+      <c r="S68">
+        <v>60.6</v>
+      </c>
+      <c r="T68">
+        <v>61.1</v>
+      </c>
+      <c r="U68">
+        <v>61.7</v>
+      </c>
+      <c r="V68">
+        <v>62.1</v>
+      </c>
+      <c r="W68">
+        <v>62.4</v>
+      </c>
+      <c r="X68">
+        <v>62.6</v>
+      </c>
+      <c r="Y68">
+        <v>62.8</v>
+      </c>
+      <c r="Z68">
+        <v>63.1</v>
+      </c>
+      <c r="AA68">
+        <v>62.5</v>
+      </c>
+      <c r="AB68">
+        <v>63.7</v>
+      </c>
+      <c r="AC68">
+        <v>63.9</v>
+      </c>
+      <c r="AD68">
+        <v>64</v>
+      </c>
+      <c r="AE68">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="AF68">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AG68">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AH68">
+        <v>64.8</v>
+      </c>
+      <c r="AI68">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AJ68">
+        <v>65.3</v>
+      </c>
+      <c r="AK68">
+        <v>65.7</v>
+      </c>
+      <c r="AL68">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AM68">
+        <v>66.3</v>
+      </c>
+      <c r="AN68">
+        <v>66.5</v>
+      </c>
+      <c r="AO68">
+        <v>66.8</v>
+      </c>
+      <c r="AP68">
+        <v>66.3</v>
+      </c>
+      <c r="AQ68">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69">
+        <v>64.7</v>
+      </c>
+      <c r="C69">
+        <v>65</v>
+      </c>
+      <c r="D69">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E69">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="F69">
+        <v>66</v>
+      </c>
+      <c r="G69">
+        <v>66.3</v>
+      </c>
+      <c r="H69">
+        <v>66.7</v>
+      </c>
+      <c r="I69">
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <v>67.3</v>
+      </c>
+      <c r="K69">
+        <v>67.5</v>
+      </c>
+      <c r="L69">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="M69">
+        <v>68.2</v>
+      </c>
+      <c r="N69">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="O69">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="P69">
+        <v>68.8</v>
+      </c>
+      <c r="Q69">
+        <v>69</v>
+      </c>
+      <c r="R69">
+        <v>69.2</v>
+      </c>
+      <c r="S69">
+        <v>69.3</v>
+      </c>
+      <c r="T69">
+        <v>69.5</v>
+      </c>
+      <c r="U69">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="V69">
+        <v>69.8</v>
+      </c>
+      <c r="W69">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="X69">
+        <v>70</v>
+      </c>
+      <c r="Y69">
+        <v>70.3</v>
+      </c>
+      <c r="Z69">
+        <v>70.5</v>
+      </c>
+      <c r="AA69">
+        <v>70.5</v>
+      </c>
+      <c r="AB69">
+        <v>70.8</v>
+      </c>
+      <c r="AC69">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AD69">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AE69">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="AF69">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AG69">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AH69">
+        <v>72.5</v>
+      </c>
+      <c r="AI69">
+        <v>72.8</v>
+      </c>
+      <c r="AJ69">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AK69">
+        <v>73.2</v>
+      </c>
+      <c r="AL69">
+        <v>73.5</v>
+      </c>
+      <c r="AM69">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AN69">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AO69">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AP69">
+        <v>73.2</v>
+      </c>
+      <c r="AQ69">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70">
+        <v>70.8</v>
+      </c>
+      <c r="C70">
+        <v>71.3</v>
+      </c>
+      <c r="D70">
+        <v>71.5</v>
+      </c>
+      <c r="E70">
+        <v>71.7</v>
+      </c>
+      <c r="F70">
+        <v>72.2</v>
+      </c>
+      <c r="G70">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="H70">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I70">
+        <v>73</v>
+      </c>
+      <c r="J70">
+        <v>73.2</v>
+      </c>
+      <c r="K70">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="L70">
+        <v>74</v>
+      </c>
+      <c r="M70">
+        <v>74</v>
+      </c>
+      <c r="N70">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="O70">
+        <v>74.2</v>
+      </c>
+      <c r="P70">
+        <v>74.3</v>
+      </c>
+      <c r="Q70">
+        <v>74.2</v>
+      </c>
+      <c r="R70">
+        <v>74.7</v>
+      </c>
+      <c r="S70">
+        <v>74.8</v>
+      </c>
+      <c r="T70">
+        <v>74.8</v>
+      </c>
+      <c r="U70">
+        <v>74.8</v>
+      </c>
+      <c r="V70">
+        <v>74.8</v>
+      </c>
+      <c r="W70">
+        <v>75.3</v>
+      </c>
+      <c r="X70">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="Y70">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="Z70">
+        <v>76</v>
+      </c>
+      <c r="AA70">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AB70">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AC70">
+        <v>77</v>
+      </c>
+      <c r="AD70">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AE70">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="AF70">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AG70">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AH70">
+        <v>79.2</v>
+      </c>
+      <c r="AI70">
+        <v>79.5</v>
+      </c>
+      <c r="AJ70">
+        <v>79.8</v>
+      </c>
+      <c r="AK70">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AL70">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AM70">
+        <v>80.7</v>
+      </c>
+      <c r="AN70">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AO70">
+        <v>81</v>
+      </c>
+      <c r="AP70">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AQ70">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71">
+        <v>48</v>
+      </c>
+      <c r="C71">
+        <v>49.4</v>
+      </c>
+      <c r="D71">
+        <v>50.7</v>
+      </c>
+      <c r="E71">
+        <v>51.3</v>
+      </c>
+      <c r="F71">
+        <v>51.6</v>
+      </c>
+      <c r="G71">
+        <v>51.7</v>
+      </c>
+      <c r="H71">
+        <v>51.6</v>
+      </c>
+      <c r="I71">
+        <v>51.5</v>
+      </c>
+      <c r="J71">
+        <v>51</v>
+      </c>
+      <c r="K71">
+        <v>50.2</v>
+      </c>
+      <c r="L71">
+        <v>48.4</v>
+      </c>
+      <c r="M71">
+        <v>46.5</v>
+      </c>
+      <c r="N71">
+        <v>44.3</v>
+      </c>
+      <c r="O71">
+        <v>42.2</v>
+      </c>
+      <c r="P71">
+        <v>14.1</v>
+      </c>
+      <c r="Q71">
+        <v>40</v>
+      </c>
+      <c r="R71">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="S71">
+        <v>40.6</v>
+      </c>
+      <c r="T71">
+        <v>41.7</v>
+      </c>
+      <c r="U71">
+        <v>44.6</v>
+      </c>
+      <c r="V71">
+        <v>47.1</v>
+      </c>
+      <c r="W71">
+        <v>49</v>
+      </c>
+      <c r="X71">
+        <v>51</v>
+      </c>
+      <c r="Y71">
+        <v>53.4</v>
+      </c>
+      <c r="Z71">
+        <v>55.5</v>
+      </c>
+      <c r="AA71">
+        <v>57.3</v>
+      </c>
+      <c r="AB71">
+        <v>58.7</v>
+      </c>
+      <c r="AC71">
+        <v>60</v>
+      </c>
+      <c r="AD71">
+        <v>61.1</v>
+      </c>
+      <c r="AE71">
+        <v>62</v>
+      </c>
+      <c r="AF71">
+        <v>62.5</v>
+      </c>
+      <c r="AG71">
+        <v>63.3</v>
+      </c>
+      <c r="AH71">
+        <v>64</v>
+      </c>
+      <c r="AI71">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AJ71">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AK71">
+        <v>65.3</v>
+      </c>
+      <c r="AL71">
+        <v>65.7</v>
+      </c>
+      <c r="AM71">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AN71">
+        <v>66.3</v>
+      </c>
+      <c r="AO71">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AP71">
+        <v>66.8</v>
+      </c>
+      <c r="AQ71">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72">
+        <v>62.7</v>
+      </c>
+      <c r="C72">
+        <v>63.5</v>
+      </c>
+      <c r="D72">
+        <v>64.3</v>
+      </c>
+      <c r="E72">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F72">
+        <v>65.7</v>
+      </c>
+      <c r="G72">
+        <v>66.3</v>
+      </c>
+      <c r="H72">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="I72">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="J72">
+        <v>68</v>
+      </c>
+      <c r="K72">
+        <v>68.5</v>
+      </c>
+      <c r="L72">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="M72">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="N72">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="O72">
+        <v>70.3</v>
+      </c>
+      <c r="P72">
+        <v>70.7</v>
+      </c>
+      <c r="Q72">
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <v>71.3</v>
+      </c>
+      <c r="S72">
+        <v>71.5</v>
+      </c>
+      <c r="T72">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="U72">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="V72">
+        <v>72.5</v>
+      </c>
+      <c r="W72">
+        <v>73</v>
+      </c>
+      <c r="X72">
+        <v>73.3</v>
+      </c>
+      <c r="Y72">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Z72">
+        <v>74.2</v>
+      </c>
+      <c r="AA72">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AB72">
+        <v>74.8</v>
+      </c>
+      <c r="AC72">
+        <v>75</v>
+      </c>
+      <c r="AD72">
+        <v>75.3</v>
+      </c>
+      <c r="AE72">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AF72">
+        <v>75.8</v>
+      </c>
+      <c r="AG72">
+        <v>76.2</v>
+      </c>
+      <c r="AH72">
+        <v>76.5</v>
+      </c>
+      <c r="AI72">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AJ72">
+        <v>76.8</v>
+      </c>
+      <c r="AK72">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AL72">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AM72">
+        <v>77.2</v>
+      </c>
+      <c r="AN72">
+        <v>77.2</v>
+      </c>
+      <c r="AO72">
+        <v>77.3</v>
+      </c>
+      <c r="AP72">
+        <v>76.2</v>
+      </c>
+      <c r="AQ72">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73">
+        <v>49.1</v>
+      </c>
+      <c r="C73">
+        <v>49.8</v>
+      </c>
+      <c r="D73">
+        <v>50.6</v>
+      </c>
+      <c r="E73">
+        <v>51.2</v>
+      </c>
+      <c r="F73">
+        <v>52</v>
+      </c>
+      <c r="G73">
+        <v>52.8</v>
+      </c>
+      <c r="H73">
+        <v>53.9</v>
+      </c>
+      <c r="I73">
+        <v>54.8</v>
+      </c>
+      <c r="J73">
+        <v>55.8</v>
+      </c>
+      <c r="K73">
+        <v>56.4</v>
+      </c>
+      <c r="L73">
+        <v>56.9</v>
+      </c>
+      <c r="M73">
+        <v>57.1</v>
+      </c>
+      <c r="N73">
+        <v>57.1</v>
+      </c>
+      <c r="O73">
+        <v>57</v>
+      </c>
+      <c r="P73">
+        <v>57</v>
+      </c>
+      <c r="Q73">
+        <v>56.8</v>
+      </c>
+      <c r="R73">
+        <v>56.7</v>
+      </c>
+      <c r="S73">
+        <v>56.6</v>
+      </c>
+      <c r="T73">
+        <v>56.4</v>
+      </c>
+      <c r="U73">
+        <v>56.6</v>
+      </c>
+      <c r="V73">
+        <v>56.9</v>
+      </c>
+      <c r="W73">
+        <v>57.6</v>
+      </c>
+      <c r="X73">
+        <v>58.2</v>
+      </c>
+      <c r="Y73">
+        <v>59.1</v>
+      </c>
+      <c r="Z73">
+        <v>60</v>
+      </c>
+      <c r="AA73">
+        <v>60.9</v>
+      </c>
+      <c r="AB73">
+        <v>61.8</v>
+      </c>
+      <c r="AC73">
+        <v>62.5</v>
+      </c>
+      <c r="AD73">
+        <v>63.2</v>
+      </c>
+      <c r="AE73">
+        <v>63.9</v>
+      </c>
+      <c r="AF73">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AG73">
+        <v>65.3</v>
+      </c>
+      <c r="AH73">
+        <v>65.5</v>
+      </c>
+      <c r="AI73">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="AJ73">
+        <v>66.5</v>
+      </c>
+      <c r="AK73">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AL73">
+        <v>67.5</v>
+      </c>
+      <c r="AM73">
+        <v>67.8</v>
+      </c>
+      <c r="AN73">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AO73">
+        <v>68.5</v>
+      </c>
+      <c r="AP73">
+        <v>68</v>
+      </c>
+      <c r="AQ73">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74">
+        <v>71.7</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>72.3</v>
+      </c>
+      <c r="E74">
+        <v>72.7</v>
+      </c>
+      <c r="F74">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G74">
+        <v>73.7</v>
+      </c>
+      <c r="H74">
+        <v>74.2</v>
+      </c>
+      <c r="I74">
+        <v>74.7</v>
+      </c>
+      <c r="J74">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K74">
+        <v>74.8</v>
+      </c>
+      <c r="L74">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="M74">
+        <v>75.3</v>
+      </c>
+      <c r="N74">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="O74">
+        <v>75.8</v>
+      </c>
+      <c r="P74">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="Q74">
+        <v>76</v>
+      </c>
+      <c r="R74">
+        <v>76.5</v>
+      </c>
+      <c r="S74">
+        <v>77.2</v>
+      </c>
+      <c r="T74">
+        <v>78</v>
+      </c>
+      <c r="U74">
+        <v>78.5</v>
+      </c>
+      <c r="V74">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="W74">
+        <v>79.2</v>
+      </c>
+      <c r="X74">
+        <v>79.3</v>
+      </c>
+      <c r="Y74">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="Z74">
+        <v>79.8</v>
+      </c>
+      <c r="AA74">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AB74">
+        <v>80.7</v>
+      </c>
+      <c r="AC74">
+        <v>81</v>
+      </c>
+      <c r="AD74">
+        <v>81.2</v>
+      </c>
+      <c r="AE74">
+        <v>81.5</v>
+      </c>
+      <c r="AF74">
+        <v>81.7</v>
+      </c>
+      <c r="AG74">
+        <v>82</v>
+      </c>
+      <c r="AH74">
+        <v>82.2</v>
+      </c>
+      <c r="AI74">
+        <v>82.5</v>
+      </c>
+      <c r="AJ74">
+        <v>82.7</v>
+      </c>
+      <c r="AK74">
+        <v>82.8</v>
+      </c>
+      <c r="AL74">
+        <v>83</v>
+      </c>
+      <c r="AM74">
+        <v>83.2</v>
+      </c>
+      <c r="AN74">
+        <v>83.5</v>
+      </c>
+      <c r="AO74">
+        <v>83.8</v>
+      </c>
+      <c r="AP74">
+        <v>82.9</v>
+      </c>
+      <c r="AQ74">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75">
+        <v>38.4</v>
+      </c>
+      <c r="C75">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D75">
+        <v>39.1</v>
+      </c>
+      <c r="E75">
+        <v>35.5</v>
+      </c>
+      <c r="F75">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G75">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H75">
+        <v>33.6</v>
+      </c>
+      <c r="I75">
+        <v>21.9</v>
+      </c>
+      <c r="J75">
+        <v>12.4</v>
+      </c>
+      <c r="K75">
+        <v>29.7</v>
+      </c>
+      <c r="L75">
+        <v>29.9</v>
+      </c>
+      <c r="M75">
+        <v>30.1</v>
+      </c>
+      <c r="N75">
+        <v>22.7</v>
+      </c>
+      <c r="O75">
+        <v>22.7</v>
+      </c>
+      <c r="P75">
+        <v>44.4</v>
+      </c>
+      <c r="Q75">
+        <v>30.9</v>
+      </c>
+      <c r="R75">
+        <v>31.3</v>
+      </c>
+      <c r="S75">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="T75">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="U75">
+        <v>43.2</v>
+      </c>
+      <c r="V75">
+        <v>46</v>
+      </c>
+      <c r="W75">
+        <v>46.9</v>
+      </c>
+      <c r="X75">
+        <v>47.5</v>
+      </c>
+      <c r="Y75">
+        <v>50.3</v>
+      </c>
+      <c r="Z75">
+        <v>50.9</v>
+      </c>
+      <c r="AA75">
+        <v>51.5</v>
+      </c>
+      <c r="AB75">
+        <v>52</v>
+      </c>
+      <c r="AC75">
+        <v>52.9</v>
+      </c>
+      <c r="AD75">
+        <v>53.5</v>
+      </c>
+      <c r="AE75">
+        <v>53.9</v>
+      </c>
+      <c r="AF75">
+        <v>54.8</v>
+      </c>
+      <c r="AG75">
+        <v>54.9</v>
+      </c>
+      <c r="AH75">
+        <v>55.9</v>
+      </c>
+      <c r="AI75">
+        <v>55.8</v>
+      </c>
+      <c r="AJ75">
+        <v>55</v>
+      </c>
+      <c r="AK75">
+        <v>55.6</v>
+      </c>
+      <c r="AL75">
+        <v>55.5</v>
+      </c>
+      <c r="AM75">
+        <v>55.3</v>
+      </c>
+      <c r="AN75">
+        <v>55.9</v>
+      </c>
+      <c r="AO75">
+        <v>55.9</v>
+      </c>
+      <c r="AP75">
+        <v>55.5</v>
+      </c>
+      <c r="AQ75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76">
+        <v>68.7</v>
+      </c>
+      <c r="C76">
+        <v>69.2</v>
+      </c>
+      <c r="D76">
+        <v>69.7</v>
+      </c>
+      <c r="E76">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F76">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G76">
+        <v>71</v>
+      </c>
+      <c r="H76">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="I76">
+        <v>71.5</v>
+      </c>
+      <c r="J76">
+        <v>71.5</v>
+      </c>
+      <c r="K76">
+        <v>69.8</v>
+      </c>
+      <c r="L76">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="M76">
+        <v>71.8</v>
+      </c>
+      <c r="N76">
+        <v>72.5</v>
+      </c>
+      <c r="O76">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="P76">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="Q76">
+        <v>72.3</v>
+      </c>
+      <c r="R76">
+        <v>72.3</v>
+      </c>
+      <c r="S76">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="T76">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="U76">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="V76">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="W76">
+        <v>70.8</v>
+      </c>
+      <c r="X76">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="Y76">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="Z76">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AA76">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AB76">
+        <v>72</v>
+      </c>
+      <c r="AC76">
+        <v>72</v>
+      </c>
+      <c r="AD76">
+        <v>71.7</v>
+      </c>
+      <c r="AE76">
+        <v>69.2</v>
+      </c>
+      <c r="AF76">
+        <v>73.2</v>
+      </c>
+      <c r="AG76">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="AH76">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AI76">
+        <v>74.2</v>
+      </c>
+      <c r="AJ76">
+        <v>74.7</v>
+      </c>
+      <c r="AK76">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AL76">
+        <v>75.3</v>
+      </c>
+      <c r="AM76">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AN76">
+        <v>75.7</v>
+      </c>
+      <c r="AO76">
+        <v>76</v>
+      </c>
+      <c r="AP76">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AQ76">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77">
+        <v>75.7</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>76.3</v>
+      </c>
+      <c r="E77">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F77">
+        <v>76.8</v>
+      </c>
+      <c r="G77">
+        <v>76.7</v>
+      </c>
+      <c r="H77">
+        <v>77</v>
+      </c>
+      <c r="I77">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="J77">
+        <v>77</v>
+      </c>
+      <c r="K77">
+        <v>77.7</v>
+      </c>
+      <c r="L77">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="M77">
+        <v>77.7</v>
+      </c>
+      <c r="N77">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O77">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="P77">
+        <v>78.7</v>
+      </c>
+      <c r="Q77">
+        <v>78.8</v>
+      </c>
+      <c r="R77">
+        <v>79</v>
+      </c>
+      <c r="S77">
+        <v>79.3</v>
+      </c>
+      <c r="T77">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="U77">
+        <v>79.5</v>
+      </c>
+      <c r="V77">
+        <v>79.7</v>
+      </c>
+      <c r="W77">
+        <v>79.8</v>
+      </c>
+      <c r="X77">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="Y77">
+        <v>80.2</v>
+      </c>
+      <c r="Z77">
+        <v>80.5</v>
+      </c>
+      <c r="AA77">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AB77">
+        <v>80.8</v>
+      </c>
+      <c r="AC77">
+        <v>81</v>
+      </c>
+      <c r="AD77">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AE77">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AF77">
+        <v>81.5</v>
+      </c>
+      <c r="AG77">
+        <v>81.8</v>
+      </c>
+      <c r="AH77">
+        <v>81.7</v>
+      </c>
+      <c r="AI77">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AJ77">
+        <v>82.2</v>
+      </c>
+      <c r="AK77">
+        <v>82.2</v>
+      </c>
+      <c r="AL77">
+        <v>82.3</v>
+      </c>
+      <c r="AM77">
+        <v>82.4</v>
+      </c>
+      <c r="AN77">
+        <v>82.5</v>
+      </c>
+      <c r="AO77">
+        <v>83.1</v>
+      </c>
+      <c r="AP77">
+        <v>82.4</v>
+      </c>
+      <c r="AQ77">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78">
+        <v>72</v>
+      </c>
+      <c r="C78">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="D78">
+        <v>72.5</v>
+      </c>
+      <c r="E78">
+        <v>72.5</v>
+      </c>
+      <c r="F78">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G78">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H78">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="I78">
+        <v>73.7</v>
+      </c>
+      <c r="J78">
+        <v>73.5</v>
+      </c>
+      <c r="K78">
+        <v>73.7</v>
+      </c>
+      <c r="L78">
+        <v>74</v>
+      </c>
+      <c r="M78">
+        <v>74.3</v>
+      </c>
+      <c r="N78">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O78">
+        <v>74.7</v>
+      </c>
+      <c r="P78">
+        <v>74.8</v>
+      </c>
+      <c r="Q78">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="R78">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="S78">
+        <v>75.3</v>
+      </c>
+      <c r="T78">
+        <v>75.5</v>
+      </c>
+      <c r="U78">
+        <v>75.7</v>
+      </c>
+      <c r="V78">
+        <v>76.2</v>
+      </c>
+      <c r="W78">
+        <v>76.5</v>
+      </c>
+      <c r="X78">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Y78">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="Z78">
+        <v>77.2</v>
+      </c>
+      <c r="AA78">
+        <v>77.2</v>
+      </c>
+      <c r="AB78">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="AC78">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AD78">
+        <v>78.3</v>
+      </c>
+      <c r="AE78">
+        <v>78.8</v>
+      </c>
+      <c r="AF78">
+        <v>79.2</v>
+      </c>
+      <c r="AG78">
+        <v>79</v>
+      </c>
+      <c r="AH78">
+        <v>79.3</v>
+      </c>
+      <c r="AI78">
+        <v>79.7</v>
+      </c>
+      <c r="AJ78">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AK78">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="AL78">
+        <v>79.8</v>
+      </c>
+      <c r="AM78">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AN78">
+        <v>80.5</v>
+      </c>
+      <c r="AO78">
+        <v>80.7</v>
+      </c>
+      <c r="AP78">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AQ78">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79">
+        <v>42.9</v>
+      </c>
+      <c r="C79">
+        <v>43.1</v>
+      </c>
+      <c r="D79">
+        <v>43.2</v>
+      </c>
+      <c r="E79">
+        <v>43.5</v>
+      </c>
+      <c r="F79">
+        <v>43.8</v>
+      </c>
+      <c r="G79">
+        <v>45.4</v>
+      </c>
+      <c r="H79">
+        <v>45.3</v>
+      </c>
+      <c r="I79">
+        <v>46.6</v>
+      </c>
+      <c r="J79">
+        <v>46.7</v>
+      </c>
+      <c r="K79">
+        <v>46.5</v>
+      </c>
+      <c r="L79">
+        <v>46.4</v>
+      </c>
+      <c r="M79">
+        <v>46.3</v>
+      </c>
+      <c r="N79">
+        <v>46.4</v>
+      </c>
+      <c r="O79">
+        <v>46.2</v>
+      </c>
+      <c r="P79">
+        <v>46.4</v>
+      </c>
+      <c r="Q79">
+        <v>46.6</v>
+      </c>
+      <c r="R79">
+        <v>46.7</v>
+      </c>
+      <c r="S79">
+        <v>47</v>
+      </c>
+      <c r="T79">
+        <v>47.2</v>
+      </c>
+      <c r="U79">
+        <v>47.8</v>
+      </c>
+      <c r="V79">
+        <v>48.3</v>
+      </c>
+      <c r="W79">
+        <v>49</v>
+      </c>
+      <c r="X79">
+        <v>49.6</v>
+      </c>
+      <c r="Y79">
+        <v>50.4</v>
+      </c>
+      <c r="Z79">
+        <v>51.5</v>
+      </c>
+      <c r="AA79">
+        <v>53</v>
+      </c>
+      <c r="AB79">
+        <v>54.4</v>
+      </c>
+      <c r="AC79">
+        <v>55.2</v>
+      </c>
+      <c r="AD79">
+        <v>55.8</v>
+      </c>
+      <c r="AE79">
+        <v>56.5</v>
+      </c>
+      <c r="AF79">
+        <v>57.1</v>
+      </c>
+      <c r="AG79">
+        <v>58</v>
+      </c>
+      <c r="AH79">
+        <v>58.8</v>
+      </c>
+      <c r="AI79">
         <v>59.8</v>
       </c>
-      <c r="D37" s="3">
+      <c r="AJ79">
         <v>60.4</v>
       </c>
-      <c r="E37" s="3">
-        <v>60.9</v>
-      </c>
-      <c r="F37" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="G37" s="3">
-        <v>61.9</v>
-      </c>
-      <c r="H37" s="3">
-        <v>62.4</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="AK79">
+        <v>61.1</v>
+      </c>
+      <c r="AL79">
+        <v>61.6</v>
+      </c>
+      <c r="AM79">
+        <v>62.1</v>
+      </c>
+      <c r="AN79">
+        <v>62.7</v>
+      </c>
+      <c r="AO79">
+        <v>63</v>
+      </c>
+      <c r="AP79">
         <v>62.9</v>
       </c>
-      <c r="J37" s="4">
-        <v>63</v>
-      </c>
-      <c r="K37" s="3">
-        <v>63.3</v>
-      </c>
-      <c r="L37" s="3">
-        <v>63.3</v>
-      </c>
-      <c r="M37" s="3">
-        <v>63.4</v>
-      </c>
-      <c r="N37" s="3">
-        <v>63.3</v>
-      </c>
-      <c r="O37" s="3">
-        <v>63.3</v>
-      </c>
-      <c r="P37" s="4">
-        <v>63</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="R37" s="3">
-        <v>62.3</v>
-      </c>
-      <c r="S37" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="T37" s="3">
-        <v>60.8</v>
-      </c>
-      <c r="U37" s="4">
-        <v>60</v>
-      </c>
-      <c r="V37" s="3">
-        <v>59.2</v>
-      </c>
-      <c r="W37" s="3">
-        <v>58.5</v>
-      </c>
-      <c r="X37" s="3">
-        <v>57.3</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>55.7</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>54.3</v>
-      </c>
-      <c r="AA37" s="4">
-        <v>54</v>
-      </c>
-      <c r="AB37" s="4">
-        <v>54</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>54.3</v>
-      </c>
-      <c r="AD37" s="4">
-        <v>55</v>
-      </c>
-      <c r="AE37" s="4">
-        <v>56</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>57.4</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>58.9</v>
-      </c>
-      <c r="AH37" s="3">
+      <c r="AQ79">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80">
+        <v>68.5</v>
+      </c>
+      <c r="C80">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D80">
+        <v>69.7</v>
+      </c>
+      <c r="E80">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F80">
+        <v>70.5</v>
+      </c>
+      <c r="G80">
+        <v>70.7</v>
+      </c>
+      <c r="H80">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>71.5</v>
+      </c>
+      <c r="J80">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="K80">
+        <v>71.8</v>
+      </c>
+      <c r="L80">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="M80">
+        <v>72.2</v>
+      </c>
+      <c r="N80">
+        <v>72.3</v>
+      </c>
+      <c r="O80">
+        <v>72.5</v>
+      </c>
+      <c r="P80">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="Q80">
+        <v>72.7</v>
+      </c>
+      <c r="R80">
+        <v>72.8</v>
+      </c>
+      <c r="S80">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="T80">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="U80">
+        <v>73.7</v>
+      </c>
+      <c r="V80">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="W80">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="X80">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="Y80">
+        <v>76.2</v>
+      </c>
+      <c r="Z80">
+        <v>76.5</v>
+      </c>
+      <c r="AA80">
+        <v>76.7</v>
+      </c>
+      <c r="AB80">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AC80">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AD80">
+        <v>77.5</v>
+      </c>
+      <c r="AE80">
+        <v>78</v>
+      </c>
+      <c r="AF80">
+        <v>78.3</v>
+      </c>
+      <c r="AG80">
+        <v>78.5</v>
+      </c>
+      <c r="AH80">
+        <v>78.7</v>
+      </c>
+      <c r="AI80">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AJ80">
+        <v>79</v>
+      </c>
+      <c r="AK80">
+        <v>79.2</v>
+      </c>
+      <c r="AL80">
+        <v>79.3</v>
+      </c>
+      <c r="AM80">
+        <v>79.5</v>
+      </c>
+      <c r="AN80">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AO80">
+        <v>79.7</v>
+      </c>
+      <c r="AP80">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AQ80">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81">
+        <v>68.8</v>
+      </c>
+      <c r="C81">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D81">
+        <v>69.7</v>
+      </c>
+      <c r="E81">
+        <v>70.2</v>
+      </c>
+      <c r="F81">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G81">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="H81">
+        <v>71</v>
+      </c>
+      <c r="I81">
+        <v>71</v>
+      </c>
+      <c r="J81">
+        <v>71.3</v>
+      </c>
+      <c r="K81">
+        <v>71.3</v>
+      </c>
+      <c r="L81">
+        <v>71.5</v>
+      </c>
+      <c r="M81">
+        <v>71.8</v>
+      </c>
+      <c r="N81">
+        <v>71.8</v>
+      </c>
+      <c r="O81">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="P81">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="Q81">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="R81">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="S81">
+        <v>72.7</v>
+      </c>
+      <c r="T81">
+        <v>72.7</v>
+      </c>
+      <c r="U81">
+        <v>72.3</v>
+      </c>
+      <c r="V81">
+        <v>72.5</v>
+      </c>
+      <c r="W81">
+        <v>71.2</v>
+      </c>
+      <c r="X81">
+        <v>72.7</v>
+      </c>
+      <c r="Y81">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="Z81">
+        <v>72.5</v>
+      </c>
+      <c r="AA81">
+        <v>72.8</v>
+      </c>
+      <c r="AB81">
+        <v>72.7</v>
+      </c>
+      <c r="AC81">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AD81">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AE81">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AF81">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AG81">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AH81">
+        <v>73</v>
+      </c>
+      <c r="AI81">
+        <v>73.2</v>
+      </c>
+      <c r="AJ81">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AK81">
+        <v>73</v>
+      </c>
+      <c r="AL81">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AM81">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AN81">
+        <v>72</v>
+      </c>
+      <c r="AO81">
+        <v>72.2</v>
+      </c>
+      <c r="AP81">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AQ81">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82">
+        <v>66.2</v>
+      </c>
+      <c r="C82">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D82">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E82">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="F82">
+        <v>67.3</v>
+      </c>
+      <c r="G82">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H82">
+        <v>68</v>
+      </c>
+      <c r="I82">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="J82">
+        <v>68.5</v>
+      </c>
+      <c r="K82">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="L82">
+        <v>69.2</v>
+      </c>
+      <c r="M82">
+        <v>69.8</v>
+      </c>
+      <c r="N82">
+        <v>70</v>
+      </c>
+      <c r="O82">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="P82">
+        <v>70.8</v>
+      </c>
+      <c r="Q82">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="R82">
+        <v>71.5</v>
+      </c>
+      <c r="S82">
+        <v>71.8</v>
+      </c>
+      <c r="T82">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="U82">
+        <v>72.3</v>
+      </c>
+      <c r="V82">
+        <v>72.5</v>
+      </c>
+      <c r="W82">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="X82">
+        <v>72.8</v>
+      </c>
+      <c r="Y82">
+        <v>73</v>
+      </c>
+      <c r="Z82">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AA82">
+        <v>73.3</v>
+      </c>
+      <c r="AB82">
+        <v>73.3</v>
+      </c>
+      <c r="AC82">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="AD82">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="AE82">
+        <v>73.5</v>
+      </c>
+      <c r="AF82">
+        <v>73.5</v>
+      </c>
+      <c r="AG82">
+        <v>73.7</v>
+      </c>
+      <c r="AH82">
+        <v>73.7</v>
+      </c>
+      <c r="AI82">
+        <v>73.8</v>
+      </c>
+      <c r="AJ82">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AK82">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AL82">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AM82">
+        <v>74</v>
+      </c>
+      <c r="AN82">
+        <v>74</v>
+      </c>
+      <c r="AO82">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AP82">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AQ82">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83">
+        <v>58.7</v>
+      </c>
+      <c r="C83">
+        <v>59.3</v>
+      </c>
+      <c r="D83">
+        <v>59.9</v>
+      </c>
+      <c r="E83">
+        <v>60.2</v>
+      </c>
+      <c r="F83">
+        <v>61.1</v>
+      </c>
+      <c r="G83">
+        <v>61.6</v>
+      </c>
+      <c r="H83">
+        <v>62</v>
+      </c>
+      <c r="I83">
+        <v>61.8</v>
+      </c>
+      <c r="J83">
+        <v>61.3</v>
+      </c>
+      <c r="K83">
+        <v>60.4</v>
+      </c>
+      <c r="L83">
+        <v>59.4</v>
+      </c>
+      <c r="M83">
+        <v>58.1</v>
+      </c>
+      <c r="N83">
+        <v>56.4</v>
+      </c>
+      <c r="O83">
+        <v>54.4</v>
+      </c>
+      <c r="P83">
+        <v>52.6</v>
+      </c>
+      <c r="Q83">
+        <v>50.5</v>
+      </c>
+      <c r="R83">
+        <v>49</v>
+      </c>
+      <c r="S83">
+        <v>48</v>
+      </c>
+      <c r="T83">
+        <v>46.8</v>
+      </c>
+      <c r="U83">
+        <v>45.2</v>
+      </c>
+      <c r="V83">
+        <v>44.7</v>
+      </c>
+      <c r="W83">
+        <v>42</v>
+      </c>
+      <c r="X83">
+        <v>44.6</v>
+      </c>
+      <c r="Y83">
+        <v>43.4</v>
+      </c>
+      <c r="Z83">
+        <v>44.5</v>
+      </c>
+      <c r="AA83">
+        <v>44.8</v>
+      </c>
+      <c r="AB83">
+        <v>45.4</v>
+      </c>
+      <c r="AC83">
+        <v>45.6</v>
+      </c>
+      <c r="AD83">
+        <v>46.7</v>
+      </c>
+      <c r="AE83">
+        <v>48.1</v>
+      </c>
+      <c r="AF83">
+        <v>50.7</v>
+      </c>
+      <c r="AG83">
+        <v>53.3</v>
+      </c>
+      <c r="AH83">
+        <v>55.6</v>
+      </c>
+      <c r="AI83">
+        <v>57.5</v>
+      </c>
+      <c r="AJ83">
+        <v>58.8</v>
+      </c>
+      <c r="AK83">
+        <v>59.6</v>
+      </c>
+      <c r="AL83">
+        <v>60.3</v>
+      </c>
+      <c r="AM83">
         <v>60.7</v>
       </c>
-      <c r="AI37" s="3">
-        <v>61.8</v>
-      </c>
-      <c r="AJ37" s="3">
-        <v>62.5</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>63.4</v>
-      </c>
-      <c r="AL37" s="4">
-        <v>64</v>
-      </c>
-      <c r="AM37" s="3">
-        <v>64.7</v>
-      </c>
-      <c r="AN37" s="3">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AO37" s="3">
-        <v>65.7</v>
-      </c>
-      <c r="AP37" s="3">
-        <v>66.2</v>
-      </c>
-      <c r="AQ37" s="3">
-        <v>65.3</v>
+      <c r="AN83">
+        <v>61.4</v>
+      </c>
+      <c r="AO83">
+        <v>61.3</v>
+      </c>
+      <c r="AP83">
+        <v>61.1</v>
+      </c>
+      <c r="AQ83">
+        <v>59.3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AQ37">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:AQ1">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A1:AQ37">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>

--- a/data/cleanedData/lifeExpectancy.xlsx
+++ b/data/cleanedData/lifeExpectancy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\Downloads\DV\Swinburne-COS30045-Data-Vis-Project\data\cleanedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB0258-5B95-4E88-9E25-0157F818CA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC38FB0-263F-46F8-A21E-DF5FC5513DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Country</t>
   </si>
@@ -261,15 +261,6 @@
     <t>·  Russia</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
@@ -324,21 +312,12 @@
     <t>Iraq</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
     <t>Kenya</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -360,9 +339,6 @@
     <t>Paraguay</t>
   </si>
   <si>
-    <t>Qatar</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
@@ -375,28 +351,13 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
   </si>
   <si>
     <t>Zimbabwe</t>
@@ -805,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ83"/>
+  <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5529,266 +5490,266 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B37">
-        <v>39.6</v>
+        <v>66.2</v>
       </c>
       <c r="C37">
-        <v>40.200000000000003</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="D37">
-        <v>37.799999999999997</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="E37">
-        <v>38.200000000000003</v>
+        <v>67.2</v>
       </c>
       <c r="F37">
-        <v>33.299999999999997</v>
+        <v>67.5</v>
       </c>
       <c r="G37">
-        <v>33.6</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="H37">
-        <v>39.4</v>
+        <v>68.2</v>
       </c>
       <c r="I37">
-        <v>39.799999999999997</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="J37">
-        <v>44</v>
+        <v>53.9</v>
       </c>
       <c r="K37">
-        <v>45.2</v>
+        <v>68.7</v>
       </c>
       <c r="L37">
-        <v>46</v>
+        <v>68.8</v>
       </c>
       <c r="M37">
-        <v>46.7</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="N37">
-        <v>47.6</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="O37">
-        <v>51.5</v>
+        <v>68.8</v>
       </c>
       <c r="P37">
-        <v>51.5</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="Q37">
-        <v>52.5</v>
+        <v>69.3</v>
       </c>
       <c r="R37">
-        <v>53.2</v>
+        <v>69.8</v>
       </c>
       <c r="S37">
-        <v>53.6</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="T37">
-        <v>52.9</v>
+        <v>70.5</v>
       </c>
       <c r="U37">
-        <v>54.8</v>
+        <v>70.3</v>
       </c>
       <c r="V37">
-        <v>55.3</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="W37">
-        <v>55.8</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="X37">
-        <v>56.5</v>
+        <v>71</v>
       </c>
       <c r="Y37">
-        <v>57.3</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="Z37">
-        <v>57.9</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AA37">
-        <v>58.4</v>
+        <v>71.8</v>
       </c>
       <c r="AB37">
-        <v>58.7</v>
+        <v>72</v>
       </c>
       <c r="AC37">
-        <v>59.1</v>
+        <v>72.3</v>
       </c>
       <c r="AD37">
-        <v>59.9</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AE37">
-        <v>60.4</v>
+        <v>72.8</v>
       </c>
       <c r="AF37">
-        <v>60.9</v>
+        <v>73.2</v>
       </c>
       <c r="AG37">
-        <v>61.4</v>
+        <v>73.3</v>
       </c>
       <c r="AH37">
-        <v>61.9</v>
+        <v>73.5</v>
       </c>
       <c r="AI37">
-        <v>62.4</v>
+        <v>73.7</v>
       </c>
       <c r="AJ37">
-        <v>62.5</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="AK37">
-        <v>62.7</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AL37">
-        <v>63.1</v>
+        <v>74.7</v>
       </c>
       <c r="AM37">
-        <v>63</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="AN37">
-        <v>63.1</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AO37">
-        <v>63.6</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="AP37">
-        <v>62.6</v>
+        <v>72.2</v>
       </c>
       <c r="AQ37">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B38">
-        <v>68.900000000000006</v>
+        <v>51.8</v>
       </c>
       <c r="C38">
-        <v>69.2</v>
+        <v>52.2</v>
       </c>
       <c r="D38">
-        <v>69.3</v>
+        <v>52.5</v>
       </c>
       <c r="E38">
-        <v>69.5</v>
+        <v>53</v>
       </c>
       <c r="F38">
-        <v>69.7</v>
+        <v>53.5</v>
       </c>
       <c r="G38">
+        <v>53.9</v>
+      </c>
+      <c r="H38">
+        <v>54.4</v>
+      </c>
+      <c r="I38">
+        <v>54.9</v>
+      </c>
+      <c r="J38">
+        <v>55</v>
+      </c>
+      <c r="K38">
+        <v>55.1</v>
+      </c>
+      <c r="L38">
+        <v>56</v>
+      </c>
+      <c r="M38">
+        <v>54.2</v>
+      </c>
+      <c r="N38">
+        <v>57.6</v>
+      </c>
+      <c r="O38">
+        <v>57.9</v>
+      </c>
+      <c r="P38">
+        <v>58.6</v>
+      </c>
+      <c r="Q38">
+        <v>59.5</v>
+      </c>
+      <c r="R38">
+        <v>59.5</v>
+      </c>
+      <c r="S38">
+        <v>61.4</v>
+      </c>
+      <c r="T38">
+        <v>63.9</v>
+      </c>
+      <c r="U38">
+        <v>66.2</v>
+      </c>
+      <c r="V38">
+        <v>65.8</v>
+      </c>
+      <c r="W38">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="X38">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="Y38">
+        <v>66.8</v>
+      </c>
+      <c r="Z38">
+        <v>67.2</v>
+      </c>
+      <c r="AA38">
+        <v>67.3</v>
+      </c>
+      <c r="AB38">
+        <v>67.2</v>
+      </c>
+      <c r="AC38">
+        <v>66.7</v>
+      </c>
+      <c r="AD38">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AE38">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AF38">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AG38">
+        <v>68.8</v>
+      </c>
+      <c r="AH38">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AI38">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AJ38">
         <v>70</v>
       </c>
-      <c r="H38">
-        <v>70.2</v>
-      </c>
-      <c r="I38">
-        <v>70.8</v>
-      </c>
-      <c r="J38">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="K38">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="L38">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="M38">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="N38">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="O38">
-        <v>70.8</v>
-      </c>
-      <c r="P38">
-        <v>70.8</v>
-      </c>
-      <c r="Q38">
+      <c r="AK38">
+        <v>70.5</v>
+      </c>
+      <c r="AL38">
         <v>71.099999999999994</v>
       </c>
-      <c r="R38">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="S38">
-        <v>71.3</v>
-      </c>
-      <c r="T38">
-        <v>71.3</v>
-      </c>
-      <c r="U38">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="V38">
-        <v>71</v>
-      </c>
-      <c r="W38">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="X38">
-        <v>71.3</v>
-      </c>
-      <c r="Y38">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="Z38">
+      <c r="AM38">
+        <v>71.8</v>
+      </c>
+      <c r="AN38">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AO38">
+        <v>72.8</v>
+      </c>
+      <c r="AP38">
         <v>72</v>
       </c>
-      <c r="AA38">
-        <v>72.3</v>
-      </c>
-      <c r="AB38">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AC38">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AD38">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AE38">
-        <v>70.5</v>
-      </c>
-      <c r="AF38">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AG38">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AH38">
-        <v>72.3</v>
-      </c>
-      <c r="AI38">
-        <v>72.3</v>
-      </c>
-      <c r="AJ38">
-        <v>72.3</v>
-      </c>
-      <c r="AK38">
-        <v>72.5</v>
-      </c>
-      <c r="AL38">
+      <c r="AQ38">
         <v>72.400000000000006</v>
-      </c>
-      <c r="AM38">
-        <v>72.5</v>
-      </c>
-      <c r="AN38">
-        <v>72.5</v>
-      </c>
-      <c r="AO38">
-        <v>72.3</v>
-      </c>
-      <c r="AP38">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AQ38">
-        <v>72.5</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -5796,130 +5757,130 @@
         <v>80</v>
       </c>
       <c r="B39">
-        <v>76.8</v>
+        <v>48.2</v>
       </c>
       <c r="C39">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>77.5</v>
+        <v>49.9</v>
       </c>
       <c r="E39">
-        <v>77.3</v>
+        <v>50.6</v>
       </c>
       <c r="F39">
-        <v>77.599999999999994</v>
+        <v>51.4</v>
       </c>
       <c r="G39">
-        <v>77.5</v>
+        <v>52.1</v>
       </c>
       <c r="H39">
-        <v>77.7</v>
+        <v>52.9</v>
       </c>
       <c r="I39">
-        <v>77.8</v>
+        <v>53.7</v>
       </c>
       <c r="J39">
-        <v>77.8</v>
+        <v>54.5</v>
       </c>
       <c r="K39">
-        <v>77.8</v>
+        <v>55.3</v>
       </c>
       <c r="L39">
-        <v>78.400000000000006</v>
+        <v>56</v>
       </c>
       <c r="M39">
-        <v>78</v>
+        <v>56.6</v>
       </c>
       <c r="N39">
-        <v>80.3</v>
+        <v>57.4</v>
       </c>
       <c r="O39">
-        <v>78.7</v>
+        <v>58.1</v>
       </c>
       <c r="P39">
-        <v>82.6</v>
+        <v>58.6</v>
       </c>
       <c r="Q39">
-        <v>79</v>
+        <v>59.5</v>
       </c>
       <c r="R39">
-        <v>80.3</v>
+        <v>60.2</v>
       </c>
       <c r="S39">
-        <v>80.900000000000006</v>
+        <v>60.9</v>
       </c>
       <c r="T39">
-        <v>79.400000000000006</v>
+        <v>61.5</v>
       </c>
       <c r="U39">
-        <v>81.3</v>
+        <v>62.2</v>
       </c>
       <c r="V39">
-        <v>80.900000000000006</v>
+        <v>62</v>
       </c>
       <c r="W39">
-        <v>81.7</v>
+        <v>63.4</v>
       </c>
       <c r="X39">
-        <v>82.2</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="Y39">
-        <v>83.9</v>
+        <v>64.7</v>
       </c>
       <c r="Z39">
-        <v>80.099999999999994</v>
+        <v>65.3</v>
       </c>
       <c r="AA39">
-        <v>81.8</v>
+        <v>65.8</v>
       </c>
       <c r="AB39">
-        <v>83</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="AC39">
-        <v>82.7</v>
+        <v>67</v>
       </c>
       <c r="AD39">
-        <v>82.7</v>
+        <v>67.5</v>
       </c>
       <c r="AE39">
-        <v>82.8</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="AF39">
-        <v>82.8</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="AG39">
-        <v>82.9</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="AH39">
-        <v>82.9</v>
+        <v>69.3</v>
       </c>
       <c r="AI39">
-        <v>82.9</v>
+        <v>69.7</v>
       </c>
       <c r="AJ39">
-        <v>82.9</v>
+        <v>70</v>
       </c>
       <c r="AK39">
-        <v>83</v>
+        <v>70.3</v>
       </c>
       <c r="AL39">
-        <v>83</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="AM39">
-        <v>83</v>
+        <v>70.8</v>
       </c>
       <c r="AN39">
-        <v>83</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="AO39">
-        <v>83</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AP39">
-        <v>79</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="AQ39">
-        <v>80.400000000000006</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -5927,130 +5888,130 @@
         <v>81</v>
       </c>
       <c r="B40">
+        <v>51.2</v>
+      </c>
+      <c r="C40">
+        <v>51.6</v>
+      </c>
+      <c r="D40">
+        <v>52.1</v>
+      </c>
+      <c r="E40">
+        <v>52.4</v>
+      </c>
+      <c r="F40">
+        <v>53</v>
+      </c>
+      <c r="G40">
+        <v>53.4</v>
+      </c>
+      <c r="H40">
+        <v>53.9</v>
+      </c>
+      <c r="I40">
+        <v>54.5</v>
+      </c>
+      <c r="J40">
+        <v>55.2</v>
+      </c>
+      <c r="K40">
+        <v>55.8</v>
+      </c>
+      <c r="L40">
+        <v>56.4</v>
+      </c>
+      <c r="M40">
+        <v>57.1</v>
+      </c>
+      <c r="N40">
+        <v>57.6</v>
+      </c>
+      <c r="O40">
+        <v>58.4</v>
+      </c>
+      <c r="P40">
+        <v>59</v>
+      </c>
+      <c r="Q40">
+        <v>59.5</v>
+      </c>
+      <c r="R40">
+        <v>60.1</v>
+      </c>
+      <c r="S40">
+        <v>60.8</v>
+      </c>
+      <c r="T40">
+        <v>61.3</v>
+      </c>
+      <c r="U40">
+        <v>61.9</v>
+      </c>
+      <c r="V40">
+        <v>62.3</v>
+      </c>
+      <c r="W40">
+        <v>62.8</v>
+      </c>
+      <c r="X40">
+        <v>63.3</v>
+      </c>
+      <c r="Y40">
+        <v>63.6</v>
+      </c>
+      <c r="Z40">
+        <v>64</v>
+      </c>
+      <c r="AA40">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AB40">
+        <v>64.8</v>
+      </c>
+      <c r="AC40">
+        <v>65</v>
+      </c>
+      <c r="AD40">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AE40">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AF40">
         <v>66.2</v>
       </c>
-      <c r="C40">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="D40">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E40">
+      <c r="AG40">
+        <v>66.5</v>
+      </c>
+      <c r="AH40">
+        <v>66.7</v>
+      </c>
+      <c r="AI40">
+        <v>67</v>
+      </c>
+      <c r="AJ40">
         <v>67.2</v>
       </c>
-      <c r="F40">
-        <v>67.5</v>
-      </c>
-      <c r="G40">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H40">
-        <v>68.2</v>
-      </c>
-      <c r="I40">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="J40">
-        <v>53.9</v>
-      </c>
-      <c r="K40">
-        <v>68.7</v>
-      </c>
-      <c r="L40">
-        <v>68.8</v>
-      </c>
-      <c r="M40">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="N40">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="O40">
-        <v>68.8</v>
-      </c>
-      <c r="P40">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="Q40">
-        <v>69.3</v>
-      </c>
-      <c r="R40">
-        <v>69.8</v>
-      </c>
-      <c r="S40">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="T40">
-        <v>70.5</v>
-      </c>
-      <c r="U40">
-        <v>70.3</v>
-      </c>
-      <c r="V40">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="W40">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="X40">
-        <v>71</v>
-      </c>
-      <c r="Y40">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="Z40">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="AA40">
-        <v>71.8</v>
-      </c>
-      <c r="AB40">
-        <v>72</v>
-      </c>
-      <c r="AC40">
-        <v>72.3</v>
-      </c>
-      <c r="AD40">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AE40">
-        <v>72.8</v>
-      </c>
-      <c r="AF40">
-        <v>73.2</v>
-      </c>
-      <c r="AG40">
-        <v>73.3</v>
-      </c>
-      <c r="AH40">
-        <v>73.5</v>
-      </c>
-      <c r="AI40">
-        <v>73.7</v>
-      </c>
-      <c r="AJ40">
-        <v>74.099999999999994</v>
-      </c>
       <c r="AK40">
-        <v>74.400000000000006</v>
+        <v>67.3</v>
       </c>
       <c r="AL40">
-        <v>74.7</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="AM40">
-        <v>74.900000000000006</v>
+        <v>67.7</v>
       </c>
       <c r="AN40">
-        <v>75.099999999999994</v>
+        <v>67.7</v>
       </c>
       <c r="AO40">
-        <v>75.400000000000006</v>
+        <v>67.8</v>
       </c>
       <c r="AP40">
-        <v>72.2</v>
+        <v>64.5</v>
       </c>
       <c r="AQ40">
-        <v>72</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6058,130 +6019,130 @@
         <v>82</v>
       </c>
       <c r="B41">
-        <v>51.8</v>
+        <v>60.6</v>
       </c>
       <c r="C41">
-        <v>52.2</v>
+        <v>61.1</v>
       </c>
       <c r="D41">
+        <v>61.6</v>
+      </c>
+      <c r="E41">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>62.4</v>
+      </c>
+      <c r="G41">
+        <v>62.6</v>
+      </c>
+      <c r="H41">
+        <v>62.7</v>
+      </c>
+      <c r="I41">
+        <v>62.5</v>
+      </c>
+      <c r="J41">
+        <v>61.8</v>
+      </c>
+      <c r="K41">
+        <v>61.4</v>
+      </c>
+      <c r="L41">
+        <v>60.5</v>
+      </c>
+      <c r="M41">
+        <v>59.5</v>
+      </c>
+      <c r="N41">
+        <v>58.3</v>
+      </c>
+      <c r="O41">
+        <v>57.7</v>
+      </c>
+      <c r="P41">
+        <v>56.2</v>
+      </c>
+      <c r="Q41">
+        <v>55.1</v>
+      </c>
+      <c r="R41">
+        <v>54.4</v>
+      </c>
+      <c r="S41">
+        <v>53.4</v>
+      </c>
+      <c r="T41">
         <v>52.5</v>
       </c>
-      <c r="E41">
-        <v>53</v>
-      </c>
-      <c r="F41">
-        <v>53.5</v>
-      </c>
-      <c r="G41">
+      <c r="U41">
+        <v>51.7</v>
+      </c>
+      <c r="V41">
+        <v>51</v>
+      </c>
+      <c r="W41">
+        <v>50.7</v>
+      </c>
+      <c r="X41">
+        <v>50.6</v>
+      </c>
+      <c r="Y41">
+        <v>50.9</v>
+      </c>
+      <c r="Z41">
+        <v>51.6</v>
+      </c>
+      <c r="AA41">
+        <v>52.6</v>
+      </c>
+      <c r="AB41">
         <v>53.9</v>
       </c>
-      <c r="H41">
-        <v>54.4</v>
-      </c>
-      <c r="I41">
-        <v>54.9</v>
-      </c>
-      <c r="J41">
-        <v>55</v>
-      </c>
-      <c r="K41">
-        <v>55.1</v>
-      </c>
-      <c r="L41">
-        <v>56</v>
-      </c>
-      <c r="M41">
-        <v>54.2</v>
-      </c>
-      <c r="N41">
-        <v>57.6</v>
-      </c>
-      <c r="O41">
-        <v>57.9</v>
-      </c>
-      <c r="P41">
-        <v>58.6</v>
-      </c>
-      <c r="Q41">
-        <v>59.5</v>
-      </c>
-      <c r="R41">
-        <v>59.5</v>
-      </c>
-      <c r="S41">
-        <v>61.4</v>
-      </c>
-      <c r="T41">
-        <v>63.9</v>
-      </c>
-      <c r="U41">
-        <v>66.2</v>
-      </c>
-      <c r="V41">
-        <v>65.8</v>
-      </c>
-      <c r="W41">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="X41">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="Y41">
+      <c r="AC41">
+        <v>55.7</v>
+      </c>
+      <c r="AD41">
+        <v>57.1</v>
+      </c>
+      <c r="AE41">
+        <v>58.3</v>
+      </c>
+      <c r="AF41">
+        <v>60</v>
+      </c>
+      <c r="AG41">
+        <v>60.5</v>
+      </c>
+      <c r="AH41">
+        <v>60.8</v>
+      </c>
+      <c r="AI41">
+        <v>62</v>
+      </c>
+      <c r="AJ41">
+        <v>62.6</v>
+      </c>
+      <c r="AK41">
+        <v>63.8</v>
+      </c>
+      <c r="AL41">
+        <v>65.5</v>
+      </c>
+      <c r="AM41">
         <v>66.8</v>
       </c>
-      <c r="Z41">
-        <v>67.2</v>
-      </c>
-      <c r="AA41">
-        <v>67.3</v>
-      </c>
-      <c r="AB41">
-        <v>67.2</v>
-      </c>
-      <c r="AC41">
-        <v>66.7</v>
-      </c>
-      <c r="AD41">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="AE41">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="AF41">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="AG41">
-        <v>68.8</v>
-      </c>
-      <c r="AH41">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="AI41">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="AJ41">
-        <v>70</v>
-      </c>
-      <c r="AK41">
-        <v>70.5</v>
-      </c>
-      <c r="AL41">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="AM41">
-        <v>71.8</v>
-      </c>
       <c r="AN41">
-        <v>72.599999999999994</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="AO41">
-        <v>72.8</v>
+        <v>65.5</v>
       </c>
       <c r="AP41">
-        <v>72</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="AQ41">
-        <v>72.400000000000006</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6189,130 +6150,130 @@
         <v>83</v>
       </c>
       <c r="B42">
-        <v>48.2</v>
+        <v>61.8</v>
       </c>
       <c r="C42">
-        <v>49</v>
+        <v>62.3</v>
       </c>
       <c r="D42">
-        <v>49.9</v>
+        <v>62.9</v>
       </c>
       <c r="E42">
-        <v>50.6</v>
+        <v>63.3</v>
       </c>
       <c r="F42">
-        <v>51.4</v>
+        <v>63.8</v>
       </c>
       <c r="G42">
-        <v>52.1</v>
+        <v>64.2</v>
       </c>
       <c r="H42">
-        <v>52.9</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="I42">
-        <v>53.7</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="J42">
-        <v>54.5</v>
+        <v>65.5</v>
       </c>
       <c r="K42">
-        <v>55.3</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="L42">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M42">
-        <v>56.6</v>
+        <v>66.3</v>
       </c>
       <c r="N42">
-        <v>57.4</v>
+        <v>66.7</v>
       </c>
       <c r="O42">
-        <v>58.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="P42">
-        <v>58.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="Q42">
-        <v>59.5</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="R42">
-        <v>60.2</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="S42">
-        <v>60.9</v>
+        <v>68.8</v>
       </c>
       <c r="T42">
-        <v>61.5</v>
+        <v>69.2</v>
       </c>
       <c r="U42">
-        <v>62.2</v>
+        <v>69.5</v>
       </c>
       <c r="V42">
-        <v>62</v>
+        <v>69.7</v>
       </c>
       <c r="W42">
-        <v>63.4</v>
+        <v>70.2</v>
       </c>
       <c r="X42">
-        <v>64.099999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="Y42">
-        <v>64.7</v>
+        <v>70.7</v>
       </c>
       <c r="Z42">
-        <v>65.3</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="AA42">
-        <v>65.8</v>
+        <v>71.8</v>
       </c>
       <c r="AB42">
-        <v>66.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="AC42">
-        <v>67</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AD42">
-        <v>67.5</v>
+        <v>72.7</v>
       </c>
       <c r="AE42">
-        <v>67.900000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="AF42">
-        <v>68.400000000000006</v>
+        <v>73.2</v>
       </c>
       <c r="AG42">
-        <v>68.900000000000006</v>
+        <v>73.3</v>
       </c>
       <c r="AH42">
-        <v>69.3</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AI42">
-        <v>69.7</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="AJ42">
-        <v>70</v>
+        <v>74.3</v>
       </c>
       <c r="AK42">
-        <v>70.3</v>
+        <v>74.3</v>
       </c>
       <c r="AL42">
-        <v>70.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AM42">
-        <v>70.8</v>
+        <v>74.8</v>
       </c>
       <c r="AN42">
-        <v>71.099999999999994</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AO42">
-        <v>71.400000000000006</v>
+        <v>75.3</v>
       </c>
       <c r="AP42">
-        <v>71.599999999999994</v>
+        <v>74</v>
       </c>
       <c r="AQ42">
-        <v>71.8</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6320,130 +6281,130 @@
         <v>84</v>
       </c>
       <c r="B43">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="C43">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="D43">
         <v>52.1</v>
       </c>
       <c r="E43">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="F43">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="G43">
+        <v>53.9</v>
+      </c>
+      <c r="H43">
+        <v>54</v>
+      </c>
+      <c r="I43">
+        <v>54.7</v>
+      </c>
+      <c r="J43">
+        <v>54.9</v>
+      </c>
+      <c r="K43">
+        <v>54.9</v>
+      </c>
+      <c r="L43">
+        <v>54.9</v>
+      </c>
+      <c r="M43">
+        <v>54.7</v>
+      </c>
+      <c r="N43">
+        <v>54.5</v>
+      </c>
+      <c r="O43">
+        <v>54.1</v>
+      </c>
+      <c r="P43">
+        <v>53.5</v>
+      </c>
+      <c r="Q43">
+        <v>53.2</v>
+      </c>
+      <c r="R43">
+        <v>52.8</v>
+      </c>
+      <c r="S43">
+        <v>52.7</v>
+      </c>
+      <c r="T43">
+        <v>52.6</v>
+      </c>
+      <c r="U43">
+        <v>52.7</v>
+      </c>
+      <c r="V43">
+        <v>52.9</v>
+      </c>
+      <c r="W43">
+        <v>53.1</v>
+      </c>
+      <c r="X43">
         <v>53.4</v>
       </c>
-      <c r="H43">
+      <c r="Y43">
         <v>53.9</v>
       </c>
-      <c r="I43">
-        <v>54.5</v>
-      </c>
-      <c r="J43">
+      <c r="Z43">
+        <v>54.2</v>
+      </c>
+      <c r="AA43">
+        <v>54.4</v>
+      </c>
+      <c r="AB43">
+        <v>54.9</v>
+      </c>
+      <c r="AC43">
         <v>55.2</v>
       </c>
-      <c r="K43">
-        <v>55.8</v>
-      </c>
-      <c r="L43">
-        <v>56.4</v>
-      </c>
-      <c r="M43">
+      <c r="AD43">
+        <v>55.7</v>
+      </c>
+      <c r="AE43">
+        <v>56.1</v>
+      </c>
+      <c r="AF43">
+        <v>56.6</v>
+      </c>
+      <c r="AG43">
         <v>57.1</v>
       </c>
-      <c r="N43">
-        <v>57.6</v>
-      </c>
-      <c r="O43">
-        <v>58.4</v>
-      </c>
-      <c r="P43">
-        <v>59</v>
-      </c>
-      <c r="Q43">
-        <v>59.5</v>
-      </c>
-      <c r="R43">
-        <v>60.1</v>
-      </c>
-      <c r="S43">
+      <c r="AH43">
+        <v>57.8</v>
+      </c>
+      <c r="AI43">
+        <v>58.5</v>
+      </c>
+      <c r="AJ43">
+        <v>58.9</v>
+      </c>
+      <c r="AK43">
+        <v>59.7</v>
+      </c>
+      <c r="AL43">
+        <v>60.2</v>
+      </c>
+      <c r="AM43">
         <v>60.8</v>
       </c>
-      <c r="T43">
-        <v>61.3</v>
-      </c>
-      <c r="U43">
-        <v>61.9</v>
-      </c>
-      <c r="V43">
-        <v>62.3</v>
-      </c>
-      <c r="W43">
-        <v>62.8</v>
-      </c>
-      <c r="X43">
-        <v>63.3</v>
-      </c>
-      <c r="Y43">
-        <v>63.6</v>
-      </c>
-      <c r="Z43">
-        <v>64</v>
-      </c>
-      <c r="AA43">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AB43">
-        <v>64.8</v>
-      </c>
-      <c r="AC43">
-        <v>65</v>
-      </c>
-      <c r="AD43">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AE43">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="AF43">
-        <v>66.2</v>
-      </c>
-      <c r="AG43">
-        <v>66.5</v>
-      </c>
-      <c r="AH43">
-        <v>66.7</v>
-      </c>
-      <c r="AI43">
-        <v>67</v>
-      </c>
-      <c r="AJ43">
-        <v>67.2</v>
-      </c>
-      <c r="AK43">
-        <v>67.3</v>
-      </c>
-      <c r="AL43">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="AM43">
-        <v>67.7</v>
-      </c>
       <c r="AN43">
-        <v>67.7</v>
+        <v>61.2</v>
       </c>
       <c r="AO43">
-        <v>67.8</v>
+        <v>61.6</v>
       </c>
       <c r="AP43">
-        <v>64.5</v>
+        <v>60.8</v>
       </c>
       <c r="AQ43">
-        <v>63.6</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6451,130 +6412,130 @@
         <v>85</v>
       </c>
       <c r="B44">
-        <v>60.6</v>
+        <v>49.9</v>
       </c>
       <c r="C44">
-        <v>61.1</v>
+        <v>50.2</v>
       </c>
       <c r="D44">
-        <v>61.6</v>
+        <v>50.3</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>50.4</v>
       </c>
       <c r="F44">
-        <v>62.4</v>
+        <v>50.5</v>
       </c>
       <c r="G44">
-        <v>62.6</v>
+        <v>50.5</v>
       </c>
       <c r="H44">
-        <v>62.7</v>
+        <v>50.5</v>
       </c>
       <c r="I44">
-        <v>62.5</v>
+        <v>50.4</v>
       </c>
       <c r="J44">
-        <v>61.8</v>
+        <v>50.2</v>
       </c>
       <c r="K44">
-        <v>61.4</v>
+        <v>50</v>
       </c>
       <c r="L44">
-        <v>60.5</v>
+        <v>49.6</v>
       </c>
       <c r="M44">
-        <v>59.5</v>
+        <v>49.3</v>
       </c>
       <c r="N44">
-        <v>58.3</v>
+        <v>48.8</v>
       </c>
       <c r="O44">
-        <v>57.7</v>
+        <v>48.4</v>
       </c>
       <c r="P44">
-        <v>56.2</v>
+        <v>47.9</v>
       </c>
       <c r="Q44">
-        <v>55.1</v>
+        <v>47.4</v>
       </c>
       <c r="R44">
+        <v>46.8</v>
+      </c>
+      <c r="S44">
+        <v>46.3</v>
+      </c>
+      <c r="T44">
+        <v>46</v>
+      </c>
+      <c r="U44">
+        <v>45.8</v>
+      </c>
+      <c r="V44">
+        <v>45.4</v>
+      </c>
+      <c r="W44">
+        <v>45.4</v>
+      </c>
+      <c r="X44">
+        <v>45.4</v>
+      </c>
+      <c r="Y44">
+        <v>45.8</v>
+      </c>
+      <c r="Z44">
+        <v>46</v>
+      </c>
+      <c r="AA44">
+        <v>46.4</v>
+      </c>
+      <c r="AB44">
+        <v>46.9</v>
+      </c>
+      <c r="AC44">
+        <v>47.4</v>
+      </c>
+      <c r="AD44">
+        <v>48</v>
+      </c>
+      <c r="AE44">
+        <v>48.6</v>
+      </c>
+      <c r="AF44">
+        <v>49.3</v>
+      </c>
+      <c r="AG44">
+        <v>49.9</v>
+      </c>
+      <c r="AH44">
+        <v>50.7</v>
+      </c>
+      <c r="AI44">
+        <v>50.9</v>
+      </c>
+      <c r="AJ44">
+        <v>50.6</v>
+      </c>
+      <c r="AK44">
+        <v>52.8</v>
+      </c>
+      <c r="AL44">
+        <v>53.5</v>
+      </c>
+      <c r="AM44">
+        <v>53.7</v>
+      </c>
+      <c r="AN44">
         <v>54.4</v>
       </c>
-      <c r="S44">
-        <v>53.4</v>
-      </c>
-      <c r="T44">
-        <v>52.5</v>
-      </c>
-      <c r="U44">
-        <v>51.7</v>
-      </c>
-      <c r="V44">
-        <v>51</v>
-      </c>
-      <c r="W44">
-        <v>50.7</v>
-      </c>
-      <c r="X44">
-        <v>50.6</v>
-      </c>
-      <c r="Y44">
-        <v>50.9</v>
-      </c>
-      <c r="Z44">
-        <v>51.6</v>
-      </c>
-      <c r="AA44">
-        <v>52.6</v>
-      </c>
-      <c r="AB44">
+      <c r="AO44">
+        <v>55</v>
+      </c>
+      <c r="AP44">
+        <v>54.6</v>
+      </c>
+      <c r="AQ44">
         <v>53.9</v>
-      </c>
-      <c r="AC44">
-        <v>55.7</v>
-      </c>
-      <c r="AD44">
-        <v>57.1</v>
-      </c>
-      <c r="AE44">
-        <v>58.3</v>
-      </c>
-      <c r="AF44">
-        <v>60</v>
-      </c>
-      <c r="AG44">
-        <v>60.5</v>
-      </c>
-      <c r="AH44">
-        <v>60.8</v>
-      </c>
-      <c r="AI44">
-        <v>62</v>
-      </c>
-      <c r="AJ44">
-        <v>62.6</v>
-      </c>
-      <c r="AK44">
-        <v>63.8</v>
-      </c>
-      <c r="AL44">
-        <v>65.5</v>
-      </c>
-      <c r="AM44">
-        <v>66.8</v>
-      </c>
-      <c r="AN44">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AO44">
-        <v>65.5</v>
-      </c>
-      <c r="AP44">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="AQ44">
-        <v>61.1</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6582,130 +6543,130 @@
         <v>86</v>
       </c>
       <c r="B45">
-        <v>61.8</v>
+        <v>43.1</v>
       </c>
       <c r="C45">
-        <v>62.3</v>
+        <v>43.3</v>
       </c>
       <c r="D45">
-        <v>62.9</v>
+        <v>43.7</v>
       </c>
       <c r="E45">
-        <v>63.3</v>
+        <v>44.2</v>
       </c>
       <c r="F45">
-        <v>63.8</v>
+        <v>44.5</v>
       </c>
       <c r="G45">
-        <v>64.2</v>
+        <v>45</v>
       </c>
       <c r="H45">
-        <v>64.599999999999994</v>
+        <v>45.2</v>
       </c>
       <c r="I45">
-        <v>65.099999999999994</v>
+        <v>42.8</v>
       </c>
       <c r="J45">
-        <v>65.5</v>
+        <v>45.8</v>
       </c>
       <c r="K45">
-        <v>65.900000000000006</v>
+        <v>45.9</v>
       </c>
       <c r="L45">
-        <v>66</v>
+        <v>44.7</v>
       </c>
       <c r="M45">
-        <v>66.3</v>
+        <v>45.9</v>
       </c>
       <c r="N45">
-        <v>66.7</v>
+        <v>46.1</v>
       </c>
       <c r="O45">
-        <v>67.099999999999994</v>
+        <v>46.3</v>
       </c>
       <c r="P45">
-        <v>67.599999999999994</v>
+        <v>46.4</v>
       </c>
       <c r="Q45">
-        <v>67.900000000000006</v>
+        <v>46.7</v>
       </c>
       <c r="R45">
-        <v>68.400000000000006</v>
+        <v>47</v>
       </c>
       <c r="S45">
-        <v>68.8</v>
+        <v>47.2</v>
       </c>
       <c r="T45">
-        <v>69.2</v>
+        <v>47.2</v>
       </c>
       <c r="U45">
-        <v>69.5</v>
+        <v>47.4</v>
       </c>
       <c r="V45">
-        <v>69.7</v>
+        <v>47.4</v>
       </c>
       <c r="W45">
-        <v>70.2</v>
+        <v>47.8</v>
       </c>
       <c r="X45">
-        <v>70.400000000000006</v>
+        <v>47.9</v>
       </c>
       <c r="Y45">
-        <v>70.7</v>
+        <v>48.2</v>
       </c>
       <c r="Z45">
-        <v>71.099999999999994</v>
+        <v>48.2</v>
       </c>
       <c r="AA45">
-        <v>71.8</v>
+        <v>48.3</v>
       </c>
       <c r="AB45">
-        <v>72</v>
+        <v>48.3</v>
       </c>
       <c r="AC45">
-        <v>72.400000000000006</v>
+        <v>48.8</v>
       </c>
       <c r="AD45">
-        <v>72.7</v>
+        <v>49</v>
       </c>
       <c r="AE45">
-        <v>72.900000000000006</v>
+        <v>49.2</v>
       </c>
       <c r="AF45">
-        <v>73.2</v>
+        <v>49.6</v>
       </c>
       <c r="AG45">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="AH45">
-        <v>73.599999999999994</v>
+        <v>50.5</v>
       </c>
       <c r="AI45">
-        <v>73.900000000000006</v>
+        <v>50.8</v>
       </c>
       <c r="AJ45">
-        <v>74.3</v>
+        <v>51.2</v>
       </c>
       <c r="AK45">
-        <v>74.3</v>
+        <v>51.6</v>
       </c>
       <c r="AL45">
-        <v>74.400000000000006</v>
+        <v>52.1</v>
       </c>
       <c r="AM45">
-        <v>74.8</v>
+        <v>52.3</v>
       </c>
       <c r="AN45">
-        <v>75.099999999999994</v>
+        <v>52.8</v>
       </c>
       <c r="AO45">
-        <v>75.3</v>
+        <v>53.3</v>
       </c>
       <c r="AP45">
-        <v>74</v>
+        <v>52.8</v>
       </c>
       <c r="AQ45">
-        <v>72.8</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6713,130 +6674,130 @@
         <v>87</v>
       </c>
       <c r="B46">
-        <v>47.6</v>
+        <v>52.3</v>
       </c>
       <c r="C46">
-        <v>48.2</v>
+        <v>52.7</v>
       </c>
       <c r="D46">
-        <v>48.7</v>
+        <v>52.9</v>
       </c>
       <c r="E46">
-        <v>49.5</v>
+        <v>53.2</v>
       </c>
       <c r="F46">
-        <v>50.2</v>
+        <v>53</v>
       </c>
       <c r="G46">
+        <v>53.2</v>
+      </c>
+      <c r="H46">
+        <v>53.2</v>
+      </c>
+      <c r="I46">
+        <v>53.2</v>
+      </c>
+      <c r="J46">
+        <v>53</v>
+      </c>
+      <c r="K46">
+        <v>52.9</v>
+      </c>
+      <c r="L46">
+        <v>52.6</v>
+      </c>
+      <c r="M46">
+        <v>52.3</v>
+      </c>
+      <c r="N46">
+        <v>52.1</v>
+      </c>
+      <c r="O46">
+        <v>51.9</v>
+      </c>
+      <c r="P46">
+        <v>51.7</v>
+      </c>
+      <c r="Q46">
+        <v>51.6</v>
+      </c>
+      <c r="R46">
+        <v>51.5</v>
+      </c>
+      <c r="S46">
+        <v>51.4</v>
+      </c>
+      <c r="T46">
+        <v>51.1</v>
+      </c>
+      <c r="U46">
         <v>51</v>
       </c>
-      <c r="H46">
-        <v>51.5</v>
-      </c>
-      <c r="I46">
-        <v>53.5</v>
-      </c>
-      <c r="J46">
-        <v>54.3</v>
-      </c>
-      <c r="K46">
-        <v>54.8</v>
-      </c>
-      <c r="L46">
-        <v>55.4</v>
-      </c>
-      <c r="M46">
-        <v>55.8</v>
-      </c>
-      <c r="N46">
-        <v>56</v>
-      </c>
-      <c r="O46">
-        <v>56.1</v>
-      </c>
-      <c r="P46">
-        <v>56</v>
-      </c>
-      <c r="Q46">
-        <v>56.3</v>
-      </c>
-      <c r="R46">
-        <v>56.3</v>
-      </c>
-      <c r="S46">
+      <c r="V46">
+        <v>50.8</v>
+      </c>
+      <c r="W46">
+        <v>50.8</v>
+      </c>
+      <c r="X46">
+        <v>50.9</v>
+      </c>
+      <c r="Y46">
+        <v>51</v>
+      </c>
+      <c r="Z46">
+        <v>51.4</v>
+      </c>
+      <c r="AA46">
+        <v>51.8</v>
+      </c>
+      <c r="AB46">
+        <v>52.4</v>
+      </c>
+      <c r="AC46">
+        <v>53</v>
+      </c>
+      <c r="AD46">
+        <v>53.7</v>
+      </c>
+      <c r="AE46">
+        <v>54.4</v>
+      </c>
+      <c r="AF46">
+        <v>55</v>
+      </c>
+      <c r="AG46">
+        <v>55.5</v>
+      </c>
+      <c r="AH46">
+        <v>56.2</v>
+      </c>
+      <c r="AI46">
         <v>56.7</v>
       </c>
-      <c r="T46">
-        <v>57</v>
-      </c>
-      <c r="U46">
-        <v>57.7</v>
-      </c>
-      <c r="V46">
+      <c r="AJ46">
+        <v>57.2</v>
+      </c>
+      <c r="AK46">
+        <v>57.8</v>
+      </c>
+      <c r="AL46">
+        <v>58.1</v>
+      </c>
+      <c r="AM46">
+        <v>58.5</v>
+      </c>
+      <c r="AN46">
+        <v>58.8</v>
+      </c>
+      <c r="AO46">
+        <v>59.3</v>
+      </c>
+      <c r="AP46">
+        <v>59</v>
+      </c>
+      <c r="AQ46">
         <v>58.6</v>
-      </c>
-      <c r="W46">
-        <v>60</v>
-      </c>
-      <c r="X46">
-        <v>61.2</v>
-      </c>
-      <c r="Y46">
-        <v>62.5</v>
-      </c>
-      <c r="Z46">
-        <v>63.6</v>
-      </c>
-      <c r="AA46">
-        <v>64.3</v>
-      </c>
-      <c r="AB46">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="AC46">
-        <v>65.7</v>
-      </c>
-      <c r="AD46">
-        <v>66.5</v>
-      </c>
-      <c r="AE46">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="AF46">
-        <v>67.7</v>
-      </c>
-      <c r="AG46">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="AH46">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="AI46">
-        <v>69.3</v>
-      </c>
-      <c r="AJ46">
-        <v>69.7</v>
-      </c>
-      <c r="AK46">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="AL46">
-        <v>70.2</v>
-      </c>
-      <c r="AM46">
-        <v>70.5</v>
-      </c>
-      <c r="AN46">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="AO46">
-        <v>70.7</v>
-      </c>
-      <c r="AP46">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="AQ46">
-        <v>69.599999999999994</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6844,130 +6805,130 @@
         <v>88</v>
       </c>
       <c r="B47">
-        <v>51</v>
+        <v>72.8</v>
       </c>
       <c r="C47">
-        <v>51.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="D47">
-        <v>52.1</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E47">
-        <v>52.8</v>
+        <v>73.3</v>
       </c>
       <c r="F47">
-        <v>53.2</v>
+        <v>73.5</v>
       </c>
       <c r="G47">
-        <v>53.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="H47">
-        <v>54</v>
+        <v>73.7</v>
       </c>
       <c r="I47">
-        <v>54.7</v>
+        <v>73.8</v>
       </c>
       <c r="J47">
-        <v>54.9</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="K47">
-        <v>54.9</v>
+        <v>74</v>
       </c>
       <c r="L47">
-        <v>54.9</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>54.7</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="N47">
-        <v>54.5</v>
+        <v>74.2</v>
       </c>
       <c r="O47">
-        <v>54.1</v>
+        <v>74.3</v>
       </c>
       <c r="P47">
-        <v>53.5</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="Q47">
-        <v>53.2</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="R47">
-        <v>52.8</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="S47">
-        <v>52.7</v>
+        <v>75.2</v>
       </c>
       <c r="T47">
-        <v>52.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="U47">
-        <v>52.7</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="V47">
-        <v>52.9</v>
+        <v>76.2</v>
       </c>
       <c r="W47">
-        <v>53.1</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="X47">
-        <v>53.4</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="Y47">
-        <v>53.9</v>
+        <v>76.8</v>
       </c>
       <c r="Z47">
-        <v>54.2</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="AA47">
-        <v>54.4</v>
+        <v>77</v>
       </c>
       <c r="AB47">
-        <v>54.9</v>
+        <v>77.2</v>
       </c>
       <c r="AC47">
-        <v>55.2</v>
+        <v>77.3</v>
       </c>
       <c r="AD47">
-        <v>55.7</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="AE47">
-        <v>56.1</v>
+        <v>77.5</v>
       </c>
       <c r="AF47">
-        <v>56.6</v>
+        <v>77.7</v>
       </c>
       <c r="AG47">
-        <v>57.1</v>
+        <v>77.8</v>
       </c>
       <c r="AH47">
-        <v>57.8</v>
+        <v>77.8</v>
       </c>
       <c r="AI47">
-        <v>58.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="AJ47">
-        <v>58.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="AK47">
-        <v>59.7</v>
+        <v>77.8</v>
       </c>
       <c r="AL47">
-        <v>60.2</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="AM47">
-        <v>60.8</v>
+        <v>77.5</v>
       </c>
       <c r="AN47">
-        <v>61.2</v>
+        <v>77.5</v>
       </c>
       <c r="AO47">
-        <v>61.6</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="AP47">
-        <v>60.8</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="AQ47">
-        <v>60.3</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -6975,130 +6936,130 @@
         <v>89</v>
       </c>
       <c r="B48">
+        <v>45.5</v>
+      </c>
+      <c r="C48">
+        <v>45.7</v>
+      </c>
+      <c r="D48">
+        <v>45.9</v>
+      </c>
+      <c r="E48">
+        <v>46.2</v>
+      </c>
+      <c r="F48">
+        <v>46.4</v>
+      </c>
+      <c r="G48">
+        <v>46.6</v>
+      </c>
+      <c r="H48">
+        <v>46.9</v>
+      </c>
+      <c r="I48">
+        <v>47.3</v>
+      </c>
+      <c r="J48">
+        <v>47.8</v>
+      </c>
+      <c r="K48">
+        <v>48.2</v>
+      </c>
+      <c r="L48">
+        <v>48.6</v>
+      </c>
+      <c r="M48">
+        <v>48.9</v>
+      </c>
+      <c r="N48">
+        <v>49.2</v>
+      </c>
+      <c r="O48">
+        <v>49.6</v>
+      </c>
+      <c r="P48">
         <v>49.9</v>
       </c>
-      <c r="C48">
-        <v>50.2</v>
-      </c>
-      <c r="D48">
-        <v>50.3</v>
-      </c>
-      <c r="E48">
+      <c r="Q48">
         <v>50.4</v>
       </c>
-      <c r="F48">
-        <v>50.5</v>
-      </c>
-      <c r="G48">
-        <v>50.5</v>
-      </c>
-      <c r="H48">
-        <v>50.5</v>
-      </c>
-      <c r="I48">
+      <c r="R48">
+        <v>49.3</v>
+      </c>
+      <c r="S48">
         <v>50.4</v>
       </c>
-      <c r="J48">
-        <v>50.2</v>
-      </c>
-      <c r="K48">
-        <v>50</v>
-      </c>
-      <c r="L48">
-        <v>49.6</v>
-      </c>
-      <c r="M48">
-        <v>49.3</v>
-      </c>
-      <c r="N48">
-        <v>48.8</v>
-      </c>
-      <c r="O48">
-        <v>48.4</v>
-      </c>
-      <c r="P48">
-        <v>47.9</v>
-      </c>
-      <c r="Q48">
-        <v>47.4</v>
-      </c>
-      <c r="R48">
-        <v>46.8</v>
-      </c>
-      <c r="S48">
-        <v>46.3</v>
-      </c>
       <c r="T48">
-        <v>46</v>
+        <v>49.7</v>
       </c>
       <c r="U48">
-        <v>45.8</v>
+        <v>49.9</v>
       </c>
       <c r="V48">
-        <v>45.4</v>
+        <v>51.8</v>
       </c>
       <c r="W48">
-        <v>45.4</v>
+        <v>52.1</v>
       </c>
       <c r="X48">
-        <v>45.4</v>
+        <v>52.3</v>
       </c>
       <c r="Y48">
-        <v>45.8</v>
+        <v>52.8</v>
       </c>
       <c r="Z48">
-        <v>46</v>
+        <v>53.4</v>
       </c>
       <c r="AA48">
-        <v>46.4</v>
+        <v>53.9</v>
       </c>
       <c r="AB48">
-        <v>46.9</v>
+        <v>54.5</v>
       </c>
       <c r="AC48">
-        <v>47.4</v>
+        <v>54.9</v>
       </c>
       <c r="AD48">
-        <v>48</v>
+        <v>55.3</v>
       </c>
       <c r="AE48">
-        <v>48.6</v>
+        <v>55.8</v>
       </c>
       <c r="AF48">
-        <v>49.3</v>
+        <v>56.4</v>
       </c>
       <c r="AG48">
-        <v>49.9</v>
+        <v>57.1</v>
       </c>
       <c r="AH48">
-        <v>50.7</v>
+        <v>57.2</v>
       </c>
       <c r="AI48">
-        <v>50.9</v>
+        <v>57.8</v>
       </c>
       <c r="AJ48">
-        <v>50.6</v>
+        <v>58.3</v>
       </c>
       <c r="AK48">
-        <v>52.8</v>
+        <v>58.5</v>
       </c>
       <c r="AL48">
-        <v>53.5</v>
+        <v>59.1</v>
       </c>
       <c r="AM48">
-        <v>53.7</v>
+        <v>59.4</v>
       </c>
       <c r="AN48">
-        <v>54.4</v>
+        <v>59.9</v>
       </c>
       <c r="AO48">
-        <v>55</v>
+        <v>60.3</v>
       </c>
       <c r="AP48">
-        <v>54.6</v>
+        <v>59.7</v>
       </c>
       <c r="AQ48">
-        <v>53.9</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7106,130 +7067,130 @@
         <v>90</v>
       </c>
       <c r="B49">
-        <v>43.1</v>
+        <v>63.2</v>
       </c>
       <c r="C49">
-        <v>43.3</v>
+        <v>63.7</v>
       </c>
       <c r="D49">
-        <v>43.7</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E49">
-        <v>44.2</v>
+        <v>64.5</v>
       </c>
       <c r="F49">
-        <v>44.5</v>
+        <v>65.2</v>
       </c>
       <c r="G49">
-        <v>45</v>
+        <v>65.8</v>
       </c>
       <c r="H49">
-        <v>45.2</v>
+        <v>66.5</v>
       </c>
       <c r="I49">
-        <v>42.8</v>
+        <v>67.3</v>
       </c>
       <c r="J49">
-        <v>45.8</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="K49">
-        <v>45.9</v>
+        <v>68.7</v>
       </c>
       <c r="L49">
-        <v>44.7</v>
+        <v>69.3</v>
       </c>
       <c r="M49">
-        <v>45.9</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="N49">
-        <v>46.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="O49">
-        <v>46.3</v>
+        <v>70.3</v>
       </c>
       <c r="P49">
-        <v>46.4</v>
+        <v>70.8</v>
       </c>
       <c r="Q49">
-        <v>46.7</v>
+        <v>71</v>
       </c>
       <c r="R49">
-        <v>47</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="S49">
-        <v>47.2</v>
+        <v>71.7</v>
       </c>
       <c r="T49">
-        <v>47.2</v>
+        <v>72</v>
       </c>
       <c r="U49">
-        <v>47.4</v>
+        <v>72.5</v>
       </c>
       <c r="V49">
-        <v>47.4</v>
+        <v>72.8</v>
       </c>
       <c r="W49">
-        <v>47.8</v>
+        <v>73.2</v>
       </c>
       <c r="X49">
-        <v>47.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y49">
-        <v>48.2</v>
+        <v>74</v>
       </c>
       <c r="Z49">
-        <v>48.2</v>
+        <v>74.3</v>
       </c>
       <c r="AA49">
-        <v>48.3</v>
+        <v>74.5</v>
       </c>
       <c r="AB49">
-        <v>48.3</v>
+        <v>74.7</v>
       </c>
       <c r="AC49">
-        <v>48.8</v>
+        <v>74.8</v>
       </c>
       <c r="AD49">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="AE49">
-        <v>49.2</v>
+        <v>75.2</v>
       </c>
       <c r="AF49">
-        <v>49.6</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="AG49">
-        <v>50</v>
+        <v>75.7</v>
       </c>
       <c r="AH49">
-        <v>50.5</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="AI49">
-        <v>50.8</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="AJ49">
-        <v>51.2</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AK49">
-        <v>51.6</v>
+        <v>76.8</v>
       </c>
       <c r="AL49">
-        <v>52.1</v>
+        <v>76.8</v>
       </c>
       <c r="AM49">
-        <v>52.3</v>
+        <v>77</v>
       </c>
       <c r="AN49">
-        <v>52.8</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="AO49">
-        <v>53.3</v>
+        <v>77.3</v>
       </c>
       <c r="AP49">
-        <v>52.8</v>
+        <v>72.2</v>
       </c>
       <c r="AQ49">
-        <v>52.5</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7237,130 +7198,130 @@
         <v>91</v>
       </c>
       <c r="B50">
-        <v>52.3</v>
+        <v>56.6</v>
       </c>
       <c r="C50">
-        <v>52.7</v>
+        <v>57.1</v>
       </c>
       <c r="D50">
-        <v>52.9</v>
+        <v>57.9</v>
       </c>
       <c r="E50">
-        <v>53.2</v>
+        <v>58.9</v>
       </c>
       <c r="F50">
-        <v>53</v>
+        <v>59.7</v>
       </c>
       <c r="G50">
-        <v>53.2</v>
+        <v>60.5</v>
       </c>
       <c r="H50">
-        <v>53.2</v>
+        <v>61.3</v>
       </c>
       <c r="I50">
-        <v>53.2</v>
+        <v>62.1</v>
       </c>
       <c r="J50">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>52.9</v>
+        <v>63.6</v>
       </c>
       <c r="L50">
-        <v>52.6</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="M50">
-        <v>52.3</v>
+        <v>64.8</v>
       </c>
       <c r="N50">
-        <v>52.1</v>
+        <v>65</v>
       </c>
       <c r="O50">
-        <v>51.9</v>
+        <v>65.5</v>
       </c>
       <c r="P50">
-        <v>51.7</v>
+        <v>65.8</v>
       </c>
       <c r="Q50">
-        <v>51.6</v>
+        <v>66.3</v>
       </c>
       <c r="R50">
-        <v>51.5</v>
+        <v>66.7</v>
       </c>
       <c r="S50">
-        <v>51.4</v>
+        <v>67.2</v>
       </c>
       <c r="T50">
-        <v>51.1</v>
+        <v>67.5</v>
       </c>
       <c r="U50">
-        <v>51</v>
+        <v>67.7</v>
       </c>
       <c r="V50">
-        <v>50.8</v>
+        <v>68</v>
       </c>
       <c r="W50">
-        <v>50.8</v>
+        <v>68.3</v>
       </c>
       <c r="X50">
-        <v>50.9</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="Y50">
-        <v>51</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="Z50">
-        <v>51.4</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="AA50">
-        <v>51.8</v>
+        <v>68.8</v>
       </c>
       <c r="AB50">
-        <v>52.4</v>
+        <v>69</v>
       </c>
       <c r="AC50">
-        <v>53</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="AD50">
-        <v>53.7</v>
+        <v>69.3</v>
       </c>
       <c r="AE50">
-        <v>54.4</v>
+        <v>69.5</v>
       </c>
       <c r="AF50">
-        <v>55</v>
+        <v>69.7</v>
       </c>
       <c r="AG50">
-        <v>55.5</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="AH50">
-        <v>56.2</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="AI50">
-        <v>56.7</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="AJ50">
-        <v>57.2</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AK50">
-        <v>57.8</v>
+        <v>70.5</v>
       </c>
       <c r="AL50">
-        <v>58.1</v>
+        <v>70.8</v>
       </c>
       <c r="AM50">
-        <v>58.5</v>
+        <v>71.3</v>
       </c>
       <c r="AN50">
-        <v>58.8</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AO50">
-        <v>59.3</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AP50">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AQ50">
-        <v>58.6</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7368,130 +7329,130 @@
         <v>92</v>
       </c>
       <c r="B51">
-        <v>72.8</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>72.900000000000006</v>
+        <v>56</v>
       </c>
       <c r="D51">
+        <v>50.1</v>
+      </c>
+      <c r="E51">
+        <v>58.7</v>
+      </c>
+      <c r="F51">
+        <v>59.6</v>
+      </c>
+      <c r="G51">
+        <v>60.2</v>
+      </c>
+      <c r="H51">
+        <v>60.8</v>
+      </c>
+      <c r="I51">
+        <v>61.4</v>
+      </c>
+      <c r="J51">
+        <v>62</v>
+      </c>
+      <c r="K51">
+        <v>62.4</v>
+      </c>
+      <c r="L51">
+        <v>62.5</v>
+      </c>
+      <c r="M51">
+        <v>62.7</v>
+      </c>
+      <c r="N51">
+        <v>62.9</v>
+      </c>
+      <c r="O51">
+        <v>63.3</v>
+      </c>
+      <c r="P51">
+        <v>63.7</v>
+      </c>
+      <c r="Q51">
+        <v>64.2</v>
+      </c>
+      <c r="R51">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="S51">
+        <v>65.5</v>
+      </c>
+      <c r="T51">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="U51">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="V51">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="W51">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="X51">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="Y51">
+        <v>68.8</v>
+      </c>
+      <c r="Z51">
+        <v>69.2</v>
+      </c>
+      <c r="AA51">
+        <v>69.2</v>
+      </c>
+      <c r="AB51">
+        <v>69.8</v>
+      </c>
+      <c r="AC51">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AD51">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AE51">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AF51">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AG51">
+        <v>71.2</v>
+      </c>
+      <c r="AH51">
+        <v>71.5</v>
+      </c>
+      <c r="AI51">
+        <v>71.7</v>
+      </c>
+      <c r="AJ51">
+        <v>72</v>
+      </c>
+      <c r="AK51">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="AL51">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AM51">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AN51">
+        <v>72.7</v>
+      </c>
+      <c r="AO51">
         <v>73.099999999999994</v>
       </c>
-      <c r="E51">
-        <v>73.3</v>
-      </c>
-      <c r="F51">
-        <v>73.5</v>
-      </c>
-      <c r="G51">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="H51">
-        <v>73.7</v>
-      </c>
-      <c r="I51">
-        <v>73.8</v>
-      </c>
-      <c r="J51">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="K51">
-        <v>74</v>
-      </c>
-      <c r="L51">
-        <v>74</v>
-      </c>
-      <c r="M51">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="N51">
-        <v>74.2</v>
-      </c>
-      <c r="O51">
-        <v>74.3</v>
-      </c>
-      <c r="P51">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="Q51">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R51">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="S51">
-        <v>75.2</v>
-      </c>
-      <c r="T51">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="U51">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="V51">
-        <v>76.2</v>
-      </c>
-      <c r="W51">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="X51">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="Y51">
-        <v>76.8</v>
-      </c>
-      <c r="Z51">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="AA51">
-        <v>77</v>
-      </c>
-      <c r="AB51">
-        <v>77.2</v>
-      </c>
-      <c r="AC51">
-        <v>77.3</v>
-      </c>
-      <c r="AD51">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="AE51">
-        <v>77.5</v>
-      </c>
-      <c r="AF51">
-        <v>77.7</v>
-      </c>
-      <c r="AG51">
-        <v>77.8</v>
-      </c>
-      <c r="AH51">
-        <v>77.8</v>
-      </c>
-      <c r="AI51">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="AJ51">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="AK51">
-        <v>77.8</v>
-      </c>
-      <c r="AL51">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="AM51">
-        <v>77.5</v>
-      </c>
-      <c r="AN51">
-        <v>77.5</v>
-      </c>
-      <c r="AO51">
-        <v>77.599999999999994</v>
-      </c>
       <c r="AP51">
-        <v>77.599999999999994</v>
+        <v>71.8</v>
       </c>
       <c r="AQ51">
-        <v>73.7</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7499,130 +7460,130 @@
         <v>93</v>
       </c>
       <c r="B52">
-        <v>45.5</v>
+        <v>58.5</v>
       </c>
       <c r="C52">
-        <v>45.7</v>
+        <v>56.7</v>
       </c>
       <c r="D52">
-        <v>45.9</v>
+        <v>57.7</v>
       </c>
       <c r="E52">
-        <v>46.2</v>
+        <v>58.7</v>
       </c>
       <c r="F52">
-        <v>46.4</v>
+        <v>61.2</v>
       </c>
       <c r="G52">
-        <v>46.6</v>
+        <v>61.9</v>
       </c>
       <c r="H52">
-        <v>46.9</v>
+        <v>62.5</v>
       </c>
       <c r="I52">
-        <v>47.3</v>
+        <v>62.8</v>
       </c>
       <c r="J52">
-        <v>47.8</v>
+        <v>63.4</v>
       </c>
       <c r="K52">
-        <v>48.2</v>
+        <v>65.7</v>
       </c>
       <c r="L52">
-        <v>48.6</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="M52">
-        <v>48.9</v>
+        <v>66.5</v>
       </c>
       <c r="N52">
-        <v>49.2</v>
+        <v>66.8</v>
       </c>
       <c r="O52">
-        <v>49.6</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="P52">
-        <v>49.9</v>
+        <v>67.5</v>
       </c>
       <c r="Q52">
-        <v>50.4</v>
+        <v>67.8</v>
       </c>
       <c r="R52">
-        <v>49.3</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="S52">
-        <v>50.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="T52">
-        <v>49.7</v>
+        <v>68.7</v>
       </c>
       <c r="U52">
-        <v>49.9</v>
+        <v>69.3</v>
       </c>
       <c r="V52">
-        <v>51.8</v>
+        <v>69.7</v>
       </c>
       <c r="W52">
-        <v>52.1</v>
+        <v>70</v>
       </c>
       <c r="X52">
-        <v>52.3</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="Y52">
-        <v>52.8</v>
+        <v>69.8</v>
       </c>
       <c r="Z52">
-        <v>53.4</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AA52">
-        <v>53.9</v>
+        <v>71.8</v>
       </c>
       <c r="AB52">
-        <v>54.5</v>
+        <v>72.3</v>
       </c>
       <c r="AC52">
-        <v>54.9</v>
+        <v>72.8</v>
       </c>
       <c r="AD52">
-        <v>55.3</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="AE52">
-        <v>55.8</v>
+        <v>72.7</v>
       </c>
       <c r="AF52">
-        <v>56.4</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="AG52">
-        <v>57.1</v>
+        <v>73.7</v>
       </c>
       <c r="AH52">
-        <v>57.2</v>
+        <v>74.2</v>
       </c>
       <c r="AI52">
-        <v>57.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AJ52">
-        <v>58.3</v>
+        <v>74.8</v>
       </c>
       <c r="AK52">
-        <v>58.5</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AL52">
-        <v>59.1</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="AM52">
-        <v>59.4</v>
+        <v>76</v>
       </c>
       <c r="AN52">
-        <v>59.9</v>
+        <v>76.2</v>
       </c>
       <c r="AO52">
-        <v>60.3</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="AP52">
-        <v>59.7</v>
+        <v>74.8</v>
       </c>
       <c r="AQ52">
-        <v>59.2</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7630,130 +7591,130 @@
         <v>94</v>
       </c>
       <c r="B53">
-        <v>63.2</v>
+        <v>61.5</v>
       </c>
       <c r="C53">
-        <v>63.7</v>
+        <v>59.3</v>
       </c>
       <c r="D53">
-        <v>64.099999999999994</v>
+        <v>59.7</v>
       </c>
       <c r="E53">
-        <v>64.5</v>
+        <v>60.1</v>
       </c>
       <c r="F53">
-        <v>65.2</v>
+        <v>60.2</v>
       </c>
       <c r="G53">
+        <v>60.7</v>
+      </c>
+      <c r="H53">
+        <v>60.9</v>
+      </c>
+      <c r="I53">
+        <v>61.2</v>
+      </c>
+      <c r="J53">
+        <v>57.5</v>
+      </c>
+      <c r="K53">
+        <v>58.2</v>
+      </c>
+      <c r="L53">
+        <v>58.4</v>
+      </c>
+      <c r="M53">
+        <v>62.5</v>
+      </c>
+      <c r="N53">
+        <v>66.7</v>
+      </c>
+      <c r="O53">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="P53">
+        <v>66.7</v>
+      </c>
+      <c r="Q53">
+        <v>66.5</v>
+      </c>
+      <c r="R53">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="S53">
         <v>65.8</v>
       </c>
-      <c r="H53">
-        <v>66.5</v>
-      </c>
-      <c r="I53">
-        <v>67.3</v>
-      </c>
-      <c r="J53">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="K53">
-        <v>68.7</v>
-      </c>
-      <c r="L53">
-        <v>69.3</v>
-      </c>
-      <c r="M53">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="N53">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="O53">
-        <v>70.3</v>
-      </c>
-      <c r="P53">
-        <v>70.8</v>
-      </c>
-      <c r="Q53">
-        <v>71</v>
-      </c>
-      <c r="R53">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="S53">
-        <v>71.7</v>
-      </c>
       <c r="T53">
-        <v>72</v>
+        <v>65.5</v>
       </c>
       <c r="U53">
-        <v>72.5</v>
+        <v>66.2</v>
       </c>
       <c r="V53">
-        <v>72.8</v>
+        <v>66.8</v>
       </c>
       <c r="W53">
-        <v>73.2</v>
+        <v>67</v>
       </c>
       <c r="X53">
-        <v>73.599999999999994</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="Y53">
-        <v>74</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="Z53">
-        <v>74.3</v>
+        <v>65</v>
       </c>
       <c r="AA53">
-        <v>74.5</v>
+        <v>64.8</v>
       </c>
       <c r="AB53">
-        <v>74.7</v>
+        <v>63.6</v>
       </c>
       <c r="AC53">
-        <v>74.8</v>
+        <v>63.6</v>
       </c>
       <c r="AD53">
-        <v>75</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="AE53">
-        <v>75.2</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="AF53">
-        <v>75.400000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="AG53">
-        <v>75.7</v>
+        <v>67.7</v>
       </c>
       <c r="AH53">
-        <v>76.099999999999994</v>
+        <v>68</v>
       </c>
       <c r="AI53">
-        <v>76.400000000000006</v>
+        <v>68.3</v>
       </c>
       <c r="AJ53">
-        <v>76.599999999999994</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="AK53">
-        <v>76.8</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="AL53">
-        <v>76.8</v>
+        <v>69</v>
       </c>
       <c r="AM53">
-        <v>77</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AN53">
-        <v>77.099999999999994</v>
+        <v>71.5</v>
       </c>
       <c r="AO53">
-        <v>77.3</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="AP53">
-        <v>72.2</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="AQ53">
-        <v>73.7</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7761,130 +7722,130 @@
         <v>95</v>
       </c>
       <c r="B54">
-        <v>56.6</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C54">
-        <v>57.1</v>
+        <v>76.5</v>
       </c>
       <c r="D54">
-        <v>57.9</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="E54">
-        <v>58.9</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F54">
-        <v>59.7</v>
+        <v>77.5</v>
       </c>
       <c r="G54">
-        <v>60.5</v>
+        <v>77.8</v>
       </c>
       <c r="H54">
-        <v>61.3</v>
+        <v>78.2</v>
       </c>
       <c r="I54">
-        <v>62.1</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="J54">
-        <v>63</v>
+        <v>78.5</v>
       </c>
       <c r="K54">
-        <v>63.6</v>
+        <v>79</v>
       </c>
       <c r="L54">
-        <v>64.099999999999994</v>
+        <v>79</v>
       </c>
       <c r="M54">
-        <v>64.8</v>
+        <v>79.3</v>
       </c>
       <c r="N54">
-        <v>65</v>
+        <v>79.3</v>
       </c>
       <c r="O54">
-        <v>65.5</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="P54">
-        <v>65.8</v>
+        <v>79.8</v>
       </c>
       <c r="Q54">
-        <v>66.3</v>
+        <v>79.7</v>
       </c>
       <c r="R54">
-        <v>66.7</v>
+        <v>80.3</v>
       </c>
       <c r="S54">
-        <v>67.2</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="T54">
-        <v>67.5</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="U54">
-        <v>67.7</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="V54">
-        <v>68</v>
+        <v>81.2</v>
       </c>
       <c r="W54">
-        <v>68.3</v>
+        <v>81.5</v>
       </c>
       <c r="X54">
-        <v>68.599999999999994</v>
+        <v>81.8</v>
       </c>
       <c r="Y54">
-        <v>68.400000000000006</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="Z54">
-        <v>68.599999999999994</v>
+        <v>82.1</v>
       </c>
       <c r="AA54">
-        <v>68.8</v>
+        <v>82</v>
       </c>
       <c r="AB54">
-        <v>69</v>
+        <v>82.4</v>
       </c>
       <c r="AC54">
-        <v>69.099999999999994</v>
+        <v>82.6</v>
       </c>
       <c r="AD54">
-        <v>69.3</v>
+        <v>82.6</v>
       </c>
       <c r="AE54">
-        <v>69.5</v>
+        <v>83</v>
       </c>
       <c r="AF54">
-        <v>69.7</v>
+        <v>82.9</v>
       </c>
       <c r="AG54">
-        <v>69.900000000000006</v>
+        <v>82.7</v>
       </c>
       <c r="AH54">
-        <v>70.099999999999994</v>
+        <v>83.2</v>
       </c>
       <c r="AI54">
-        <v>70.099999999999994</v>
+        <v>83.4</v>
       </c>
       <c r="AJ54">
-        <v>70.400000000000006</v>
+        <v>83.7</v>
       </c>
       <c r="AK54">
-        <v>70.5</v>
+        <v>83.9</v>
       </c>
       <c r="AL54">
-        <v>70.8</v>
+        <v>84.1</v>
       </c>
       <c r="AM54">
-        <v>71.3</v>
+        <v>84.2</v>
       </c>
       <c r="AN54">
-        <v>71.400000000000006</v>
+        <v>84.3</v>
       </c>
       <c r="AO54">
-        <v>71.400000000000006</v>
+        <v>84.4</v>
       </c>
       <c r="AP54">
-        <v>71</v>
+        <v>84.7</v>
       </c>
       <c r="AQ54">
-        <v>70.2</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -7892,130 +7853,130 @@
         <v>96</v>
       </c>
       <c r="B55">
-        <v>56</v>
+        <v>58.5</v>
       </c>
       <c r="C55">
-        <v>56</v>
+        <v>61.2</v>
       </c>
       <c r="D55">
-        <v>50.1</v>
+        <v>61</v>
       </c>
       <c r="E55">
-        <v>58.7</v>
+        <v>61</v>
       </c>
       <c r="F55">
+        <v>60.8</v>
+      </c>
+      <c r="G55">
+        <v>60.6</v>
+      </c>
+      <c r="H55">
+        <v>60.2</v>
+      </c>
+      <c r="I55">
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <v>59.5</v>
+      </c>
+      <c r="K55">
+        <v>59</v>
+      </c>
+      <c r="L55">
+        <v>58.6</v>
+      </c>
+      <c r="M55">
+        <v>58</v>
+      </c>
+      <c r="N55">
+        <v>57.3</v>
+      </c>
+      <c r="O55">
+        <v>56.6</v>
+      </c>
+      <c r="P55">
+        <v>56.3</v>
+      </c>
+      <c r="Q55">
+        <v>55.6</v>
+      </c>
+      <c r="R55">
+        <v>55.2</v>
+      </c>
+      <c r="S55">
+        <v>54.8</v>
+      </c>
+      <c r="T55">
+        <v>54.5</v>
+      </c>
+      <c r="U55">
+        <v>54.5</v>
+      </c>
+      <c r="V55">
+        <v>54.4</v>
+      </c>
+      <c r="W55">
+        <v>54.5</v>
+      </c>
+      <c r="X55">
+        <v>55</v>
+      </c>
+      <c r="Y55">
+        <v>55.6</v>
+      </c>
+      <c r="Z55">
+        <v>56.4</v>
+      </c>
+      <c r="AA55">
+        <v>57.3</v>
+      </c>
+      <c r="AB55">
+        <v>58.2</v>
+      </c>
+      <c r="AC55">
+        <v>58.9</v>
+      </c>
+      <c r="AD55">
         <v>59.6</v>
       </c>
-      <c r="G55">
-        <v>60.2</v>
-      </c>
-      <c r="H55">
-        <v>60.8</v>
-      </c>
-      <c r="I55">
+      <c r="AE55">
+        <v>60.4</v>
+      </c>
+      <c r="AF55">
+        <v>60.6</v>
+      </c>
+      <c r="AG55">
+        <v>61</v>
+      </c>
+      <c r="AH55">
+        <v>61.1</v>
+      </c>
+      <c r="AI55">
         <v>61.4</v>
       </c>
-      <c r="J55">
-        <v>62</v>
-      </c>
-      <c r="K55">
-        <v>62.4</v>
-      </c>
-      <c r="L55">
+      <c r="AJ55">
+        <v>61.8</v>
+      </c>
+      <c r="AK55">
+        <v>61.9</v>
+      </c>
+      <c r="AL55">
+        <v>62.2</v>
+      </c>
+      <c r="AM55">
         <v>62.5</v>
       </c>
-      <c r="M55">
+      <c r="AN55">
         <v>62.7</v>
       </c>
-      <c r="N55">
+      <c r="AO55">
         <v>62.9</v>
       </c>
-      <c r="O55">
-        <v>63.3</v>
-      </c>
-      <c r="P55">
-        <v>63.7</v>
-      </c>
-      <c r="Q55">
-        <v>64.2</v>
-      </c>
-      <c r="R55">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="S55">
-        <v>65.5</v>
-      </c>
-      <c r="T55">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="U55">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="V55">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="W55">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="X55">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="Y55">
-        <v>68.8</v>
-      </c>
-      <c r="Z55">
-        <v>69.2</v>
-      </c>
-      <c r="AA55">
-        <v>69.2</v>
-      </c>
-      <c r="AB55">
-        <v>69.8</v>
-      </c>
-      <c r="AC55">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="AD55">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="AE55">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="AF55">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="AG55">
-        <v>71.2</v>
-      </c>
-      <c r="AH55">
-        <v>71.5</v>
-      </c>
-      <c r="AI55">
-        <v>71.7</v>
-      </c>
-      <c r="AJ55">
-        <v>72</v>
-      </c>
-      <c r="AK55">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AL55">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AM55">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="AN55">
-        <v>72.7</v>
-      </c>
-      <c r="AO55">
-        <v>73.099999999999994</v>
-      </c>
       <c r="AP55">
-        <v>71.8</v>
+        <v>62.7</v>
       </c>
       <c r="AQ55">
-        <v>69.2</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8023,130 +7984,130 @@
         <v>97</v>
       </c>
       <c r="B56">
-        <v>58.5</v>
+        <v>68.2</v>
       </c>
       <c r="C56">
-        <v>56.7</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D56">
-        <v>57.7</v>
+        <v>69.2</v>
       </c>
       <c r="E56">
-        <v>58.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="F56">
-        <v>61.2</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="G56">
-        <v>61.9</v>
+        <v>70.3</v>
       </c>
       <c r="H56">
-        <v>62.5</v>
+        <v>70.5</v>
       </c>
       <c r="I56">
-        <v>62.8</v>
+        <v>70.7</v>
       </c>
       <c r="J56">
-        <v>63.4</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="K56">
-        <v>65.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="L56">
-        <v>64.400000000000006</v>
+        <v>71.3</v>
       </c>
       <c r="M56">
-        <v>66.5</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="N56">
-        <v>66.8</v>
+        <v>71.5</v>
       </c>
       <c r="O56">
-        <v>67.099999999999994</v>
+        <v>71.8</v>
       </c>
       <c r="P56">
-        <v>67.5</v>
+        <v>72.2</v>
       </c>
       <c r="Q56">
-        <v>67.8</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="R56">
-        <v>68.099999999999994</v>
+        <v>72.3</v>
       </c>
       <c r="S56">
-        <v>68.400000000000006</v>
+        <v>72.3</v>
       </c>
       <c r="T56">
-        <v>68.7</v>
+        <v>72.2</v>
       </c>
       <c r="U56">
-        <v>69.3</v>
+        <v>72.3</v>
       </c>
       <c r="V56">
-        <v>69.7</v>
+        <v>72.8</v>
       </c>
       <c r="W56">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="X56">
-        <v>70.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Y56">
-        <v>69.8</v>
+        <v>73.8</v>
       </c>
       <c r="Z56">
-        <v>71.400000000000006</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="AA56">
-        <v>71.8</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="AB56">
-        <v>72.3</v>
+        <v>74.2</v>
       </c>
       <c r="AC56">
-        <v>72.8</v>
+        <v>74.2</v>
       </c>
       <c r="AD56">
-        <v>72.599999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="AE56">
-        <v>72.7</v>
+        <v>74.2</v>
       </c>
       <c r="AF56">
-        <v>73.099999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AG56">
-        <v>73.7</v>
+        <v>74.7</v>
       </c>
       <c r="AH56">
-        <v>74.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="AI56">
-        <v>74.400000000000006</v>
+        <v>75</v>
       </c>
       <c r="AJ56">
-        <v>74.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AK56">
         <v>75.099999999999994</v>
       </c>
       <c r="AL56">
+        <v>75.3</v>
+      </c>
+      <c r="AM56">
+        <v>75.5</v>
+      </c>
+      <c r="AN56">
         <v>75.599999999999994</v>
       </c>
-      <c r="AM56">
-        <v>76</v>
-      </c>
-      <c r="AN56">
-        <v>76.2</v>
-      </c>
       <c r="AO56">
-        <v>76.099999999999994</v>
+        <v>75.8</v>
       </c>
       <c r="AP56">
-        <v>74.8</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="AQ56">
-        <v>73.900000000000006</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8154,130 +8115,130 @@
         <v>98</v>
       </c>
       <c r="B57">
-        <v>61.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C57">
-        <v>59.3</v>
+        <v>41.2</v>
       </c>
       <c r="D57">
+        <v>41.8</v>
+      </c>
+      <c r="E57">
+        <v>42.1</v>
+      </c>
+      <c r="F57">
+        <v>42.7</v>
+      </c>
+      <c r="G57">
+        <v>43.2</v>
+      </c>
+      <c r="H57">
+        <v>44</v>
+      </c>
+      <c r="I57">
+        <v>44.7</v>
+      </c>
+      <c r="J57">
+        <v>45.4</v>
+      </c>
+      <c r="K57">
+        <v>45.9</v>
+      </c>
+      <c r="L57">
+        <v>46.6</v>
+      </c>
+      <c r="M57">
+        <v>47.2</v>
+      </c>
+      <c r="N57">
+        <v>47.5</v>
+      </c>
+      <c r="O57">
+        <v>47.7</v>
+      </c>
+      <c r="P57">
+        <v>47.7</v>
+      </c>
+      <c r="Q57">
+        <v>47.8</v>
+      </c>
+      <c r="R57">
+        <v>47.8</v>
+      </c>
+      <c r="S57">
+        <v>48.5</v>
+      </c>
+      <c r="T57">
+        <v>49.2</v>
+      </c>
+      <c r="U57">
+        <v>49.8</v>
+      </c>
+      <c r="V57">
+        <v>50.5</v>
+      </c>
+      <c r="W57">
+        <v>51.3</v>
+      </c>
+      <c r="X57">
+        <v>52.2</v>
+      </c>
+      <c r="Y57">
+        <v>52.9</v>
+      </c>
+      <c r="Z57">
+        <v>53.5</v>
+      </c>
+      <c r="AA57">
+        <v>54</v>
+      </c>
+      <c r="AB57">
+        <v>54.6</v>
+      </c>
+      <c r="AC57">
+        <v>54.9</v>
+      </c>
+      <c r="AD57">
+        <v>55.3</v>
+      </c>
+      <c r="AE57">
+        <v>55.9</v>
+      </c>
+      <c r="AF57">
+        <v>56.4</v>
+      </c>
+      <c r="AG57">
+        <v>56.8</v>
+      </c>
+      <c r="AH57">
+        <v>57.1</v>
+      </c>
+      <c r="AI57">
+        <v>57.4</v>
+      </c>
+      <c r="AJ57">
+        <v>57.9</v>
+      </c>
+      <c r="AK57">
+        <v>58.4</v>
+      </c>
+      <c r="AL57">
+        <v>58.7</v>
+      </c>
+      <c r="AM57">
+        <v>59.1</v>
+      </c>
+      <c r="AN57">
+        <v>59.4</v>
+      </c>
+      <c r="AO57">
         <v>59.7</v>
       </c>
-      <c r="E57">
-        <v>60.1</v>
-      </c>
-      <c r="F57">
-        <v>60.2</v>
-      </c>
-      <c r="G57">
-        <v>60.7</v>
-      </c>
-      <c r="H57">
-        <v>60.9</v>
-      </c>
-      <c r="I57">
-        <v>61.2</v>
-      </c>
-      <c r="J57">
-        <v>57.5</v>
-      </c>
-      <c r="K57">
-        <v>58.2</v>
-      </c>
-      <c r="L57">
-        <v>58.4</v>
-      </c>
-      <c r="M57">
-        <v>62.5</v>
-      </c>
-      <c r="N57">
-        <v>66.7</v>
-      </c>
-      <c r="O57">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="P57">
-        <v>66.7</v>
-      </c>
-      <c r="Q57">
-        <v>66.5</v>
-      </c>
-      <c r="R57">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="S57">
-        <v>65.8</v>
-      </c>
-      <c r="T57">
-        <v>65.5</v>
-      </c>
-      <c r="U57">
-        <v>66.2</v>
-      </c>
-      <c r="V57">
-        <v>66.8</v>
-      </c>
-      <c r="W57">
-        <v>67</v>
-      </c>
-      <c r="X57">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="Y57">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="Z57">
-        <v>65</v>
-      </c>
-      <c r="AA57">
-        <v>64.8</v>
-      </c>
-      <c r="AB57">
-        <v>63.6</v>
-      </c>
-      <c r="AC57">
-        <v>63.6</v>
-      </c>
-      <c r="AD57">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="AE57">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="AF57">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="AG57">
-        <v>67.7</v>
-      </c>
-      <c r="AH57">
-        <v>68</v>
-      </c>
-      <c r="AI57">
-        <v>68.3</v>
-      </c>
-      <c r="AJ57">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="AK57">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="AL57">
-        <v>69</v>
-      </c>
-      <c r="AM57">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="AN57">
-        <v>71.5</v>
-      </c>
-      <c r="AO57">
-        <v>71.599999999999994</v>
-      </c>
       <c r="AP57">
-        <v>69.099999999999994</v>
+        <v>58.6</v>
       </c>
       <c r="AQ57">
-        <v>70.400000000000006</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8285,130 +8246,130 @@
         <v>99</v>
       </c>
       <c r="B58">
-        <v>73.7</v>
+        <v>47.9</v>
       </c>
       <c r="C58">
-        <v>74.2</v>
+        <v>48.4</v>
       </c>
       <c r="D58">
-        <v>73.8</v>
+        <v>48.9</v>
       </c>
       <c r="E58">
-        <v>74.7</v>
+        <v>49.4</v>
       </c>
       <c r="F58">
-        <v>75</v>
+        <v>50.2</v>
       </c>
       <c r="G58">
-        <v>75.3</v>
+        <v>50.9</v>
       </c>
       <c r="H58">
-        <v>75.099999999999994</v>
+        <v>51.5</v>
       </c>
       <c r="I58">
-        <v>75.599999999999994</v>
+        <v>52.5</v>
       </c>
       <c r="J58">
-        <v>76.099999999999994</v>
+        <v>53.1</v>
       </c>
       <c r="K58">
-        <v>76.7</v>
+        <v>54.1</v>
       </c>
       <c r="L58">
-        <v>77.2</v>
+        <v>54.8</v>
       </c>
       <c r="M58">
-        <v>77</v>
+        <v>55.7</v>
       </c>
       <c r="N58">
-        <v>76.900000000000006</v>
+        <v>56.7</v>
       </c>
       <c r="O58">
-        <v>77.5</v>
+        <v>57.6</v>
       </c>
       <c r="P58">
-        <v>77.7</v>
+        <v>58.6</v>
       </c>
       <c r="Q58">
-        <v>77.599999999999994</v>
+        <v>59.3</v>
       </c>
       <c r="R58">
-        <v>78.3</v>
+        <v>60</v>
       </c>
       <c r="S58">
-        <v>78.3</v>
+        <v>60.8</v>
       </c>
       <c r="T58">
-        <v>78.400000000000006</v>
+        <v>61.5</v>
       </c>
       <c r="U58">
-        <v>78.7</v>
+        <v>62.1</v>
       </c>
       <c r="V58">
-        <v>78.900000000000006</v>
+        <v>62.6</v>
       </c>
       <c r="W58">
-        <v>79.3</v>
+        <v>63.3</v>
       </c>
       <c r="X58">
-        <v>79.3</v>
+        <v>63.3</v>
       </c>
       <c r="Y58">
-        <v>79.599999999999994</v>
+        <v>64.2</v>
       </c>
       <c r="Z58">
-        <v>80.099999999999994</v>
+        <v>64.8</v>
       </c>
       <c r="AA58">
-        <v>80.2</v>
+        <v>65.5</v>
       </c>
       <c r="AB58">
-        <v>80.5</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="AC58">
-        <v>80.7</v>
+        <v>66.3</v>
       </c>
       <c r="AD58">
-        <v>81.099999999999994</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="AE58">
-        <v>81.599999999999994</v>
+        <v>66.8</v>
       </c>
       <c r="AF58">
-        <v>81.7</v>
+        <v>66.8</v>
       </c>
       <c r="AG58">
-        <v>81.7</v>
+        <v>67.3</v>
       </c>
       <c r="AH58">
-        <v>81.7</v>
+        <v>67.5</v>
       </c>
       <c r="AI58">
-        <v>82.1</v>
+        <v>68</v>
       </c>
       <c r="AJ58">
-        <v>82.2</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="AK58">
-        <v>82.1</v>
+        <v>67.5</v>
       </c>
       <c r="AL58">
-        <v>82.5</v>
+        <v>68.8</v>
       </c>
       <c r="AM58">
-        <v>82.7</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="AN58">
-        <v>82.8</v>
+        <v>69</v>
       </c>
       <c r="AO58">
-        <v>82.8</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="AP58">
-        <v>82.4</v>
+        <v>69.2</v>
       </c>
       <c r="AQ58">
-        <v>82.3</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8416,130 +8377,130 @@
         <v>100</v>
       </c>
       <c r="B59">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C59">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D59">
+        <v>73.7</v>
+      </c>
+      <c r="E59">
+        <v>73.8</v>
+      </c>
+      <c r="F59">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G59">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H59">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I59">
+        <v>74.2</v>
+      </c>
+      <c r="J59">
+        <v>74.5</v>
+      </c>
+      <c r="K59">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="L59">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M59">
         <v>76.099999999999994</v>
       </c>
-      <c r="C59">
+      <c r="N59">
+        <v>76.2</v>
+      </c>
+      <c r="O59">
         <v>76.5</v>
       </c>
-      <c r="D59">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="E59">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="F59">
-        <v>77.5</v>
-      </c>
-      <c r="G59">
-        <v>77.8</v>
-      </c>
-      <c r="H59">
+      <c r="P59">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Q59">
+        <v>76.8</v>
+      </c>
+      <c r="R59">
+        <v>76.8</v>
+      </c>
+      <c r="S59">
+        <v>77.3</v>
+      </c>
+      <c r="T59">
         <v>78.2</v>
       </c>
-      <c r="I59">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="J59">
-        <v>78.5</v>
-      </c>
-      <c r="K59">
-        <v>79</v>
-      </c>
-      <c r="L59">
-        <v>79</v>
-      </c>
-      <c r="M59">
-        <v>79.3</v>
-      </c>
-      <c r="N59">
-        <v>79.3</v>
-      </c>
-      <c r="O59">
+      <c r="U59">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="V59">
+        <v>78.7</v>
+      </c>
+      <c r="W59">
+        <v>78.7</v>
+      </c>
+      <c r="X59">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Y59">
+        <v>79.2</v>
+      </c>
+      <c r="Z59">
         <v>79.400000000000006</v>
       </c>
-      <c r="P59">
-        <v>79.8</v>
-      </c>
-      <c r="Q59">
-        <v>79.7</v>
-      </c>
-      <c r="R59">
+      <c r="AA59">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AB59">
+        <v>80</v>
+      </c>
+      <c r="AC59">
+        <v>80.2</v>
+      </c>
+      <c r="AD59">
         <v>80.3</v>
       </c>
-      <c r="S59">
+      <c r="AE59">
         <v>80.599999999999994</v>
       </c>
-      <c r="T59">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="U59">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="V59">
+      <c r="AF59">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AG59">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AH59">
         <v>81.2</v>
       </c>
-      <c r="W59">
-        <v>81.5</v>
-      </c>
-      <c r="X59">
+      <c r="AI59">
+        <v>81.7</v>
+      </c>
+      <c r="AJ59">
         <v>81.8</v>
       </c>
-      <c r="Y59">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="Z59">
+      <c r="AK59">
+        <v>82</v>
+      </c>
+      <c r="AL59">
         <v>82.1</v>
       </c>
-      <c r="AA59">
-        <v>82</v>
-      </c>
-      <c r="AB59">
+      <c r="AM59">
+        <v>82.2</v>
+      </c>
+      <c r="AN59">
         <v>82.4</v>
       </c>
-      <c r="AC59">
+      <c r="AO59">
         <v>82.6</v>
       </c>
-      <c r="AD59">
-        <v>82.6</v>
-      </c>
-      <c r="AE59">
-        <v>83</v>
-      </c>
-      <c r="AF59">
-        <v>82.9</v>
-      </c>
-      <c r="AG59">
+      <c r="AP59">
         <v>82.7</v>
       </c>
-      <c r="AH59">
-        <v>83.2</v>
-      </c>
-      <c r="AI59">
-        <v>83.4</v>
-      </c>
-      <c r="AJ59">
-        <v>83.7</v>
-      </c>
-      <c r="AK59">
-        <v>83.9</v>
-      </c>
-      <c r="AL59">
-        <v>84.1</v>
-      </c>
-      <c r="AM59">
-        <v>84.2</v>
-      </c>
-      <c r="AN59">
-        <v>84.3</v>
-      </c>
-      <c r="AO59">
-        <v>84.4</v>
-      </c>
-      <c r="AP59">
-        <v>84.7</v>
-      </c>
       <c r="AQ59">
-        <v>84.8</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8547,130 +8508,130 @@
         <v>101</v>
       </c>
       <c r="B60">
-        <v>58.5</v>
+        <v>46.3</v>
       </c>
       <c r="C60">
-        <v>61.2</v>
+        <v>46.5</v>
       </c>
       <c r="D60">
-        <v>61</v>
+        <v>46.5</v>
       </c>
       <c r="E60">
-        <v>61</v>
+        <v>46.6</v>
       </c>
       <c r="F60">
-        <v>60.8</v>
+        <v>46.6</v>
       </c>
       <c r="G60">
-        <v>60.6</v>
+        <v>46.3</v>
       </c>
       <c r="H60">
-        <v>60.2</v>
+        <v>46</v>
       </c>
       <c r="I60">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J60">
-        <v>59.5</v>
+        <v>46.1</v>
       </c>
       <c r="K60">
-        <v>59</v>
+        <v>46.2</v>
       </c>
       <c r="L60">
-        <v>58.6</v>
+        <v>46</v>
       </c>
       <c r="M60">
-        <v>58</v>
+        <v>45.7</v>
       </c>
       <c r="N60">
-        <v>57.3</v>
+        <v>45.7</v>
       </c>
       <c r="O60">
-        <v>56.6</v>
+        <v>45.8</v>
       </c>
       <c r="P60">
-        <v>56.3</v>
+        <v>45.5</v>
       </c>
       <c r="Q60">
-        <v>55.6</v>
+        <v>45.5</v>
       </c>
       <c r="R60">
-        <v>55.2</v>
+        <v>45.6</v>
       </c>
       <c r="S60">
-        <v>54.8</v>
+        <v>45.8</v>
       </c>
       <c r="T60">
-        <v>54.5</v>
+        <v>46</v>
       </c>
       <c r="U60">
-        <v>54.5</v>
+        <v>46.6</v>
       </c>
       <c r="V60">
-        <v>54.4</v>
+        <v>47.2</v>
       </c>
       <c r="W60">
-        <v>54.5</v>
+        <v>47.6</v>
       </c>
       <c r="X60">
-        <v>55</v>
+        <v>47.9</v>
       </c>
       <c r="Y60">
-        <v>55.6</v>
+        <v>48.4</v>
       </c>
       <c r="Z60">
-        <v>56.4</v>
+        <v>48.8</v>
       </c>
       <c r="AA60">
-        <v>57.3</v>
+        <v>49.3</v>
       </c>
       <c r="AB60">
-        <v>58.2</v>
+        <v>49.7</v>
       </c>
       <c r="AC60">
-        <v>58.9</v>
+        <v>50</v>
       </c>
       <c r="AD60">
-        <v>59.6</v>
+        <v>50.2</v>
       </c>
       <c r="AE60">
-        <v>60.4</v>
+        <v>50.7</v>
       </c>
       <c r="AF60">
-        <v>60.6</v>
+        <v>50.9</v>
       </c>
       <c r="AG60">
-        <v>61</v>
+        <v>51.4</v>
       </c>
       <c r="AH60">
-        <v>61.1</v>
+        <v>51.5</v>
       </c>
       <c r="AI60">
-        <v>61.4</v>
+        <v>51.7</v>
       </c>
       <c r="AJ60">
-        <v>61.8</v>
+        <v>51.8</v>
       </c>
       <c r="AK60">
-        <v>61.9</v>
+        <v>51.8</v>
       </c>
       <c r="AL60">
-        <v>62.2</v>
+        <v>52</v>
       </c>
       <c r="AM60">
-        <v>62.5</v>
+        <v>52.3</v>
       </c>
       <c r="AN60">
-        <v>62.7</v>
+        <v>52.6</v>
       </c>
       <c r="AO60">
-        <v>62.9</v>
+        <v>52.9</v>
       </c>
       <c r="AP60">
-        <v>62.7</v>
+        <v>52.9</v>
       </c>
       <c r="AQ60">
-        <v>61.4</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8678,130 +8639,130 @@
         <v>102</v>
       </c>
       <c r="B61">
-        <v>70.3</v>
+        <v>57.6</v>
       </c>
       <c r="C61">
-        <v>71.099999999999994</v>
+        <v>58.1</v>
       </c>
       <c r="D61">
-        <v>71.5</v>
+        <v>58.4</v>
       </c>
       <c r="E61">
-        <v>72</v>
+        <v>58.9</v>
       </c>
       <c r="F61">
-        <v>72.599999999999994</v>
+        <v>59.3</v>
       </c>
       <c r="G61">
-        <v>73.099999999999994</v>
+        <v>59.4</v>
       </c>
       <c r="H61">
-        <v>73.599999999999994</v>
+        <v>59.5</v>
       </c>
       <c r="I61">
-        <v>74.099999999999994</v>
+        <v>59.1</v>
       </c>
       <c r="J61">
-        <v>74.5</v>
+        <v>59.4</v>
       </c>
       <c r="K61">
-        <v>74.8</v>
+        <v>59.6</v>
       </c>
       <c r="L61">
-        <v>73.3</v>
+        <v>60.1</v>
       </c>
       <c r="M61">
-        <v>74.2</v>
+        <v>60.3</v>
       </c>
       <c r="N61">
-        <v>75.7</v>
+        <v>60.1</v>
       </c>
       <c r="O61">
-        <v>75.8</v>
+        <v>59.9</v>
       </c>
       <c r="P61">
-        <v>75.8</v>
+        <v>60.1</v>
       </c>
       <c r="Q61">
-        <v>75.5</v>
+        <v>59.9</v>
       </c>
       <c r="R61">
-        <v>75.599999999999994</v>
+        <v>60.4</v>
       </c>
       <c r="S61">
-        <v>75.900000000000006</v>
+        <v>60.6</v>
       </c>
       <c r="T61">
-        <v>76.2</v>
+        <v>61.1</v>
       </c>
       <c r="U61">
-        <v>76.400000000000006</v>
+        <v>61.7</v>
       </c>
       <c r="V61">
-        <v>76.7</v>
+        <v>62.1</v>
       </c>
       <c r="W61">
-        <v>76.900000000000006</v>
+        <v>62.4</v>
       </c>
       <c r="X61">
-        <v>77</v>
+        <v>62.6</v>
       </c>
       <c r="Y61">
-        <v>77</v>
+        <v>62.8</v>
       </c>
       <c r="Z61">
-        <v>76.8</v>
+        <v>63.1</v>
       </c>
       <c r="AA61">
-        <v>76.900000000000006</v>
+        <v>62.5</v>
       </c>
       <c r="AB61">
-        <v>76.900000000000006</v>
+        <v>63.7</v>
       </c>
       <c r="AC61">
-        <v>77</v>
+        <v>63.9</v>
       </c>
       <c r="AD61">
-        <v>77.099999999999994</v>
+        <v>64</v>
       </c>
       <c r="AE61">
-        <v>77.400000000000006</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="AF61">
-        <v>78</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="AG61">
-        <v>78.5</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="AH61">
-        <v>78.8</v>
+        <v>64.8</v>
       </c>
       <c r="AI61">
-        <v>79.2</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="AJ61">
-        <v>79.400000000000006</v>
+        <v>65.3</v>
       </c>
       <c r="AK61">
-        <v>79.599999999999994</v>
+        <v>65.7</v>
       </c>
       <c r="AL61">
-        <v>79.7</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="AM61">
-        <v>79.8</v>
+        <v>66.3</v>
       </c>
       <c r="AN61">
-        <v>79.7</v>
+        <v>66.5</v>
       </c>
       <c r="AO61">
-        <v>79.7</v>
+        <v>66.8</v>
       </c>
       <c r="AP61">
-        <v>76.900000000000006</v>
+        <v>66.3</v>
       </c>
       <c r="AQ61">
-        <v>78.7</v>
+        <v>66.099999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8809,130 +8770,130 @@
         <v>103</v>
       </c>
       <c r="B62">
-        <v>64.900000000000006</v>
+        <v>64.7</v>
       </c>
       <c r="C62">
+        <v>65</v>
+      </c>
+      <c r="D62">
         <v>65.400000000000006</v>
       </c>
-      <c r="D62">
-        <v>65.8</v>
-      </c>
       <c r="E62">
-        <v>66.400000000000006</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="F62">
-        <v>66.900000000000006</v>
+        <v>66</v>
       </c>
       <c r="G62">
+        <v>66.3</v>
+      </c>
+      <c r="H62">
+        <v>66.7</v>
+      </c>
+      <c r="I62">
+        <v>67</v>
+      </c>
+      <c r="J62">
         <v>67.3</v>
       </c>
-      <c r="H62">
-        <v>67.8</v>
-      </c>
-      <c r="I62">
+      <c r="K62">
+        <v>67.5</v>
+      </c>
+      <c r="L62">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="M62">
         <v>68.2</v>
       </c>
-      <c r="J62">
+      <c r="N62">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="O62">
         <v>68.599999999999994</v>
       </c>
-      <c r="K62">
+      <c r="P62">
+        <v>68.8</v>
+      </c>
+      <c r="Q62">
         <v>69</v>
       </c>
-      <c r="L62">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="M62">
+      <c r="R62">
+        <v>69.2</v>
+      </c>
+      <c r="S62">
+        <v>69.3</v>
+      </c>
+      <c r="T62">
+        <v>69.5</v>
+      </c>
+      <c r="U62">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="V62">
         <v>69.8</v>
       </c>
-      <c r="N62">
-        <v>70.2</v>
-      </c>
-      <c r="O62">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="P62">
-        <v>70.7</v>
-      </c>
-      <c r="Q62">
+      <c r="W62">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="X62">
+        <v>70</v>
+      </c>
+      <c r="Y62">
+        <v>70.3</v>
+      </c>
+      <c r="Z62">
+        <v>70.5</v>
+      </c>
+      <c r="AA62">
+        <v>70.5</v>
+      </c>
+      <c r="AB62">
+        <v>70.8</v>
+      </c>
+      <c r="AC62">
         <v>71.099999999999994</v>
       </c>
-      <c r="R62">
-        <v>71.3</v>
-      </c>
-      <c r="S62">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="T62">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="U62">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="V62">
-        <v>70.7</v>
-      </c>
-      <c r="W62">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="X62">
-        <v>71</v>
-      </c>
-      <c r="Y62">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="Z62">
-        <v>71.5</v>
-      </c>
-      <c r="AA62">
+      <c r="AD62">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AE62">
         <v>71.599999999999994</v>
       </c>
-      <c r="AB62">
-        <v>71.7</v>
-      </c>
-      <c r="AC62">
+      <c r="AF62">
         <v>71.900000000000006</v>
       </c>
-      <c r="AD62">
-        <v>72.3</v>
-      </c>
-      <c r="AE62">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AF62">
-        <v>72.400000000000006</v>
-      </c>
       <c r="AG62">
-        <v>70.099999999999994</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="AH62">
-        <v>72.2</v>
+        <v>72.5</v>
       </c>
       <c r="AI62">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="AJ62">
-        <v>71.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="AK62">
-        <v>71.7</v>
+        <v>73.2</v>
       </c>
       <c r="AL62">
-        <v>71.8</v>
+        <v>73.5</v>
       </c>
       <c r="AM62">
-        <v>72.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AN62">
-        <v>72.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AO62">
-        <v>72.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AP62">
-        <v>72.5</v>
+        <v>73.2</v>
       </c>
       <c r="AQ62">
-        <v>71.900000000000006</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -8940,130 +8901,130 @@
         <v>104</v>
       </c>
       <c r="B63">
-        <v>68.2</v>
+        <v>48</v>
       </c>
       <c r="C63">
-        <v>68.900000000000006</v>
+        <v>49.4</v>
       </c>
       <c r="D63">
-        <v>69.2</v>
+        <v>50.7</v>
       </c>
       <c r="E63">
-        <v>69.599999999999994</v>
+        <v>51.3</v>
       </c>
       <c r="F63">
-        <v>69.900000000000006</v>
+        <v>51.6</v>
       </c>
       <c r="G63">
-        <v>70.3</v>
+        <v>51.7</v>
       </c>
       <c r="H63">
-        <v>70.5</v>
+        <v>51.6</v>
       </c>
       <c r="I63">
-        <v>70.7</v>
+        <v>51.5</v>
       </c>
       <c r="J63">
-        <v>70.900000000000006</v>
+        <v>51</v>
       </c>
       <c r="K63">
-        <v>71.099999999999994</v>
+        <v>50.2</v>
       </c>
       <c r="L63">
-        <v>71.3</v>
+        <v>48.4</v>
       </c>
       <c r="M63">
-        <v>71.400000000000006</v>
+        <v>46.5</v>
       </c>
       <c r="N63">
-        <v>71.5</v>
+        <v>44.3</v>
       </c>
       <c r="O63">
-        <v>71.8</v>
+        <v>42.2</v>
       </c>
       <c r="P63">
-        <v>72.2</v>
+        <v>14.1</v>
       </c>
       <c r="Q63">
-        <v>72.400000000000006</v>
+        <v>40</v>
       </c>
       <c r="R63">
-        <v>72.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="S63">
-        <v>72.3</v>
+        <v>40.6</v>
       </c>
       <c r="T63">
-        <v>72.2</v>
+        <v>41.7</v>
       </c>
       <c r="U63">
-        <v>72.3</v>
+        <v>44.6</v>
       </c>
       <c r="V63">
-        <v>72.8</v>
+        <v>47.1</v>
       </c>
       <c r="W63">
-        <v>73.3</v>
+        <v>49</v>
       </c>
       <c r="X63">
-        <v>73.599999999999994</v>
+        <v>51</v>
       </c>
       <c r="Y63">
-        <v>73.8</v>
+        <v>53.4</v>
       </c>
       <c r="Z63">
-        <v>73.900000000000006</v>
+        <v>55.5</v>
       </c>
       <c r="AA63">
-        <v>74.099999999999994</v>
+        <v>57.3</v>
       </c>
       <c r="AB63">
-        <v>74.2</v>
+        <v>58.7</v>
       </c>
       <c r="AC63">
-        <v>74.2</v>
+        <v>60</v>
       </c>
       <c r="AD63">
-        <v>74.3</v>
+        <v>61.1</v>
       </c>
       <c r="AE63">
-        <v>74.2</v>
+        <v>62</v>
       </c>
       <c r="AF63">
-        <v>74.400000000000006</v>
+        <v>62.5</v>
       </c>
       <c r="AG63">
-        <v>74.7</v>
+        <v>63.3</v>
       </c>
       <c r="AH63">
-        <v>74.900000000000006</v>
+        <v>64</v>
       </c>
       <c r="AI63">
-        <v>75</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="AJ63">
-        <v>75.099999999999994</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="AK63">
-        <v>75.099999999999994</v>
+        <v>65.3</v>
       </c>
       <c r="AL63">
-        <v>75.3</v>
+        <v>65.7</v>
       </c>
       <c r="AM63">
-        <v>75.5</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="AN63">
-        <v>75.599999999999994</v>
+        <v>66.3</v>
       </c>
       <c r="AO63">
-        <v>75.8</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="AP63">
-        <v>75.900000000000006</v>
+        <v>66.8</v>
       </c>
       <c r="AQ63">
-        <v>74.900000000000006</v>
+        <v>66.099999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -9071,130 +9032,130 @@
         <v>105</v>
       </c>
       <c r="B64">
-        <v>40.799999999999997</v>
+        <v>62.7</v>
       </c>
       <c r="C64">
-        <v>41.2</v>
+        <v>63.5</v>
       </c>
       <c r="D64">
-        <v>41.8</v>
+        <v>64.3</v>
       </c>
       <c r="E64">
-        <v>42.1</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="F64">
-        <v>42.7</v>
+        <v>65.7</v>
       </c>
       <c r="G64">
-        <v>43.2</v>
+        <v>66.3</v>
       </c>
       <c r="H64">
-        <v>44</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="I64">
-        <v>44.7</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="J64">
-        <v>45.4</v>
+        <v>68</v>
       </c>
       <c r="K64">
-        <v>45.9</v>
+        <v>68.5</v>
       </c>
       <c r="L64">
-        <v>46.6</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="M64">
-        <v>47.2</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="N64">
-        <v>47.5</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="O64">
-        <v>47.7</v>
+        <v>70.3</v>
       </c>
       <c r="P64">
-        <v>47.7</v>
+        <v>70.7</v>
       </c>
       <c r="Q64">
-        <v>47.8</v>
+        <v>71</v>
       </c>
       <c r="R64">
-        <v>47.8</v>
+        <v>71.3</v>
       </c>
       <c r="S64">
-        <v>48.5</v>
+        <v>71.5</v>
       </c>
       <c r="T64">
-        <v>49.2</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="U64">
-        <v>49.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="V64">
-        <v>50.5</v>
+        <v>72.5</v>
       </c>
       <c r="W64">
-        <v>51.3</v>
+        <v>73</v>
       </c>
       <c r="X64">
-        <v>52.2</v>
+        <v>73.3</v>
       </c>
       <c r="Y64">
-        <v>52.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Z64">
-        <v>53.5</v>
+        <v>74.2</v>
       </c>
       <c r="AA64">
-        <v>54</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="AB64">
-        <v>54.6</v>
+        <v>74.8</v>
       </c>
       <c r="AC64">
-        <v>54.9</v>
+        <v>75</v>
       </c>
       <c r="AD64">
-        <v>55.3</v>
+        <v>75.3</v>
       </c>
       <c r="AE64">
-        <v>55.9</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="AF64">
-        <v>56.4</v>
+        <v>75.8</v>
       </c>
       <c r="AG64">
-        <v>56.8</v>
+        <v>76.2</v>
       </c>
       <c r="AH64">
-        <v>57.1</v>
+        <v>76.5</v>
       </c>
       <c r="AI64">
-        <v>57.4</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AJ64">
-        <v>57.9</v>
+        <v>76.8</v>
       </c>
       <c r="AK64">
-        <v>58.4</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="AL64">
-        <v>58.7</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="AM64">
-        <v>59.1</v>
+        <v>77.2</v>
       </c>
       <c r="AN64">
-        <v>59.4</v>
+        <v>77.2</v>
       </c>
       <c r="AO64">
-        <v>59.7</v>
+        <v>77.3</v>
       </c>
       <c r="AP64">
-        <v>58.6</v>
+        <v>76.2</v>
       </c>
       <c r="AQ64">
-        <v>58.9</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -9202,130 +9163,130 @@
         <v>106</v>
       </c>
       <c r="B65">
-        <v>47.9</v>
+        <v>49.1</v>
       </c>
       <c r="C65">
-        <v>48.4</v>
+        <v>49.8</v>
       </c>
       <c r="D65">
-        <v>48.9</v>
+        <v>50.6</v>
       </c>
       <c r="E65">
-        <v>49.4</v>
+        <v>51.2</v>
       </c>
       <c r="F65">
-        <v>50.2</v>
+        <v>52</v>
       </c>
       <c r="G65">
-        <v>50.9</v>
+        <v>52.8</v>
       </c>
       <c r="H65">
-        <v>51.5</v>
+        <v>53.9</v>
       </c>
       <c r="I65">
-        <v>52.5</v>
+        <v>54.8</v>
       </c>
       <c r="J65">
-        <v>53.1</v>
+        <v>55.8</v>
       </c>
       <c r="K65">
-        <v>54.1</v>
+        <v>56.4</v>
       </c>
       <c r="L65">
-        <v>54.8</v>
+        <v>56.9</v>
       </c>
       <c r="M65">
-        <v>55.7</v>
+        <v>57.1</v>
       </c>
       <c r="N65">
+        <v>57.1</v>
+      </c>
+      <c r="O65">
+        <v>57</v>
+      </c>
+      <c r="P65">
+        <v>57</v>
+      </c>
+      <c r="Q65">
+        <v>56.8</v>
+      </c>
+      <c r="R65">
         <v>56.7</v>
       </c>
-      <c r="O65">
+      <c r="S65">
+        <v>56.6</v>
+      </c>
+      <c r="T65">
+        <v>56.4</v>
+      </c>
+      <c r="U65">
+        <v>56.6</v>
+      </c>
+      <c r="V65">
+        <v>56.9</v>
+      </c>
+      <c r="W65">
         <v>57.6</v>
       </c>
-      <c r="P65">
-        <v>58.6</v>
-      </c>
-      <c r="Q65">
-        <v>59.3</v>
-      </c>
-      <c r="R65">
+      <c r="X65">
+        <v>58.2</v>
+      </c>
+      <c r="Y65">
+        <v>59.1</v>
+      </c>
+      <c r="Z65">
         <v>60</v>
       </c>
-      <c r="S65">
-        <v>60.8</v>
-      </c>
-      <c r="T65">
-        <v>61.5</v>
-      </c>
-      <c r="U65">
-        <v>62.1</v>
-      </c>
-      <c r="V65">
-        <v>62.6</v>
-      </c>
-      <c r="W65">
-        <v>63.3</v>
-      </c>
-      <c r="X65">
-        <v>63.3</v>
-      </c>
-      <c r="Y65">
-        <v>64.2</v>
-      </c>
-      <c r="Z65">
-        <v>64.8</v>
-      </c>
       <c r="AA65">
+        <v>60.9</v>
+      </c>
+      <c r="AB65">
+        <v>61.8</v>
+      </c>
+      <c r="AC65">
+        <v>62.5</v>
+      </c>
+      <c r="AD65">
+        <v>63.2</v>
+      </c>
+      <c r="AE65">
+        <v>63.9</v>
+      </c>
+      <c r="AF65">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AG65">
+        <v>65.3</v>
+      </c>
+      <c r="AH65">
         <v>65.5</v>
       </c>
-      <c r="AB65">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="AC65">
-        <v>66.3</v>
-      </c>
-      <c r="AD65">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="AE65">
-        <v>66.8</v>
-      </c>
-      <c r="AF65">
-        <v>66.8</v>
-      </c>
-      <c r="AG65">
-        <v>67.3</v>
-      </c>
-      <c r="AH65">
+      <c r="AI65">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="AJ65">
+        <v>66.5</v>
+      </c>
+      <c r="AK65">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AL65">
         <v>67.5</v>
       </c>
-      <c r="AI65">
+      <c r="AM65">
+        <v>67.8</v>
+      </c>
+      <c r="AN65">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AO65">
+        <v>68.5</v>
+      </c>
+      <c r="AP65">
         <v>68</v>
       </c>
-      <c r="AJ65">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="AK65">
-        <v>67.5</v>
-      </c>
-      <c r="AL65">
-        <v>68.8</v>
-      </c>
-      <c r="AM65">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="AN65">
-        <v>69</v>
-      </c>
-      <c r="AO65">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="AP65">
-        <v>69.2</v>
-      </c>
       <c r="AQ65">
-        <v>68.400000000000006</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -9333,130 +9294,130 @@
         <v>107</v>
       </c>
       <c r="B66">
-        <v>72.900000000000006</v>
+        <v>71.7</v>
       </c>
       <c r="C66">
-        <v>73.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="D66">
+        <v>72.3</v>
+      </c>
+      <c r="E66">
+        <v>72.7</v>
+      </c>
+      <c r="F66">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G66">
         <v>73.7</v>
       </c>
-      <c r="E66">
-        <v>73.8</v>
-      </c>
-      <c r="F66">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="G66">
-        <v>73.900000000000006</v>
-      </c>
       <c r="H66">
-        <v>74.099999999999994</v>
+        <v>74.2</v>
       </c>
       <c r="I66">
-        <v>74.2</v>
+        <v>74.7</v>
       </c>
       <c r="J66">
-        <v>74.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="K66">
+        <v>74.8</v>
+      </c>
+      <c r="L66">
         <v>74.900000000000006</v>
       </c>
-      <c r="L66">
-        <v>75.400000000000006</v>
-      </c>
       <c r="M66">
-        <v>76.099999999999994</v>
+        <v>75.3</v>
       </c>
       <c r="N66">
-        <v>76.2</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="O66">
+        <v>75.8</v>
+      </c>
+      <c r="P66">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="Q66">
+        <v>76</v>
+      </c>
+      <c r="R66">
         <v>76.5</v>
       </c>
-      <c r="P66">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="Q66">
-        <v>76.8</v>
-      </c>
-      <c r="R66">
-        <v>76.8</v>
-      </c>
       <c r="S66">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="T66">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="U66">
-        <v>77.900000000000006</v>
+        <v>78.5</v>
       </c>
       <c r="V66">
-        <v>78.7</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="W66">
-        <v>78.7</v>
+        <v>79.2</v>
       </c>
       <c r="X66">
-        <v>78.900000000000006</v>
+        <v>79.3</v>
       </c>
       <c r="Y66">
-        <v>79.2</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="Z66">
-        <v>79.400000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="AA66">
-        <v>80.099999999999994</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="AB66">
-        <v>80</v>
+        <v>80.7</v>
       </c>
       <c r="AC66">
-        <v>80.2</v>
+        <v>81</v>
       </c>
       <c r="AD66">
-        <v>80.3</v>
+        <v>81.2</v>
       </c>
       <c r="AE66">
-        <v>80.599999999999994</v>
+        <v>81.5</v>
       </c>
       <c r="AF66">
-        <v>81.099999999999994</v>
+        <v>81.7</v>
       </c>
       <c r="AG66">
-        <v>80.900000000000006</v>
+        <v>82</v>
       </c>
       <c r="AH66">
-        <v>81.2</v>
+        <v>82.2</v>
       </c>
       <c r="AI66">
-        <v>81.7</v>
+        <v>82.5</v>
       </c>
       <c r="AJ66">
-        <v>81.8</v>
+        <v>82.7</v>
       </c>
       <c r="AK66">
-        <v>82</v>
+        <v>82.8</v>
       </c>
       <c r="AL66">
-        <v>82.1</v>
+        <v>83</v>
       </c>
       <c r="AM66">
-        <v>82.2</v>
+        <v>83.2</v>
       </c>
       <c r="AN66">
-        <v>82.4</v>
+        <v>83.5</v>
       </c>
       <c r="AO66">
-        <v>82.6</v>
+        <v>83.8</v>
       </c>
       <c r="AP66">
-        <v>82.7</v>
+        <v>82.9</v>
       </c>
       <c r="AQ66">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -9464,130 +9425,130 @@
         <v>108</v>
       </c>
       <c r="B67">
-        <v>46.3</v>
+        <v>68.7</v>
       </c>
       <c r="C67">
-        <v>46.5</v>
+        <v>69.2</v>
       </c>
       <c r="D67">
-        <v>46.5</v>
+        <v>69.7</v>
       </c>
       <c r="E67">
-        <v>46.6</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="F67">
-        <v>46.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="G67">
-        <v>46.3</v>
+        <v>71</v>
       </c>
       <c r="H67">
-        <v>46</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I67">
-        <v>46</v>
+        <v>71.5</v>
       </c>
       <c r="J67">
-        <v>46.1</v>
+        <v>71.5</v>
       </c>
       <c r="K67">
-        <v>46.2</v>
+        <v>69.8</v>
       </c>
       <c r="L67">
-        <v>46</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="M67">
-        <v>45.7</v>
+        <v>71.8</v>
       </c>
       <c r="N67">
-        <v>45.7</v>
+        <v>72.5</v>
       </c>
       <c r="O67">
-        <v>45.8</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="P67">
-        <v>45.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="Q67">
-        <v>45.5</v>
+        <v>72.3</v>
       </c>
       <c r="R67">
-        <v>45.6</v>
+        <v>72.3</v>
       </c>
       <c r="S67">
-        <v>45.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="T67">
-        <v>46</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="U67">
-        <v>46.6</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="V67">
-        <v>47.2</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="W67">
-        <v>47.6</v>
+        <v>70.8</v>
       </c>
       <c r="X67">
-        <v>47.9</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="Y67">
-        <v>48.4</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="Z67">
-        <v>48.8</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="AA67">
-        <v>49.3</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="AB67">
-        <v>49.7</v>
+        <v>72</v>
       </c>
       <c r="AC67">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="AD67">
-        <v>50.2</v>
+        <v>71.7</v>
       </c>
       <c r="AE67">
-        <v>50.7</v>
+        <v>69.2</v>
       </c>
       <c r="AF67">
-        <v>50.9</v>
+        <v>73.2</v>
       </c>
       <c r="AG67">
-        <v>51.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="AH67">
-        <v>51.5</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="AI67">
-        <v>51.7</v>
+        <v>74.2</v>
       </c>
       <c r="AJ67">
-        <v>51.8</v>
+        <v>74.7</v>
       </c>
       <c r="AK67">
-        <v>51.8</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="AL67">
-        <v>52</v>
+        <v>75.3</v>
       </c>
       <c r="AM67">
-        <v>52.3</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="AN67">
-        <v>52.6</v>
+        <v>75.7</v>
       </c>
       <c r="AO67">
-        <v>52.9</v>
+        <v>76</v>
       </c>
       <c r="AP67">
-        <v>52.9</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="AQ67">
-        <v>52.7</v>
+        <v>76.400000000000006</v>
       </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -9595,130 +9556,130 @@
         <v>109</v>
       </c>
       <c r="B68">
-        <v>57.6</v>
+        <v>75.7</v>
       </c>
       <c r="C68">
-        <v>58.1</v>
+        <v>76</v>
       </c>
       <c r="D68">
-        <v>58.4</v>
+        <v>76.3</v>
       </c>
       <c r="E68">
-        <v>58.9</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="F68">
-        <v>59.3</v>
+        <v>76.8</v>
       </c>
       <c r="G68">
-        <v>59.4</v>
+        <v>76.7</v>
       </c>
       <c r="H68">
-        <v>59.5</v>
+        <v>77</v>
       </c>
       <c r="I68">
-        <v>59.1</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="J68">
-        <v>59.4</v>
+        <v>77</v>
       </c>
       <c r="K68">
-        <v>59.6</v>
+        <v>77.7</v>
       </c>
       <c r="L68">
-        <v>60.1</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="M68">
-        <v>60.3</v>
+        <v>77.7</v>
       </c>
       <c r="N68">
-        <v>60.1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="O68">
-        <v>59.9</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="P68">
-        <v>60.1</v>
+        <v>78.7</v>
       </c>
       <c r="Q68">
-        <v>59.9</v>
+        <v>78.8</v>
       </c>
       <c r="R68">
-        <v>60.4</v>
+        <v>79</v>
       </c>
       <c r="S68">
-        <v>60.6</v>
+        <v>79.3</v>
       </c>
       <c r="T68">
-        <v>61.1</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="U68">
-        <v>61.7</v>
+        <v>79.5</v>
       </c>
       <c r="V68">
-        <v>62.1</v>
+        <v>79.7</v>
       </c>
       <c r="W68">
-        <v>62.4</v>
+        <v>79.8</v>
       </c>
       <c r="X68">
-        <v>62.6</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="Y68">
-        <v>62.8</v>
+        <v>80.2</v>
       </c>
       <c r="Z68">
-        <v>63.1</v>
+        <v>80.5</v>
       </c>
       <c r="AA68">
-        <v>62.5</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AB68">
-        <v>63.7</v>
+        <v>80.8</v>
       </c>
       <c r="AC68">
-        <v>63.9</v>
+        <v>81</v>
       </c>
       <c r="AD68">
-        <v>64</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="AE68">
-        <v>64.099999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="AF68">
-        <v>64.400000000000006</v>
+        <v>81.5</v>
       </c>
       <c r="AG68">
-        <v>64.599999999999994</v>
+        <v>81.8</v>
       </c>
       <c r="AH68">
-        <v>64.8</v>
+        <v>81.7</v>
       </c>
       <c r="AI68">
-        <v>65.099999999999994</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="AJ68">
-        <v>65.3</v>
+        <v>82.2</v>
       </c>
       <c r="AK68">
-        <v>65.7</v>
+        <v>82.2</v>
       </c>
       <c r="AL68">
-        <v>65.900000000000006</v>
+        <v>82.3</v>
       </c>
       <c r="AM68">
-        <v>66.3</v>
+        <v>82.4</v>
       </c>
       <c r="AN68">
-        <v>66.5</v>
+        <v>82.5</v>
       </c>
       <c r="AO68">
-        <v>66.8</v>
+        <v>83.1</v>
       </c>
       <c r="AP68">
-        <v>66.3</v>
+        <v>82.4</v>
       </c>
       <c r="AQ68">
-        <v>66.099999999999994</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -9726,130 +9687,130 @@
         <v>110</v>
       </c>
       <c r="B69">
-        <v>64.7</v>
+        <v>68.5</v>
       </c>
       <c r="C69">
-        <v>65</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D69">
-        <v>65.400000000000006</v>
+        <v>69.7</v>
       </c>
       <c r="E69">
-        <v>65.599999999999994</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="F69">
-        <v>66</v>
+        <v>70.5</v>
       </c>
       <c r="G69">
-        <v>66.3</v>
+        <v>70.7</v>
       </c>
       <c r="H69">
-        <v>66.7</v>
+        <v>71</v>
       </c>
       <c r="I69">
-        <v>67</v>
+        <v>71.5</v>
       </c>
       <c r="J69">
-        <v>67.3</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="K69">
-        <v>67.5</v>
+        <v>71.8</v>
       </c>
       <c r="L69">
-        <v>67.900000000000006</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="M69">
-        <v>68.2</v>
+        <v>72.2</v>
       </c>
       <c r="N69">
-        <v>68.400000000000006</v>
+        <v>72.3</v>
       </c>
       <c r="O69">
-        <v>68.599999999999994</v>
+        <v>72.5</v>
       </c>
       <c r="P69">
-        <v>68.8</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="Q69">
-        <v>69</v>
+        <v>72.7</v>
       </c>
       <c r="R69">
-        <v>69.2</v>
+        <v>72.8</v>
       </c>
       <c r="S69">
-        <v>69.3</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="T69">
-        <v>69.5</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="U69">
-        <v>69.599999999999994</v>
+        <v>73.7</v>
       </c>
       <c r="V69">
-        <v>69.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="W69">
-        <v>69.900000000000006</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="X69">
-        <v>70</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="Y69">
-        <v>70.3</v>
+        <v>76.2</v>
       </c>
       <c r="Z69">
-        <v>70.5</v>
+        <v>76.5</v>
       </c>
       <c r="AA69">
-        <v>70.5</v>
+        <v>76.7</v>
       </c>
       <c r="AB69">
-        <v>70.8</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="AC69">
-        <v>71.099999999999994</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="AD69">
-        <v>71.400000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="AE69">
-        <v>71.599999999999994</v>
+        <v>78</v>
       </c>
       <c r="AF69">
-        <v>71.900000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="AG69">
-        <v>72.099999999999994</v>
+        <v>78.5</v>
       </c>
       <c r="AH69">
-        <v>72.5</v>
+        <v>78.7</v>
       </c>
       <c r="AI69">
-        <v>72.8</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="AJ69">
-        <v>72.900000000000006</v>
+        <v>79</v>
       </c>
       <c r="AK69">
-        <v>73.2</v>
+        <v>79.2</v>
       </c>
       <c r="AL69">
-        <v>73.5</v>
+        <v>79.3</v>
       </c>
       <c r="AM69">
-        <v>73.599999999999994</v>
+        <v>79.5</v>
       </c>
       <c r="AN69">
-        <v>73.599999999999994</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="AO69">
-        <v>73.599999999999994</v>
+        <v>79.7</v>
       </c>
       <c r="AP69">
-        <v>73.2</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="AQ69">
-        <v>70.3</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.55000000000000004">
@@ -9857,1837 +9818,134 @@
         <v>111</v>
       </c>
       <c r="B70">
-        <v>70.8</v>
+        <v>58.7</v>
       </c>
       <c r="C70">
-        <v>71.3</v>
+        <v>59.3</v>
       </c>
       <c r="D70">
-        <v>71.5</v>
+        <v>59.9</v>
       </c>
       <c r="E70">
-        <v>71.7</v>
+        <v>60.2</v>
       </c>
       <c r="F70">
-        <v>72.2</v>
+        <v>61.1</v>
       </c>
       <c r="G70">
-        <v>72.400000000000006</v>
+        <v>61.6</v>
       </c>
       <c r="H70">
-        <v>72.599999999999994</v>
+        <v>62</v>
       </c>
       <c r="I70">
-        <v>73</v>
+        <v>61.8</v>
       </c>
       <c r="J70">
-        <v>73.2</v>
+        <v>61.3</v>
       </c>
       <c r="K70">
-        <v>73.599999999999994</v>
+        <v>60.4</v>
       </c>
       <c r="L70">
-        <v>74</v>
+        <v>59.4</v>
       </c>
       <c r="M70">
-        <v>74</v>
+        <v>58.1</v>
       </c>
       <c r="N70">
-        <v>74.099999999999994</v>
+        <v>56.4</v>
       </c>
       <c r="O70">
-        <v>74.2</v>
+        <v>54.4</v>
       </c>
       <c r="P70">
-        <v>74.3</v>
+        <v>52.6</v>
       </c>
       <c r="Q70">
-        <v>74.2</v>
+        <v>50.5</v>
       </c>
       <c r="R70">
-        <v>74.7</v>
+        <v>49</v>
       </c>
       <c r="S70">
-        <v>74.8</v>
+        <v>48</v>
       </c>
       <c r="T70">
-        <v>74.8</v>
+        <v>46.8</v>
       </c>
       <c r="U70">
-        <v>74.8</v>
+        <v>45.2</v>
       </c>
       <c r="V70">
-        <v>74.8</v>
+        <v>44.7</v>
       </c>
       <c r="W70">
-        <v>75.3</v>
+        <v>42</v>
       </c>
       <c r="X70">
-        <v>75.400000000000006</v>
+        <v>44.6</v>
       </c>
       <c r="Y70">
-        <v>75.599999999999994</v>
+        <v>43.4</v>
       </c>
       <c r="Z70">
-        <v>76</v>
+        <v>44.5</v>
       </c>
       <c r="AA70">
-        <v>76.099999999999994</v>
+        <v>44.8</v>
       </c>
       <c r="AB70">
-        <v>76.599999999999994</v>
+        <v>45.4</v>
       </c>
       <c r="AC70">
-        <v>77</v>
+        <v>45.6</v>
       </c>
       <c r="AD70">
-        <v>77.400000000000006</v>
+        <v>46.7</v>
       </c>
       <c r="AE70">
-        <v>77.900000000000006</v>
+        <v>48.1</v>
       </c>
       <c r="AF70">
-        <v>78.400000000000006</v>
+        <v>50.7</v>
       </c>
       <c r="AG70">
-        <v>78.900000000000006</v>
+        <v>53.3</v>
       </c>
       <c r="AH70">
-        <v>79.2</v>
+        <v>55.6</v>
       </c>
       <c r="AI70">
-        <v>79.5</v>
+        <v>57.5</v>
       </c>
       <c r="AJ70">
-        <v>79.8</v>
+        <v>58.8</v>
       </c>
       <c r="AK70">
-        <v>80.099999999999994</v>
+        <v>59.6</v>
       </c>
       <c r="AL70">
-        <v>80.400000000000006</v>
+        <v>60.3</v>
       </c>
       <c r="AM70">
-        <v>80.7</v>
+        <v>60.7</v>
       </c>
       <c r="AN70">
-        <v>80.900000000000006</v>
+        <v>61.4</v>
       </c>
       <c r="AO70">
-        <v>81</v>
+        <v>61.3</v>
       </c>
       <c r="AP70">
-        <v>79.099999999999994</v>
+        <v>61.1</v>
       </c>
       <c r="AQ70">
-        <v>79.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71">
-        <v>48</v>
-      </c>
-      <c r="C71">
-        <v>49.4</v>
-      </c>
-      <c r="D71">
-        <v>50.7</v>
-      </c>
-      <c r="E71">
-        <v>51.3</v>
-      </c>
-      <c r="F71">
-        <v>51.6</v>
-      </c>
-      <c r="G71">
-        <v>51.7</v>
-      </c>
-      <c r="H71">
-        <v>51.6</v>
-      </c>
-      <c r="I71">
-        <v>51.5</v>
-      </c>
-      <c r="J71">
-        <v>51</v>
-      </c>
-      <c r="K71">
-        <v>50.2</v>
-      </c>
-      <c r="L71">
-        <v>48.4</v>
-      </c>
-      <c r="M71">
-        <v>46.5</v>
-      </c>
-      <c r="N71">
-        <v>44.3</v>
-      </c>
-      <c r="O71">
-        <v>42.2</v>
-      </c>
-      <c r="P71">
-        <v>14.1</v>
-      </c>
-      <c r="Q71">
-        <v>40</v>
-      </c>
-      <c r="R71">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="S71">
-        <v>40.6</v>
-      </c>
-      <c r="T71">
-        <v>41.7</v>
-      </c>
-      <c r="U71">
-        <v>44.6</v>
-      </c>
-      <c r="V71">
-        <v>47.1</v>
-      </c>
-      <c r="W71">
-        <v>49</v>
-      </c>
-      <c r="X71">
-        <v>51</v>
-      </c>
-      <c r="Y71">
-        <v>53.4</v>
-      </c>
-      <c r="Z71">
-        <v>55.5</v>
-      </c>
-      <c r="AA71">
-        <v>57.3</v>
-      </c>
-      <c r="AB71">
-        <v>58.7</v>
-      </c>
-      <c r="AC71">
-        <v>60</v>
-      </c>
-      <c r="AD71">
-        <v>61.1</v>
-      </c>
-      <c r="AE71">
-        <v>62</v>
-      </c>
-      <c r="AF71">
-        <v>62.5</v>
-      </c>
-      <c r="AG71">
-        <v>63.3</v>
-      </c>
-      <c r="AH71">
-        <v>64</v>
-      </c>
-      <c r="AI71">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AJ71">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="AK71">
-        <v>65.3</v>
-      </c>
-      <c r="AL71">
-        <v>65.7</v>
-      </c>
-      <c r="AM71">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="AN71">
-        <v>66.3</v>
-      </c>
-      <c r="AO71">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="AP71">
-        <v>66.8</v>
-      </c>
-      <c r="AQ71">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72">
-        <v>62.7</v>
-      </c>
-      <c r="C72">
-        <v>63.5</v>
-      </c>
-      <c r="D72">
-        <v>64.3</v>
-      </c>
-      <c r="E72">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="F72">
-        <v>65.7</v>
-      </c>
-      <c r="G72">
-        <v>66.3</v>
-      </c>
-      <c r="H72">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="I72">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="J72">
-        <v>68</v>
-      </c>
-      <c r="K72">
-        <v>68.5</v>
-      </c>
-      <c r="L72">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="M72">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="N72">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="O72">
-        <v>70.3</v>
-      </c>
-      <c r="P72">
-        <v>70.7</v>
-      </c>
-      <c r="Q72">
-        <v>71</v>
-      </c>
-      <c r="R72">
-        <v>71.3</v>
-      </c>
-      <c r="S72">
-        <v>71.5</v>
-      </c>
-      <c r="T72">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="U72">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="V72">
-        <v>72.5</v>
-      </c>
-      <c r="W72">
-        <v>73</v>
-      </c>
-      <c r="X72">
-        <v>73.3</v>
-      </c>
-      <c r="Y72">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="Z72">
-        <v>74.2</v>
-      </c>
-      <c r="AA72">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="AB72">
-        <v>74.8</v>
-      </c>
-      <c r="AC72">
-        <v>75</v>
-      </c>
-      <c r="AD72">
-        <v>75.3</v>
-      </c>
-      <c r="AE72">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="AF72">
-        <v>75.8</v>
-      </c>
-      <c r="AG72">
-        <v>76.2</v>
-      </c>
-      <c r="AH72">
-        <v>76.5</v>
-      </c>
-      <c r="AI72">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="AJ72">
-        <v>76.8</v>
-      </c>
-      <c r="AK72">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="AL72">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="AM72">
-        <v>77.2</v>
-      </c>
-      <c r="AN72">
-        <v>77.2</v>
-      </c>
-      <c r="AO72">
-        <v>77.3</v>
-      </c>
-      <c r="AP72">
-        <v>76.2</v>
-      </c>
-      <c r="AQ72">
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73">
-        <v>49.1</v>
-      </c>
-      <c r="C73">
-        <v>49.8</v>
-      </c>
-      <c r="D73">
-        <v>50.6</v>
-      </c>
-      <c r="E73">
-        <v>51.2</v>
-      </c>
-      <c r="F73">
-        <v>52</v>
-      </c>
-      <c r="G73">
-        <v>52.8</v>
-      </c>
-      <c r="H73">
-        <v>53.9</v>
-      </c>
-      <c r="I73">
-        <v>54.8</v>
-      </c>
-      <c r="J73">
-        <v>55.8</v>
-      </c>
-      <c r="K73">
-        <v>56.4</v>
-      </c>
-      <c r="L73">
-        <v>56.9</v>
-      </c>
-      <c r="M73">
-        <v>57.1</v>
-      </c>
-      <c r="N73">
-        <v>57.1</v>
-      </c>
-      <c r="O73">
-        <v>57</v>
-      </c>
-      <c r="P73">
-        <v>57</v>
-      </c>
-      <c r="Q73">
-        <v>56.8</v>
-      </c>
-      <c r="R73">
-        <v>56.7</v>
-      </c>
-      <c r="S73">
-        <v>56.6</v>
-      </c>
-      <c r="T73">
-        <v>56.4</v>
-      </c>
-      <c r="U73">
-        <v>56.6</v>
-      </c>
-      <c r="V73">
-        <v>56.9</v>
-      </c>
-      <c r="W73">
-        <v>57.6</v>
-      </c>
-      <c r="X73">
-        <v>58.2</v>
-      </c>
-      <c r="Y73">
-        <v>59.1</v>
-      </c>
-      <c r="Z73">
-        <v>60</v>
-      </c>
-      <c r="AA73">
-        <v>60.9</v>
-      </c>
-      <c r="AB73">
-        <v>61.8</v>
-      </c>
-      <c r="AC73">
-        <v>62.5</v>
-      </c>
-      <c r="AD73">
-        <v>63.2</v>
-      </c>
-      <c r="AE73">
-        <v>63.9</v>
-      </c>
-      <c r="AF73">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="AG73">
-        <v>65.3</v>
-      </c>
-      <c r="AH73">
-        <v>65.5</v>
-      </c>
-      <c r="AI73">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="AJ73">
-        <v>66.5</v>
-      </c>
-      <c r="AK73">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="AL73">
-        <v>67.5</v>
-      </c>
-      <c r="AM73">
-        <v>67.8</v>
-      </c>
-      <c r="AN73">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="AO73">
-        <v>68.5</v>
-      </c>
-      <c r="AP73">
-        <v>68</v>
-      </c>
-      <c r="AQ73">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74">
-        <v>71.7</v>
-      </c>
-      <c r="C74">
-        <v>72</v>
-      </c>
-      <c r="D74">
-        <v>72.3</v>
-      </c>
-      <c r="E74">
-        <v>72.7</v>
-      </c>
-      <c r="F74">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="G74">
-        <v>73.7</v>
-      </c>
-      <c r="H74">
-        <v>74.2</v>
-      </c>
-      <c r="I74">
-        <v>74.7</v>
-      </c>
-      <c r="J74">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="K74">
-        <v>74.8</v>
-      </c>
-      <c r="L74">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="M74">
-        <v>75.3</v>
-      </c>
-      <c r="N74">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="O74">
-        <v>75.8</v>
-      </c>
-      <c r="P74">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="Q74">
-        <v>76</v>
-      </c>
-      <c r="R74">
-        <v>76.5</v>
-      </c>
-      <c r="S74">
-        <v>77.2</v>
-      </c>
-      <c r="T74">
-        <v>78</v>
-      </c>
-      <c r="U74">
-        <v>78.5</v>
-      </c>
-      <c r="V74">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="W74">
-        <v>79.2</v>
-      </c>
-      <c r="X74">
-        <v>79.3</v>
-      </c>
-      <c r="Y74">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="Z74">
-        <v>79.8</v>
-      </c>
-      <c r="AA74">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="AB74">
-        <v>80.7</v>
-      </c>
-      <c r="AC74">
-        <v>81</v>
-      </c>
-      <c r="AD74">
-        <v>81.2</v>
-      </c>
-      <c r="AE74">
-        <v>81.5</v>
-      </c>
-      <c r="AF74">
-        <v>81.7</v>
-      </c>
-      <c r="AG74">
-        <v>82</v>
-      </c>
-      <c r="AH74">
-        <v>82.2</v>
-      </c>
-      <c r="AI74">
-        <v>82.5</v>
-      </c>
-      <c r="AJ74">
-        <v>82.7</v>
-      </c>
-      <c r="AK74">
-        <v>82.8</v>
-      </c>
-      <c r="AL74">
-        <v>83</v>
-      </c>
-      <c r="AM74">
-        <v>83.2</v>
-      </c>
-      <c r="AN74">
-        <v>83.5</v>
-      </c>
-      <c r="AO74">
-        <v>83.8</v>
-      </c>
-      <c r="AP74">
-        <v>82.9</v>
-      </c>
-      <c r="AQ74">
-        <v>82.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75">
-        <v>38.4</v>
-      </c>
-      <c r="C75">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D75">
-        <v>39.1</v>
-      </c>
-      <c r="E75">
-        <v>35.5</v>
-      </c>
-      <c r="F75">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="G75">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="H75">
-        <v>33.6</v>
-      </c>
-      <c r="I75">
-        <v>21.9</v>
-      </c>
-      <c r="J75">
-        <v>12.4</v>
-      </c>
-      <c r="K75">
-        <v>29.7</v>
-      </c>
-      <c r="L75">
-        <v>29.9</v>
-      </c>
-      <c r="M75">
-        <v>30.1</v>
-      </c>
-      <c r="N75">
-        <v>22.7</v>
-      </c>
-      <c r="O75">
-        <v>22.7</v>
-      </c>
-      <c r="P75">
-        <v>44.4</v>
-      </c>
-      <c r="Q75">
-        <v>30.9</v>
-      </c>
-      <c r="R75">
-        <v>31.3</v>
-      </c>
-      <c r="S75">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="T75">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="U75">
-        <v>43.2</v>
-      </c>
-      <c r="V75">
-        <v>46</v>
-      </c>
-      <c r="W75">
-        <v>46.9</v>
-      </c>
-      <c r="X75">
-        <v>47.5</v>
-      </c>
-      <c r="Y75">
-        <v>50.3</v>
-      </c>
-      <c r="Z75">
-        <v>50.9</v>
-      </c>
-      <c r="AA75">
-        <v>51.5</v>
-      </c>
-      <c r="AB75">
-        <v>52</v>
-      </c>
-      <c r="AC75">
-        <v>52.9</v>
-      </c>
-      <c r="AD75">
-        <v>53.5</v>
-      </c>
-      <c r="AE75">
-        <v>53.9</v>
-      </c>
-      <c r="AF75">
-        <v>54.8</v>
-      </c>
-      <c r="AG75">
-        <v>54.9</v>
-      </c>
-      <c r="AH75">
-        <v>55.9</v>
-      </c>
-      <c r="AI75">
-        <v>55.8</v>
-      </c>
-      <c r="AJ75">
-        <v>55</v>
-      </c>
-      <c r="AK75">
-        <v>55.6</v>
-      </c>
-      <c r="AL75">
-        <v>55.5</v>
-      </c>
-      <c r="AM75">
-        <v>55.3</v>
-      </c>
-      <c r="AN75">
-        <v>55.9</v>
-      </c>
-      <c r="AO75">
-        <v>55.9</v>
-      </c>
-      <c r="AP75">
-        <v>55.5</v>
-      </c>
-      <c r="AQ75">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76">
-        <v>68.7</v>
-      </c>
-      <c r="C76">
-        <v>69.2</v>
-      </c>
-      <c r="D76">
-        <v>69.7</v>
-      </c>
-      <c r="E76">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="F76">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="G76">
-        <v>71</v>
-      </c>
-      <c r="H76">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="I76">
-        <v>71.5</v>
-      </c>
-      <c r="J76">
-        <v>71.5</v>
-      </c>
-      <c r="K76">
-        <v>69.8</v>
-      </c>
-      <c r="L76">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="M76">
-        <v>71.8</v>
-      </c>
-      <c r="N76">
-        <v>72.5</v>
-      </c>
-      <c r="O76">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="P76">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="Q76">
-        <v>72.3</v>
-      </c>
-      <c r="R76">
-        <v>72.3</v>
-      </c>
-      <c r="S76">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="T76">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="U76">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="V76">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="W76">
-        <v>70.8</v>
-      </c>
-      <c r="X76">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="Y76">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="Z76">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="AA76">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AB76">
-        <v>72</v>
-      </c>
-      <c r="AC76">
-        <v>72</v>
-      </c>
-      <c r="AD76">
-        <v>71.7</v>
-      </c>
-      <c r="AE76">
-        <v>69.2</v>
-      </c>
-      <c r="AF76">
-        <v>73.2</v>
-      </c>
-      <c r="AG76">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="AH76">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="AI76">
-        <v>74.2</v>
-      </c>
-      <c r="AJ76">
-        <v>74.7</v>
-      </c>
-      <c r="AK76">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="AL76">
-        <v>75.3</v>
-      </c>
-      <c r="AM76">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="AN76">
-        <v>75.7</v>
-      </c>
-      <c r="AO76">
-        <v>76</v>
-      </c>
-      <c r="AP76">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="AQ76">
-        <v>76.400000000000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77">
-        <v>75.7</v>
-      </c>
-      <c r="C77">
-        <v>76</v>
-      </c>
-      <c r="D77">
-        <v>76.3</v>
-      </c>
-      <c r="E77">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="F77">
-        <v>76.8</v>
-      </c>
-      <c r="G77">
-        <v>76.7</v>
-      </c>
-      <c r="H77">
-        <v>77</v>
-      </c>
-      <c r="I77">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="J77">
-        <v>77</v>
-      </c>
-      <c r="K77">
-        <v>77.7</v>
-      </c>
-      <c r="L77">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="M77">
-        <v>77.7</v>
-      </c>
-      <c r="N77">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="O77">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="P77">
-        <v>78.7</v>
-      </c>
-      <c r="Q77">
-        <v>78.8</v>
-      </c>
-      <c r="R77">
-        <v>79</v>
-      </c>
-      <c r="S77">
-        <v>79.3</v>
-      </c>
-      <c r="T77">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="U77">
-        <v>79.5</v>
-      </c>
-      <c r="V77">
-        <v>79.7</v>
-      </c>
-      <c r="W77">
-        <v>79.8</v>
-      </c>
-      <c r="X77">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="Y77">
-        <v>80.2</v>
-      </c>
-      <c r="Z77">
-        <v>80.5</v>
-      </c>
-      <c r="AA77">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="AB77">
-        <v>80.8</v>
-      </c>
-      <c r="AC77">
-        <v>81</v>
-      </c>
-      <c r="AD77">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="AE77">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="AF77">
-        <v>81.5</v>
-      </c>
-      <c r="AG77">
-        <v>81.8</v>
-      </c>
-      <c r="AH77">
-        <v>81.7</v>
-      </c>
-      <c r="AI77">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="AJ77">
-        <v>82.2</v>
-      </c>
-      <c r="AK77">
-        <v>82.2</v>
-      </c>
-      <c r="AL77">
-        <v>82.3</v>
-      </c>
-      <c r="AM77">
-        <v>82.4</v>
-      </c>
-      <c r="AN77">
-        <v>82.5</v>
-      </c>
-      <c r="AO77">
-        <v>83.1</v>
-      </c>
-      <c r="AP77">
-        <v>82.4</v>
-      </c>
-      <c r="AQ77">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78">
-        <v>72</v>
-      </c>
-      <c r="C78">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="D78">
-        <v>72.5</v>
-      </c>
-      <c r="E78">
-        <v>72.5</v>
-      </c>
-      <c r="F78">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="G78">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="H78">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="I78">
-        <v>73.7</v>
-      </c>
-      <c r="J78">
-        <v>73.5</v>
-      </c>
-      <c r="K78">
-        <v>73.7</v>
-      </c>
-      <c r="L78">
-        <v>74</v>
-      </c>
-      <c r="M78">
-        <v>74.3</v>
-      </c>
-      <c r="N78">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="O78">
-        <v>74.7</v>
-      </c>
-      <c r="P78">
-        <v>74.8</v>
-      </c>
-      <c r="Q78">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R78">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="S78">
-        <v>75.3</v>
-      </c>
-      <c r="T78">
-        <v>75.5</v>
-      </c>
-      <c r="U78">
-        <v>75.7</v>
-      </c>
-      <c r="V78">
-        <v>76.2</v>
-      </c>
-      <c r="W78">
-        <v>76.5</v>
-      </c>
-      <c r="X78">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="Y78">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="Z78">
-        <v>77.2</v>
-      </c>
-      <c r="AA78">
-        <v>77.2</v>
-      </c>
-      <c r="AB78">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="AC78">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="AD78">
-        <v>78.3</v>
-      </c>
-      <c r="AE78">
-        <v>78.8</v>
-      </c>
-      <c r="AF78">
-        <v>79.2</v>
-      </c>
-      <c r="AG78">
-        <v>79</v>
-      </c>
-      <c r="AH78">
-        <v>79.3</v>
-      </c>
-      <c r="AI78">
-        <v>79.7</v>
-      </c>
-      <c r="AJ78">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="AK78">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="AL78">
-        <v>79.8</v>
-      </c>
-      <c r="AM78">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="AN78">
-        <v>80.5</v>
-      </c>
-      <c r="AO78">
-        <v>80.7</v>
-      </c>
-      <c r="AP78">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="AQ78">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79">
-        <v>42.9</v>
-      </c>
-      <c r="C79">
-        <v>43.1</v>
-      </c>
-      <c r="D79">
-        <v>43.2</v>
-      </c>
-      <c r="E79">
-        <v>43.5</v>
-      </c>
-      <c r="F79">
-        <v>43.8</v>
-      </c>
-      <c r="G79">
-        <v>45.4</v>
-      </c>
-      <c r="H79">
-        <v>45.3</v>
-      </c>
-      <c r="I79">
-        <v>46.6</v>
-      </c>
-      <c r="J79">
-        <v>46.7</v>
-      </c>
-      <c r="K79">
-        <v>46.5</v>
-      </c>
-      <c r="L79">
-        <v>46.4</v>
-      </c>
-      <c r="M79">
-        <v>46.3</v>
-      </c>
-      <c r="N79">
-        <v>46.4</v>
-      </c>
-      <c r="O79">
-        <v>46.2</v>
-      </c>
-      <c r="P79">
-        <v>46.4</v>
-      </c>
-      <c r="Q79">
-        <v>46.6</v>
-      </c>
-      <c r="R79">
-        <v>46.7</v>
-      </c>
-      <c r="S79">
-        <v>47</v>
-      </c>
-      <c r="T79">
-        <v>47.2</v>
-      </c>
-      <c r="U79">
-        <v>47.8</v>
-      </c>
-      <c r="V79">
-        <v>48.3</v>
-      </c>
-      <c r="W79">
-        <v>49</v>
-      </c>
-      <c r="X79">
-        <v>49.6</v>
-      </c>
-      <c r="Y79">
-        <v>50.4</v>
-      </c>
-      <c r="Z79">
-        <v>51.5</v>
-      </c>
-      <c r="AA79">
-        <v>53</v>
-      </c>
-      <c r="AB79">
-        <v>54.4</v>
-      </c>
-      <c r="AC79">
-        <v>55.2</v>
-      </c>
-      <c r="AD79">
-        <v>55.8</v>
-      </c>
-      <c r="AE79">
-        <v>56.5</v>
-      </c>
-      <c r="AF79">
-        <v>57.1</v>
-      </c>
-      <c r="AG79">
-        <v>58</v>
-      </c>
-      <c r="AH79">
-        <v>58.8</v>
-      </c>
-      <c r="AI79">
-        <v>59.8</v>
-      </c>
-      <c r="AJ79">
-        <v>60.4</v>
-      </c>
-      <c r="AK79">
-        <v>61.1</v>
-      </c>
-      <c r="AL79">
-        <v>61.6</v>
-      </c>
-      <c r="AM79">
-        <v>62.1</v>
-      </c>
-      <c r="AN79">
-        <v>62.7</v>
-      </c>
-      <c r="AO79">
-        <v>63</v>
-      </c>
-      <c r="AP79">
-        <v>62.9</v>
-      </c>
-      <c r="AQ79">
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B80">
-        <v>68.5</v>
-      </c>
-      <c r="C80">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="D80">
-        <v>69.7</v>
-      </c>
-      <c r="E80">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="F80">
-        <v>70.5</v>
-      </c>
-      <c r="G80">
-        <v>70.7</v>
-      </c>
-      <c r="H80">
-        <v>71</v>
-      </c>
-      <c r="I80">
-        <v>71.5</v>
-      </c>
-      <c r="J80">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="K80">
-        <v>71.8</v>
-      </c>
-      <c r="L80">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="M80">
-        <v>72.2</v>
-      </c>
-      <c r="N80">
-        <v>72.3</v>
-      </c>
-      <c r="O80">
-        <v>72.5</v>
-      </c>
-      <c r="P80">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="Q80">
-        <v>72.7</v>
-      </c>
-      <c r="R80">
-        <v>72.8</v>
-      </c>
-      <c r="S80">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="T80">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="U80">
-        <v>73.7</v>
-      </c>
-      <c r="V80">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="W80">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="X80">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="Y80">
-        <v>76.2</v>
-      </c>
-      <c r="Z80">
-        <v>76.5</v>
-      </c>
-      <c r="AA80">
-        <v>76.7</v>
-      </c>
-      <c r="AB80">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="AC80">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="AD80">
-        <v>77.5</v>
-      </c>
-      <c r="AE80">
-        <v>78</v>
-      </c>
-      <c r="AF80">
-        <v>78.3</v>
-      </c>
-      <c r="AG80">
-        <v>78.5</v>
-      </c>
-      <c r="AH80">
-        <v>78.7</v>
-      </c>
-      <c r="AI80">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="AJ80">
-        <v>79</v>
-      </c>
-      <c r="AK80">
-        <v>79.2</v>
-      </c>
-      <c r="AL80">
-        <v>79.3</v>
-      </c>
-      <c r="AM80">
-        <v>79.5</v>
-      </c>
-      <c r="AN80">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="AO80">
-        <v>79.7</v>
-      </c>
-      <c r="AP80">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="AQ80">
-        <v>78.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81">
-        <v>68.8</v>
-      </c>
-      <c r="C81">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="D81">
-        <v>69.7</v>
-      </c>
-      <c r="E81">
-        <v>70.2</v>
-      </c>
-      <c r="F81">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="G81">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="H81">
-        <v>71</v>
-      </c>
-      <c r="I81">
-        <v>71</v>
-      </c>
-      <c r="J81">
-        <v>71.3</v>
-      </c>
-      <c r="K81">
-        <v>71.3</v>
-      </c>
-      <c r="L81">
-        <v>71.5</v>
-      </c>
-      <c r="M81">
-        <v>71.8</v>
-      </c>
-      <c r="N81">
-        <v>71.8</v>
-      </c>
-      <c r="O81">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="P81">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="Q81">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="R81">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="S81">
-        <v>72.7</v>
-      </c>
-      <c r="T81">
-        <v>72.7</v>
-      </c>
-      <c r="U81">
-        <v>72.3</v>
-      </c>
-      <c r="V81">
-        <v>72.5</v>
-      </c>
-      <c r="W81">
-        <v>71.2</v>
-      </c>
-      <c r="X81">
-        <v>72.7</v>
-      </c>
-      <c r="Y81">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="Z81">
-        <v>72.5</v>
-      </c>
-      <c r="AA81">
-        <v>72.8</v>
-      </c>
-      <c r="AB81">
-        <v>72.7</v>
-      </c>
-      <c r="AC81">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="AD81">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AE81">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="AF81">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="AG81">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="AH81">
-        <v>73</v>
-      </c>
-      <c r="AI81">
-        <v>73.2</v>
-      </c>
-      <c r="AJ81">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="AK81">
-        <v>73</v>
-      </c>
-      <c r="AL81">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AM81">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="AN81">
-        <v>72</v>
-      </c>
-      <c r="AO81">
-        <v>72.2</v>
-      </c>
-      <c r="AP81">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="AQ81">
-        <v>70.599999999999994</v>
-      </c>
-    </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82">
-        <v>66.2</v>
-      </c>
-      <c r="C82">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="D82">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E82">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="F82">
-        <v>67.3</v>
-      </c>
-      <c r="G82">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="H82">
-        <v>68</v>
-      </c>
-      <c r="I82">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="J82">
-        <v>68.5</v>
-      </c>
-      <c r="K82">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="L82">
-        <v>69.2</v>
-      </c>
-      <c r="M82">
-        <v>69.8</v>
-      </c>
-      <c r="N82">
-        <v>70</v>
-      </c>
-      <c r="O82">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="P82">
-        <v>70.8</v>
-      </c>
-      <c r="Q82">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="R82">
-        <v>71.5</v>
-      </c>
-      <c r="S82">
-        <v>71.8</v>
-      </c>
-      <c r="T82">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="U82">
-        <v>72.3</v>
-      </c>
-      <c r="V82">
-        <v>72.5</v>
-      </c>
-      <c r="W82">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="X82">
-        <v>72.8</v>
-      </c>
-      <c r="Y82">
-        <v>73</v>
-      </c>
-      <c r="Z82">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="AA82">
-        <v>73.3</v>
-      </c>
-      <c r="AB82">
-        <v>73.3</v>
-      </c>
-      <c r="AC82">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="AD82">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="AE82">
-        <v>73.5</v>
-      </c>
-      <c r="AF82">
-        <v>73.5</v>
-      </c>
-      <c r="AG82">
-        <v>73.7</v>
-      </c>
-      <c r="AH82">
-        <v>73.7</v>
-      </c>
-      <c r="AI82">
-        <v>73.8</v>
-      </c>
-      <c r="AJ82">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="AK82">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="AL82">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="AM82">
-        <v>74</v>
-      </c>
-      <c r="AN82">
-        <v>74</v>
-      </c>
-      <c r="AO82">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="AP82">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="AQ82">
-        <v>73.599999999999994</v>
-      </c>
-    </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83">
-        <v>58.7</v>
-      </c>
-      <c r="C83">
-        <v>59.3</v>
-      </c>
-      <c r="D83">
-        <v>59.9</v>
-      </c>
-      <c r="E83">
-        <v>60.2</v>
-      </c>
-      <c r="F83">
-        <v>61.1</v>
-      </c>
-      <c r="G83">
-        <v>61.6</v>
-      </c>
-      <c r="H83">
-        <v>62</v>
-      </c>
-      <c r="I83">
-        <v>61.8</v>
-      </c>
-      <c r="J83">
-        <v>61.3</v>
-      </c>
-      <c r="K83">
-        <v>60.4</v>
-      </c>
-      <c r="L83">
-        <v>59.4</v>
-      </c>
-      <c r="M83">
-        <v>58.1</v>
-      </c>
-      <c r="N83">
-        <v>56.4</v>
-      </c>
-      <c r="O83">
-        <v>54.4</v>
-      </c>
-      <c r="P83">
-        <v>52.6</v>
-      </c>
-      <c r="Q83">
-        <v>50.5</v>
-      </c>
-      <c r="R83">
-        <v>49</v>
-      </c>
-      <c r="S83">
-        <v>48</v>
-      </c>
-      <c r="T83">
-        <v>46.8</v>
-      </c>
-      <c r="U83">
-        <v>45.2</v>
-      </c>
-      <c r="V83">
-        <v>44.7</v>
-      </c>
-      <c r="W83">
-        <v>42</v>
-      </c>
-      <c r="X83">
-        <v>44.6</v>
-      </c>
-      <c r="Y83">
-        <v>43.4</v>
-      </c>
-      <c r="Z83">
-        <v>44.5</v>
-      </c>
-      <c r="AA83">
-        <v>44.8</v>
-      </c>
-      <c r="AB83">
-        <v>45.4</v>
-      </c>
-      <c r="AC83">
-        <v>45.6</v>
-      </c>
-      <c r="AD83">
-        <v>46.7</v>
-      </c>
-      <c r="AE83">
-        <v>48.1</v>
-      </c>
-      <c r="AF83">
-        <v>50.7</v>
-      </c>
-      <c r="AG83">
-        <v>53.3</v>
-      </c>
-      <c r="AH83">
-        <v>55.6</v>
-      </c>
-      <c r="AI83">
-        <v>57.5</v>
-      </c>
-      <c r="AJ83">
-        <v>58.8</v>
-      </c>
-      <c r="AK83">
-        <v>59.6</v>
-      </c>
-      <c r="AL83">
-        <v>60.3</v>
-      </c>
-      <c r="AM83">
-        <v>60.7</v>
-      </c>
-      <c r="AN83">
-        <v>61.4</v>
-      </c>
-      <c r="AO83">
-        <v>61.3</v>
-      </c>
-      <c r="AP83">
-        <v>61.1</v>
-      </c>
-      <c r="AQ83">
         <v>59.3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AQ37">
+  <conditionalFormatting sqref="A1:AQ70">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
